--- a/YSteam開発資料まとめ/設計書9日までに/DB設計書_ヨウグン.xlsx
+++ b/YSteam開発資料まとめ/設計書9日までに/DB設計書_ヨウグン.xlsx
@@ -5,26 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yq199\Documents\gips-share-202110\03_演習課題\08_実践演習\01_設計\ドキュメントフォーマット\設計書サンプル\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yq199\Documents\prac\YSteam開発資料まとめ\設計書9日までに\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C6968A-26C7-4CF5-9B9F-3E7E6B25B7FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B9C311-070B-452F-B098-81FC8C1EA073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.テーブル一覧" sheetId="4" r:id="rId1"/>
     <sheet name="2.1.ユーザマスタ" sheetId="11" r:id="rId2"/>
     <sheet name="2.2.問題表" sheetId="13" r:id="rId3"/>
-    <sheet name="2.3.答案表" sheetId="14" r:id="rId4"/>
-    <sheet name="2.4.ユーザー回答履歴表" sheetId="15" r:id="rId5"/>
+    <sheet name="2.3.ユーザー回答履歴表" sheetId="15" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="69">
   <si>
     <t>システム名</t>
   </si>
@@ -222,10 +221,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ヨウグン</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>問題ID</t>
     <rPh sb="0" eb="2">
       <t>モンダイ</t>
@@ -244,71 +239,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>答案ID</t>
-    <rPh sb="0" eb="2">
-      <t>トウアン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>答案内容</t>
-    <rPh sb="2" eb="4">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>正確かどうか</t>
-    <rPh sb="0" eb="2">
-      <t>セイカク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>content</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>isRight</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>questionId</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>answer_id</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>subject</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>答案対する問題のID</t>
-    <rPh sb="0" eb="2">
-      <t>トウアン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>モンダイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>0：間違い　1：正確</t>
-    <rPh sb="2" eb="4">
-      <t>マチガ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>セイカク</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -340,16 +271,6 @@
     <t>2.テーブル定義 2.２.問題表</t>
     <rPh sb="13" eb="16">
       <t>モンダイヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2.テーブル定義 2.1.答案表</t>
-    <rPh sb="13" eb="15">
-      <t>トウアン</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ヒョウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -400,18 +321,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ID</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>answerResult</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>userId</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -449,30 +358,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <t>question</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="游ゴシック Medium"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>d</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ユーザーはこの問題に対して選択した選択肢</t>
     <rPh sb="7" eb="9">
       <t>モンダイ</t>
@@ -485,6 +370,192 @@
     </rPh>
     <rPh sb="17" eb="20">
       <t>センタクシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>答案A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>答案</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>答案</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>答案</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>answerA</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>answerB</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>answerC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>answerD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>答案の中身</t>
+    <rPh sb="0" eb="2">
+      <t>トウアン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナカミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>正答</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>この問題に対して正答の番号（例え：A、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B…..</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="游ゴシック Medium"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <rPh sb="2" eb="4">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイトウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>タト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>問題のID（例え第一問：1）</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ダイイチモン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザー登録するとき入力したID</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザー登録するとき入力したパスワード</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザー登録するとき入力したユーザ名</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rightResult</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>answeredResult</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザーは回答した問題のID</t>
+    <rPh sb="5" eb="7">
+      <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>前回回答したユーザーのID</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイトウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -901,7 +972,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1080,6 +1151,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1433,7 +1510,7 @@
   <dimension ref="A1:AMK30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y10" sqref="Y10:AR10"/>
+      <selection activeCell="AS14" sqref="AS14:CI14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -1521,7 +1598,7 @@
       <c r="BN1" s="40"/>
       <c r="BO1" s="40"/>
       <c r="BP1" s="41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="BQ1" s="41"/>
       <c r="BR1" s="41"/>
@@ -3999,7 +4076,7 @@
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
       <c r="E8" s="21" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
@@ -4021,7 +4098,7 @@
       <c r="W8" s="21"/>
       <c r="X8" s="21"/>
       <c r="Y8" s="21" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="Z8" s="21"/>
       <c r="AA8" s="21"/>
@@ -4043,7 +4120,7 @@
       <c r="AQ8" s="21"/>
       <c r="AR8" s="21"/>
       <c r="AS8" s="22" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="AT8" s="22"/>
       <c r="AU8" s="22"/>
@@ -6175,7 +6252,7 @@
   <dimension ref="A1:AMK30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:X5"/>
+      <selection activeCell="BF5" sqref="BF5:CI5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -6263,7 +6340,7 @@
       <c r="BN1" s="40"/>
       <c r="BO1" s="40"/>
       <c r="BP1" s="41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="BQ1" s="41"/>
       <c r="BR1" s="41"/>
@@ -8459,7 +8536,7 @@
       <c r="C5" s="58"/>
       <c r="D5" s="58"/>
       <c r="E5" s="47" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F5" s="47"/>
       <c r="G5" s="47"/>
@@ -8481,7 +8558,7 @@
       <c r="W5" s="47"/>
       <c r="X5" s="47"/>
       <c r="Y5" s="59" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z5" s="47"/>
       <c r="AA5" s="47"/>
@@ -8521,7 +8598,9 @@
       </c>
       <c r="BD5" s="46"/>
       <c r="BE5" s="46"/>
-      <c r="BF5" s="47"/>
+      <c r="BF5" s="47" t="s">
+        <v>62</v>
+      </c>
       <c r="BG5" s="47"/>
       <c r="BH5" s="47"/>
       <c r="BI5" s="47"/>
@@ -8619,7 +8698,9 @@
       </c>
       <c r="BD6" s="46"/>
       <c r="BE6" s="46"/>
-      <c r="BF6" s="47"/>
+      <c r="BF6" s="47" t="s">
+        <v>63</v>
+      </c>
       <c r="BG6" s="47"/>
       <c r="BH6" s="47"/>
       <c r="BI6" s="47"/>
@@ -8717,7 +8798,9 @@
       </c>
       <c r="BD7" s="54"/>
       <c r="BE7" s="54"/>
-      <c r="BF7" s="47"/>
+      <c r="BF7" s="47" t="s">
+        <v>64</v>
+      </c>
       <c r="BG7" s="47"/>
       <c r="BH7" s="47"/>
       <c r="BI7" s="47"/>
@@ -8755,7 +8838,7 @@
       <c r="C8" s="58"/>
       <c r="D8" s="58"/>
       <c r="E8" s="47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" s="47"/>
       <c r="G8" s="47"/>
@@ -8777,7 +8860,7 @@
       <c r="W8" s="47"/>
       <c r="X8" s="47"/>
       <c r="Y8" s="47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z8" s="47"/>
       <c r="AA8" s="47"/>
@@ -8802,7 +8885,7 @@
       <c r="AT8" s="49"/>
       <c r="AU8" s="49"/>
       <c r="AV8" s="47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AW8" s="47"/>
       <c r="AX8" s="47"/>
@@ -10994,7 +11077,7 @@
   <dimension ref="A1:AMK30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7:AR7"/>
+      <selection activeCell="BF5" sqref="BF5:CI5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -11082,7 +11165,7 @@
       <c r="BN1" s="40"/>
       <c r="BO1" s="40"/>
       <c r="BP1" s="41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="BQ1" s="41"/>
       <c r="BR1" s="41"/>
@@ -12071,7 +12154,7 @@
       <c r="U2" s="31"/>
       <c r="V2" s="31"/>
       <c r="W2" s="32" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="X2" s="32"/>
       <c r="Y2" s="32"/>
@@ -13278,7 +13361,7 @@
       <c r="C5" s="58"/>
       <c r="D5" s="58"/>
       <c r="E5" s="47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" s="47"/>
       <c r="G5" s="47"/>
@@ -13300,7 +13383,7 @@
       <c r="W5" s="47"/>
       <c r="X5" s="47"/>
       <c r="Y5" s="47" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="Z5" s="47"/>
       <c r="AA5" s="47"/>
@@ -13340,7 +13423,9 @@
       </c>
       <c r="BD5" s="46"/>
       <c r="BE5" s="46"/>
-      <c r="BF5" s="47"/>
+      <c r="BF5" s="47" t="s">
+        <v>61</v>
+      </c>
       <c r="BG5" s="47"/>
       <c r="BH5" s="47"/>
       <c r="BI5" s="47"/>
@@ -13378,7 +13463,7 @@
       <c r="C6" s="58"/>
       <c r="D6" s="58"/>
       <c r="E6" s="47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" s="47"/>
       <c r="G6" s="47"/>
@@ -13400,7 +13485,7 @@
       <c r="W6" s="47"/>
       <c r="X6" s="47"/>
       <c r="Y6" s="47" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="Z6" s="47"/>
       <c r="AA6" s="47"/>
@@ -13438,7 +13523,9 @@
       </c>
       <c r="BD6" s="46"/>
       <c r="BE6" s="46"/>
-      <c r="BF6" s="47"/>
+      <c r="BF6" s="47" t="s">
+        <v>38</v>
+      </c>
       <c r="BG6" s="47"/>
       <c r="BH6" s="47"/>
       <c r="BI6" s="47"/>
@@ -13475,7 +13562,9 @@
       </c>
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
-      <c r="E7" s="47"/>
+      <c r="E7" s="47" t="s">
+        <v>50</v>
+      </c>
       <c r="F7" s="47"/>
       <c r="G7" s="47"/>
       <c r="H7" s="47"/>
@@ -13495,7 +13584,9 @@
       <c r="V7" s="47"/>
       <c r="W7" s="47"/>
       <c r="X7" s="47"/>
-      <c r="Y7" s="53"/>
+      <c r="Y7" s="62" t="s">
+        <v>54</v>
+      </c>
       <c r="Z7" s="53"/>
       <c r="AA7" s="53"/>
       <c r="AB7" s="53"/>
@@ -13518,17 +13609,23 @@
       <c r="AS7" s="49"/>
       <c r="AT7" s="49"/>
       <c r="AU7" s="49"/>
-      <c r="AV7" s="53"/>
-      <c r="AW7" s="53"/>
-      <c r="AX7" s="53"/>
-      <c r="AY7" s="53"/>
-      <c r="AZ7" s="53"/>
-      <c r="BA7" s="53"/>
-      <c r="BB7" s="53"/>
-      <c r="BC7" s="54"/>
-      <c r="BD7" s="54"/>
-      <c r="BE7" s="54"/>
-      <c r="BF7" s="47"/>
+      <c r="AV7" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW7" s="47"/>
+      <c r="AX7" s="47"/>
+      <c r="AY7" s="47"/>
+      <c r="AZ7" s="47"/>
+      <c r="BA7" s="47"/>
+      <c r="BB7" s="47"/>
+      <c r="BC7" s="46">
+        <v>200</v>
+      </c>
+      <c r="BD7" s="46"/>
+      <c r="BE7" s="46"/>
+      <c r="BF7" s="47" t="s">
+        <v>58</v>
+      </c>
       <c r="BG7" s="47"/>
       <c r="BH7" s="47"/>
       <c r="BI7" s="47"/>
@@ -13565,7 +13662,9 @@
       </c>
       <c r="C8" s="58"/>
       <c r="D8" s="58"/>
-      <c r="E8" s="47"/>
+      <c r="E8" s="47" t="s">
+        <v>51</v>
+      </c>
       <c r="F8" s="47"/>
       <c r="G8" s="47"/>
       <c r="H8" s="47"/>
@@ -13585,40 +13684,48 @@
       <c r="V8" s="47"/>
       <c r="W8" s="47"/>
       <c r="X8" s="47"/>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="47"/>
-      <c r="AA8" s="47"/>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="47"/>
-      <c r="AD8" s="47"/>
-      <c r="AE8" s="47"/>
-      <c r="AF8" s="47"/>
-      <c r="AG8" s="47"/>
-      <c r="AH8" s="47"/>
-      <c r="AI8" s="47"/>
-      <c r="AJ8" s="47"/>
-      <c r="AK8" s="47"/>
-      <c r="AL8" s="47"/>
-      <c r="AM8" s="47"/>
-      <c r="AN8" s="47"/>
-      <c r="AO8" s="47"/>
-      <c r="AP8" s="47"/>
-      <c r="AQ8" s="47"/>
-      <c r="AR8" s="47"/>
+      <c r="Y8" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="53"/>
+      <c r="AB8" s="53"/>
+      <c r="AC8" s="53"/>
+      <c r="AD8" s="53"/>
+      <c r="AE8" s="53"/>
+      <c r="AF8" s="53"/>
+      <c r="AG8" s="53"/>
+      <c r="AH8" s="53"/>
+      <c r="AI8" s="53"/>
+      <c r="AJ8" s="53"/>
+      <c r="AK8" s="53"/>
+      <c r="AL8" s="53"/>
+      <c r="AM8" s="53"/>
+      <c r="AN8" s="53"/>
+      <c r="AO8" s="53"/>
+      <c r="AP8" s="53"/>
+      <c r="AQ8" s="53"/>
+      <c r="AR8" s="53"/>
       <c r="AS8" s="49"/>
       <c r="AT8" s="49"/>
       <c r="AU8" s="49"/>
-      <c r="AV8" s="47"/>
+      <c r="AV8" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="AW8" s="47"/>
       <c r="AX8" s="47"/>
       <c r="AY8" s="47"/>
       <c r="AZ8" s="47"/>
       <c r="BA8" s="47"/>
       <c r="BB8" s="47"/>
-      <c r="BC8" s="46"/>
+      <c r="BC8" s="46">
+        <v>200</v>
+      </c>
       <c r="BD8" s="46"/>
       <c r="BE8" s="46"/>
-      <c r="BF8" s="47"/>
+      <c r="BF8" s="47" t="s">
+        <v>58</v>
+      </c>
       <c r="BG8" s="47"/>
       <c r="BH8" s="47"/>
       <c r="BI8" s="47"/>
@@ -13655,7 +13762,9 @@
       </c>
       <c r="C9" s="58"/>
       <c r="D9" s="58"/>
-      <c r="E9" s="47"/>
+      <c r="E9" s="47" t="s">
+        <v>52</v>
+      </c>
       <c r="F9" s="47"/>
       <c r="G9" s="47"/>
       <c r="H9" s="47"/>
@@ -13675,40 +13784,48 @@
       <c r="V9" s="47"/>
       <c r="W9" s="47"/>
       <c r="X9" s="47"/>
-      <c r="Y9" s="47"/>
-      <c r="Z9" s="47"/>
-      <c r="AA9" s="47"/>
-      <c r="AB9" s="47"/>
-      <c r="AC9" s="47"/>
-      <c r="AD9" s="47"/>
-      <c r="AE9" s="47"/>
-      <c r="AF9" s="47"/>
-      <c r="AG9" s="47"/>
-      <c r="AH9" s="47"/>
-      <c r="AI9" s="47"/>
-      <c r="AJ9" s="47"/>
-      <c r="AK9" s="47"/>
-      <c r="AL9" s="47"/>
-      <c r="AM9" s="47"/>
-      <c r="AN9" s="47"/>
-      <c r="AO9" s="47"/>
-      <c r="AP9" s="47"/>
-      <c r="AQ9" s="47"/>
-      <c r="AR9" s="47"/>
+      <c r="Y9" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="53"/>
+      <c r="AC9" s="53"/>
+      <c r="AD9" s="53"/>
+      <c r="AE9" s="53"/>
+      <c r="AF9" s="53"/>
+      <c r="AG9" s="53"/>
+      <c r="AH9" s="53"/>
+      <c r="AI9" s="53"/>
+      <c r="AJ9" s="53"/>
+      <c r="AK9" s="53"/>
+      <c r="AL9" s="53"/>
+      <c r="AM9" s="53"/>
+      <c r="AN9" s="53"/>
+      <c r="AO9" s="53"/>
+      <c r="AP9" s="53"/>
+      <c r="AQ9" s="53"/>
+      <c r="AR9" s="53"/>
       <c r="AS9" s="49"/>
       <c r="AT9" s="49"/>
       <c r="AU9" s="49"/>
-      <c r="AV9" s="47"/>
+      <c r="AV9" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="AW9" s="47"/>
       <c r="AX9" s="47"/>
       <c r="AY9" s="47"/>
       <c r="AZ9" s="47"/>
       <c r="BA9" s="47"/>
       <c r="BB9" s="47"/>
-      <c r="BC9" s="46"/>
+      <c r="BC9" s="46">
+        <v>200</v>
+      </c>
       <c r="BD9" s="46"/>
       <c r="BE9" s="46"/>
-      <c r="BF9" s="47"/>
+      <c r="BF9" s="47" t="s">
+        <v>58</v>
+      </c>
       <c r="BG9" s="47"/>
       <c r="BH9" s="47"/>
       <c r="BI9" s="47"/>
@@ -13745,7 +13862,9 @@
       </c>
       <c r="C10" s="58"/>
       <c r="D10" s="58"/>
-      <c r="E10" s="47"/>
+      <c r="E10" s="47" t="s">
+        <v>53</v>
+      </c>
       <c r="F10" s="47"/>
       <c r="G10" s="47"/>
       <c r="H10" s="47"/>
@@ -13765,40 +13884,48 @@
       <c r="V10" s="47"/>
       <c r="W10" s="47"/>
       <c r="X10" s="47"/>
-      <c r="Y10" s="47"/>
-      <c r="Z10" s="47"/>
-      <c r="AA10" s="47"/>
-      <c r="AB10" s="47"/>
-      <c r="AC10" s="47"/>
-      <c r="AD10" s="47"/>
-      <c r="AE10" s="47"/>
-      <c r="AF10" s="47"/>
-      <c r="AG10" s="47"/>
-      <c r="AH10" s="47"/>
-      <c r="AI10" s="47"/>
-      <c r="AJ10" s="47"/>
-      <c r="AK10" s="47"/>
-      <c r="AL10" s="47"/>
-      <c r="AM10" s="47"/>
-      <c r="AN10" s="47"/>
-      <c r="AO10" s="47"/>
-      <c r="AP10" s="47"/>
-      <c r="AQ10" s="47"/>
-      <c r="AR10" s="47"/>
+      <c r="Y10" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z10" s="53"/>
+      <c r="AA10" s="53"/>
+      <c r="AB10" s="53"/>
+      <c r="AC10" s="53"/>
+      <c r="AD10" s="53"/>
+      <c r="AE10" s="53"/>
+      <c r="AF10" s="53"/>
+      <c r="AG10" s="53"/>
+      <c r="AH10" s="53"/>
+      <c r="AI10" s="53"/>
+      <c r="AJ10" s="53"/>
+      <c r="AK10" s="53"/>
+      <c r="AL10" s="53"/>
+      <c r="AM10" s="53"/>
+      <c r="AN10" s="53"/>
+      <c r="AO10" s="53"/>
+      <c r="AP10" s="53"/>
+      <c r="AQ10" s="53"/>
+      <c r="AR10" s="53"/>
       <c r="AS10" s="49"/>
       <c r="AT10" s="49"/>
       <c r="AU10" s="49"/>
-      <c r="AV10" s="47"/>
+      <c r="AV10" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="AW10" s="47"/>
       <c r="AX10" s="47"/>
       <c r="AY10" s="47"/>
       <c r="AZ10" s="47"/>
       <c r="BA10" s="47"/>
       <c r="BB10" s="47"/>
-      <c r="BC10" s="46"/>
+      <c r="BC10" s="46">
+        <v>200</v>
+      </c>
       <c r="BD10" s="46"/>
       <c r="BE10" s="46"/>
-      <c r="BF10" s="47"/>
+      <c r="BF10" s="47" t="s">
+        <v>58</v>
+      </c>
       <c r="BG10" s="47"/>
       <c r="BH10" s="47"/>
       <c r="BI10" s="47"/>
@@ -13835,7 +13962,9 @@
       </c>
       <c r="C11" s="58"/>
       <c r="D11" s="58"/>
-      <c r="E11" s="47"/>
+      <c r="E11" s="47" t="s">
+        <v>59</v>
+      </c>
       <c r="F11" s="47"/>
       <c r="G11" s="47"/>
       <c r="H11" s="47"/>
@@ -13855,7 +13984,9 @@
       <c r="V11" s="47"/>
       <c r="W11" s="47"/>
       <c r="X11" s="47"/>
-      <c r="Y11" s="47"/>
+      <c r="Y11" s="61" t="s">
+        <v>65</v>
+      </c>
       <c r="Z11" s="47"/>
       <c r="AA11" s="47"/>
       <c r="AB11" s="47"/>
@@ -13878,17 +14009,23 @@
       <c r="AS11" s="49"/>
       <c r="AT11" s="49"/>
       <c r="AU11" s="49"/>
-      <c r="AV11" s="47"/>
+      <c r="AV11" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="AW11" s="47"/>
       <c r="AX11" s="47"/>
       <c r="AY11" s="47"/>
       <c r="AZ11" s="47"/>
       <c r="BA11" s="47"/>
       <c r="BB11" s="47"/>
-      <c r="BC11" s="46"/>
+      <c r="BC11" s="46">
+        <v>10</v>
+      </c>
       <c r="BD11" s="46"/>
       <c r="BE11" s="46"/>
-      <c r="BF11" s="47"/>
+      <c r="BF11" s="47" t="s">
+        <v>60</v>
+      </c>
       <c r="BG11" s="47"/>
       <c r="BH11" s="47"/>
       <c r="BI11" s="47"/>
@@ -15795,11 +15932,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F72218-7420-4CCC-94E2-0A5232D222DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB9062D-BF78-4118-8178-475E84C25B1F}">
   <dimension ref="A1:AMK30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6:AR6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BF9" sqref="BF9:CI9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -15887,7 +16024,7 @@
       <c r="BN1" s="40"/>
       <c r="BO1" s="40"/>
       <c r="BP1" s="41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="BQ1" s="41"/>
       <c r="BR1" s="41"/>
@@ -16876,7 +17013,7 @@
       <c r="U2" s="31"/>
       <c r="V2" s="31"/>
       <c r="W2" s="32" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="X2" s="32"/>
       <c r="Y2" s="32"/>
@@ -18105,7 +18242,7 @@
       <c r="W5" s="47"/>
       <c r="X5" s="47"/>
       <c r="Y5" s="47" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Z5" s="47"/>
       <c r="AA5" s="47"/>
@@ -18126,9 +18263,7 @@
       <c r="AP5" s="47"/>
       <c r="AQ5" s="47"/>
       <c r="AR5" s="47"/>
-      <c r="AS5" s="52" t="s">
-        <v>21</v>
-      </c>
+      <c r="AS5" s="52"/>
       <c r="AT5" s="52"/>
       <c r="AU5" s="52"/>
       <c r="AV5" s="47" t="s">
@@ -18145,7 +18280,9 @@
       </c>
       <c r="BD5" s="46"/>
       <c r="BE5" s="46"/>
-      <c r="BF5" s="47"/>
+      <c r="BF5" s="47" t="s">
+        <v>68</v>
+      </c>
       <c r="BG5" s="47"/>
       <c r="BH5" s="47"/>
       <c r="BI5" s="47"/>
@@ -18183,7 +18320,7 @@
       <c r="C6" s="58"/>
       <c r="D6" s="58"/>
       <c r="E6" s="47" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F6" s="47"/>
       <c r="G6" s="47"/>
@@ -18204,31 +18341,31 @@
       <c r="V6" s="47"/>
       <c r="W6" s="47"/>
       <c r="X6" s="47"/>
-      <c r="Y6" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="47"/>
-      <c r="AC6" s="47"/>
-      <c r="AD6" s="47"/>
-      <c r="AE6" s="47"/>
-      <c r="AF6" s="47"/>
-      <c r="AG6" s="47"/>
-      <c r="AH6" s="47"/>
-      <c r="AI6" s="47"/>
-      <c r="AJ6" s="47"/>
-      <c r="AK6" s="47"/>
-      <c r="AL6" s="47"/>
-      <c r="AM6" s="47"/>
-      <c r="AN6" s="47"/>
-      <c r="AO6" s="47"/>
-      <c r="AP6" s="47"/>
-      <c r="AQ6" s="47"/>
-      <c r="AR6" s="47"/>
-      <c r="AS6" s="52"/>
-      <c r="AT6" s="52"/>
-      <c r="AU6" s="52"/>
+      <c r="Y6" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z6" s="53"/>
+      <c r="AA6" s="53"/>
+      <c r="AB6" s="53"/>
+      <c r="AC6" s="53"/>
+      <c r="AD6" s="53"/>
+      <c r="AE6" s="53"/>
+      <c r="AF6" s="53"/>
+      <c r="AG6" s="53"/>
+      <c r="AH6" s="53"/>
+      <c r="AI6" s="53"/>
+      <c r="AJ6" s="53"/>
+      <c r="AK6" s="53"/>
+      <c r="AL6" s="53"/>
+      <c r="AM6" s="53"/>
+      <c r="AN6" s="53"/>
+      <c r="AO6" s="53"/>
+      <c r="AP6" s="53"/>
+      <c r="AQ6" s="53"/>
+      <c r="AR6" s="53"/>
+      <c r="AS6" s="49"/>
+      <c r="AT6" s="49"/>
+      <c r="AU6" s="49"/>
       <c r="AV6" s="47" t="s">
         <v>22</v>
       </c>
@@ -18238,12 +18375,14 @@
       <c r="AZ6" s="47"/>
       <c r="BA6" s="47"/>
       <c r="BB6" s="47"/>
-      <c r="BC6" s="46">
-        <v>120</v>
-      </c>
-      <c r="BD6" s="46"/>
-      <c r="BE6" s="46"/>
-      <c r="BF6" s="47"/>
+      <c r="BC6" s="54">
+        <v>10</v>
+      </c>
+      <c r="BD6" s="54"/>
+      <c r="BE6" s="54"/>
+      <c r="BF6" s="47" t="s">
+        <v>67</v>
+      </c>
       <c r="BG6" s="47"/>
       <c r="BH6" s="47"/>
       <c r="BI6" s="47"/>
@@ -18281,7 +18420,7 @@
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
       <c r="E7" s="47" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F7" s="47"/>
       <c r="G7" s="47"/>
@@ -18302,47 +18441,47 @@
       <c r="V7" s="47"/>
       <c r="W7" s="47"/>
       <c r="X7" s="47"/>
-      <c r="Y7" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z7" s="53"/>
-      <c r="AA7" s="53"/>
-      <c r="AB7" s="53"/>
-      <c r="AC7" s="53"/>
-      <c r="AD7" s="53"/>
-      <c r="AE7" s="53"/>
-      <c r="AF7" s="53"/>
-      <c r="AG7" s="53"/>
-      <c r="AH7" s="53"/>
-      <c r="AI7" s="53"/>
-      <c r="AJ7" s="53"/>
-      <c r="AK7" s="53"/>
-      <c r="AL7" s="53"/>
-      <c r="AM7" s="53"/>
-      <c r="AN7" s="53"/>
-      <c r="AO7" s="53"/>
-      <c r="AP7" s="53"/>
-      <c r="AQ7" s="53"/>
-      <c r="AR7" s="53"/>
+      <c r="Y7" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z7" s="47"/>
+      <c r="AA7" s="47"/>
+      <c r="AB7" s="47"/>
+      <c r="AC7" s="47"/>
+      <c r="AD7" s="47"/>
+      <c r="AE7" s="47"/>
+      <c r="AF7" s="47"/>
+      <c r="AG7" s="47"/>
+      <c r="AH7" s="47"/>
+      <c r="AI7" s="47"/>
+      <c r="AJ7" s="47"/>
+      <c r="AK7" s="47"/>
+      <c r="AL7" s="47"/>
+      <c r="AM7" s="47"/>
+      <c r="AN7" s="47"/>
+      <c r="AO7" s="47"/>
+      <c r="AP7" s="47"/>
+      <c r="AQ7" s="47"/>
+      <c r="AR7" s="47"/>
       <c r="AS7" s="49"/>
       <c r="AT7" s="49"/>
       <c r="AU7" s="49"/>
-      <c r="AV7" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW7" s="53"/>
-      <c r="AX7" s="53"/>
-      <c r="AY7" s="53"/>
-      <c r="AZ7" s="53"/>
-      <c r="BA7" s="53"/>
-      <c r="BB7" s="53"/>
-      <c r="BC7" s="54">
+      <c r="AV7" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW7" s="47"/>
+      <c r="AX7" s="47"/>
+      <c r="AY7" s="47"/>
+      <c r="AZ7" s="47"/>
+      <c r="BA7" s="47"/>
+      <c r="BB7" s="47"/>
+      <c r="BC7" s="46">
         <v>10</v>
       </c>
-      <c r="BD7" s="54"/>
-      <c r="BE7" s="54"/>
+      <c r="BD7" s="46"/>
+      <c r="BE7" s="46"/>
       <c r="BF7" s="47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="BG7" s="47"/>
       <c r="BH7" s="47"/>
@@ -18380,9 +18519,7 @@
       </c>
       <c r="C8" s="58"/>
       <c r="D8" s="58"/>
-      <c r="E8" s="47" t="s">
-        <v>49</v>
-      </c>
+      <c r="E8" s="47"/>
       <c r="F8" s="47"/>
       <c r="G8" s="47"/>
       <c r="H8" s="47"/>
@@ -18402,9 +18539,7 @@
       <c r="V8" s="47"/>
       <c r="W8" s="47"/>
       <c r="X8" s="47"/>
-      <c r="Y8" s="47" t="s">
-        <v>64</v>
-      </c>
+      <c r="Y8" s="47"/>
       <c r="Z8" s="47"/>
       <c r="AA8" s="47"/>
       <c r="AB8" s="47"/>
@@ -18427,18 +18562,14 @@
       <c r="AS8" s="49"/>
       <c r="AT8" s="49"/>
       <c r="AU8" s="49"/>
-      <c r="AV8" s="47" t="s">
-        <v>22</v>
-      </c>
+      <c r="AV8" s="47"/>
       <c r="AW8" s="47"/>
       <c r="AX8" s="47"/>
       <c r="AY8" s="47"/>
       <c r="AZ8" s="47"/>
       <c r="BA8" s="47"/>
       <c r="BB8" s="47"/>
-      <c r="BC8" s="46">
-        <v>10</v>
-      </c>
+      <c r="BC8" s="46"/>
       <c r="BD8" s="46"/>
       <c r="BE8" s="46"/>
       <c r="BF8" s="47"/>
@@ -19732,95 +19863,95 @@
       <c r="CH22" s="47"/>
       <c r="CI22" s="48"/>
     </row>
-    <row r="23" spans="2:87" ht="18" customHeight="1">
+    <row r="23" spans="2:87" ht="18" customHeight="1" thickBot="1">
       <c r="B23" s="57">
         <v>19</v>
       </c>
       <c r="C23" s="58"/>
       <c r="D23" s="58"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="47"/>
-      <c r="Q23" s="47"/>
-      <c r="R23" s="47"/>
-      <c r="S23" s="47"/>
-      <c r="T23" s="47"/>
-      <c r="U23" s="47"/>
-      <c r="V23" s="47"/>
-      <c r="W23" s="47"/>
-      <c r="X23" s="47"/>
-      <c r="Y23" s="47"/>
-      <c r="Z23" s="47"/>
-      <c r="AA23" s="47"/>
-      <c r="AB23" s="47"/>
-      <c r="AC23" s="47"/>
-      <c r="AD23" s="47"/>
-      <c r="AE23" s="47"/>
-      <c r="AF23" s="47"/>
-      <c r="AG23" s="47"/>
-      <c r="AH23" s="47"/>
-      <c r="AI23" s="47"/>
-      <c r="AJ23" s="47"/>
-      <c r="AK23" s="47"/>
-      <c r="AL23" s="47"/>
-      <c r="AM23" s="47"/>
-      <c r="AN23" s="47"/>
-      <c r="AO23" s="47"/>
-      <c r="AP23" s="47"/>
-      <c r="AQ23" s="47"/>
-      <c r="AR23" s="47"/>
-      <c r="AS23" s="49"/>
-      <c r="AT23" s="49"/>
-      <c r="AU23" s="49"/>
-      <c r="AV23" s="47"/>
-      <c r="AW23" s="47"/>
-      <c r="AX23" s="47"/>
-      <c r="AY23" s="47"/>
-      <c r="AZ23" s="47"/>
-      <c r="BA23" s="47"/>
-      <c r="BB23" s="47"/>
-      <c r="BC23" s="46"/>
-      <c r="BD23" s="46"/>
-      <c r="BE23" s="46"/>
-      <c r="BF23" s="47"/>
-      <c r="BG23" s="47"/>
-      <c r="BH23" s="47"/>
-      <c r="BI23" s="47"/>
-      <c r="BJ23" s="47"/>
-      <c r="BK23" s="47"/>
-      <c r="BL23" s="47"/>
-      <c r="BM23" s="47"/>
-      <c r="BN23" s="47"/>
-      <c r="BO23" s="47"/>
-      <c r="BP23" s="47"/>
-      <c r="BQ23" s="47"/>
-      <c r="BR23" s="47"/>
-      <c r="BS23" s="47"/>
-      <c r="BT23" s="47"/>
-      <c r="BU23" s="47"/>
-      <c r="BV23" s="47"/>
-      <c r="BW23" s="47"/>
-      <c r="BX23" s="47"/>
-      <c r="BY23" s="47"/>
-      <c r="BZ23" s="47"/>
-      <c r="CA23" s="47"/>
-      <c r="CB23" s="47"/>
-      <c r="CC23" s="47"/>
-      <c r="CD23" s="47"/>
-      <c r="CE23" s="47"/>
-      <c r="CF23" s="47"/>
-      <c r="CG23" s="47"/>
-      <c r="CH23" s="47"/>
-      <c r="CI23" s="48"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="43"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="43"/>
+      <c r="U23" s="43"/>
+      <c r="V23" s="43"/>
+      <c r="W23" s="43"/>
+      <c r="X23" s="43"/>
+      <c r="Y23" s="43"/>
+      <c r="Z23" s="43"/>
+      <c r="AA23" s="43"/>
+      <c r="AB23" s="43"/>
+      <c r="AC23" s="43"/>
+      <c r="AD23" s="43"/>
+      <c r="AE23" s="43"/>
+      <c r="AF23" s="43"/>
+      <c r="AG23" s="43"/>
+      <c r="AH23" s="43"/>
+      <c r="AI23" s="43"/>
+      <c r="AJ23" s="43"/>
+      <c r="AK23" s="43"/>
+      <c r="AL23" s="43"/>
+      <c r="AM23" s="43"/>
+      <c r="AN23" s="43"/>
+      <c r="AO23" s="43"/>
+      <c r="AP23" s="43"/>
+      <c r="AQ23" s="43"/>
+      <c r="AR23" s="43"/>
+      <c r="AS23" s="42"/>
+      <c r="AT23" s="42"/>
+      <c r="AU23" s="42"/>
+      <c r="AV23" s="43"/>
+      <c r="AW23" s="43"/>
+      <c r="AX23" s="43"/>
+      <c r="AY23" s="43"/>
+      <c r="AZ23" s="43"/>
+      <c r="BA23" s="43"/>
+      <c r="BB23" s="43"/>
+      <c r="BC23" s="44"/>
+      <c r="BD23" s="44"/>
+      <c r="BE23" s="44"/>
+      <c r="BF23" s="43"/>
+      <c r="BG23" s="43"/>
+      <c r="BH23" s="43"/>
+      <c r="BI23" s="43"/>
+      <c r="BJ23" s="43"/>
+      <c r="BK23" s="43"/>
+      <c r="BL23" s="43"/>
+      <c r="BM23" s="43"/>
+      <c r="BN23" s="43"/>
+      <c r="BO23" s="43"/>
+      <c r="BP23" s="43"/>
+      <c r="BQ23" s="43"/>
+      <c r="BR23" s="43"/>
+      <c r="BS23" s="43"/>
+      <c r="BT23" s="43"/>
+      <c r="BU23" s="43"/>
+      <c r="BV23" s="43"/>
+      <c r="BW23" s="43"/>
+      <c r="BX23" s="43"/>
+      <c r="BY23" s="43"/>
+      <c r="BZ23" s="43"/>
+      <c r="CA23" s="43"/>
+      <c r="CB23" s="43"/>
+      <c r="CC23" s="43"/>
+      <c r="CD23" s="43"/>
+      <c r="CE23" s="43"/>
+      <c r="CF23" s="43"/>
+      <c r="CG23" s="43"/>
+      <c r="CH23" s="43"/>
+      <c r="CI23" s="45"/>
     </row>
     <row r="24" spans="2:87" ht="18" customHeight="1" thickBot="1">
       <c r="B24" s="50">
@@ -19828,89 +19959,89 @@
       </c>
       <c r="C24" s="51"/>
       <c r="D24" s="51"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="43"/>
-      <c r="R24" s="43"/>
-      <c r="S24" s="43"/>
-      <c r="T24" s="43"/>
-      <c r="U24" s="43"/>
-      <c r="V24" s="43"/>
-      <c r="W24" s="43"/>
-      <c r="X24" s="43"/>
-      <c r="Y24" s="43"/>
-      <c r="Z24" s="43"/>
-      <c r="AA24" s="43"/>
-      <c r="AB24" s="43"/>
-      <c r="AC24" s="43"/>
-      <c r="AD24" s="43"/>
-      <c r="AE24" s="43"/>
-      <c r="AF24" s="43"/>
-      <c r="AG24" s="43"/>
-      <c r="AH24" s="43"/>
-      <c r="AI24" s="43"/>
-      <c r="AJ24" s="43"/>
-      <c r="AK24" s="43"/>
-      <c r="AL24" s="43"/>
-      <c r="AM24" s="43"/>
-      <c r="AN24" s="43"/>
-      <c r="AO24" s="43"/>
-      <c r="AP24" s="43"/>
-      <c r="AQ24" s="43"/>
-      <c r="AR24" s="43"/>
-      <c r="AS24" s="42"/>
-      <c r="AT24" s="42"/>
-      <c r="AU24" s="42"/>
-      <c r="AV24" s="43"/>
-      <c r="AW24" s="43"/>
-      <c r="AX24" s="43"/>
-      <c r="AY24" s="43"/>
-      <c r="AZ24" s="43"/>
-      <c r="BA24" s="43"/>
-      <c r="BB24" s="43"/>
-      <c r="BC24" s="44"/>
-      <c r="BD24" s="44"/>
-      <c r="BE24" s="44"/>
-      <c r="BF24" s="43"/>
-      <c r="BG24" s="43"/>
-      <c r="BH24" s="43"/>
-      <c r="BI24" s="43"/>
-      <c r="BJ24" s="43"/>
-      <c r="BK24" s="43"/>
-      <c r="BL24" s="43"/>
-      <c r="BM24" s="43"/>
-      <c r="BN24" s="43"/>
-      <c r="BO24" s="43"/>
-      <c r="BP24" s="43"/>
-      <c r="BQ24" s="43"/>
-      <c r="BR24" s="43"/>
-      <c r="BS24" s="43"/>
-      <c r="BT24" s="43"/>
-      <c r="BU24" s="43"/>
-      <c r="BV24" s="43"/>
-      <c r="BW24" s="43"/>
-      <c r="BX24" s="43"/>
-      <c r="BY24" s="43"/>
-      <c r="BZ24" s="43"/>
-      <c r="CA24" s="43"/>
-      <c r="CB24" s="43"/>
-      <c r="CC24" s="43"/>
-      <c r="CD24" s="43"/>
-      <c r="CE24" s="43"/>
-      <c r="CF24" s="43"/>
-      <c r="CG24" s="43"/>
-      <c r="CH24" s="43"/>
-      <c r="CI24" s="45"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="8"/>
+      <c r="AK24" s="8"/>
+      <c r="AL24" s="8"/>
+      <c r="AM24" s="8"/>
+      <c r="AN24" s="8"/>
+      <c r="AO24" s="8"/>
+      <c r="AP24" s="8"/>
+      <c r="AQ24" s="8"/>
+      <c r="AR24" s="8"/>
+      <c r="AS24" s="8"/>
+      <c r="AT24" s="8"/>
+      <c r="AU24" s="8"/>
+      <c r="AV24" s="8"/>
+      <c r="AW24" s="8"/>
+      <c r="AX24" s="8"/>
+      <c r="AY24" s="8"/>
+      <c r="AZ24" s="8"/>
+      <c r="BA24" s="8"/>
+      <c r="BB24" s="8"/>
+      <c r="BC24" s="8"/>
+      <c r="BD24" s="8"/>
+      <c r="BE24" s="8"/>
+      <c r="BF24" s="8"/>
+      <c r="BG24" s="8"/>
+      <c r="BH24" s="8"/>
+      <c r="BI24" s="8"/>
+      <c r="BJ24" s="8"/>
+      <c r="BK24" s="8"/>
+      <c r="BL24" s="8"/>
+      <c r="BM24" s="8"/>
+      <c r="BN24" s="8"/>
+      <c r="BO24" s="8"/>
+      <c r="BP24" s="8"/>
+      <c r="BQ24" s="8"/>
+      <c r="BR24" s="8"/>
+      <c r="BS24" s="8"/>
+      <c r="BT24" s="8"/>
+      <c r="BU24" s="8"/>
+      <c r="BV24" s="8"/>
+      <c r="BW24" s="8"/>
+      <c r="BX24" s="8"/>
+      <c r="BY24" s="8"/>
+      <c r="BZ24" s="8"/>
+      <c r="CA24" s="8"/>
+      <c r="CB24" s="8"/>
+      <c r="CC24" s="8"/>
+      <c r="CD24" s="8"/>
+      <c r="CE24" s="8"/>
+      <c r="CF24" s="9"/>
+      <c r="CG24" s="9"/>
+      <c r="CH24" s="9"/>
+      <c r="CI24" s="10"/>
     </row>
     <row r="25" spans="2:87" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B25" s="23" t="s">
@@ -19918,89 +20049,89 @@
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="9"/>
-      <c r="Z25" s="8"/>
-      <c r="AA25" s="8"/>
-      <c r="AB25" s="8"/>
-      <c r="AC25" s="8"/>
-      <c r="AD25" s="8"/>
-      <c r="AE25" s="8"/>
-      <c r="AF25" s="8"/>
-      <c r="AG25" s="8"/>
-      <c r="AH25" s="8"/>
-      <c r="AI25" s="8"/>
-      <c r="AJ25" s="8"/>
-      <c r="AK25" s="8"/>
-      <c r="AL25" s="8"/>
-      <c r="AM25" s="8"/>
-      <c r="AN25" s="8"/>
-      <c r="AO25" s="8"/>
-      <c r="AP25" s="8"/>
-      <c r="AQ25" s="8"/>
-      <c r="AR25" s="8"/>
-      <c r="AS25" s="8"/>
-      <c r="AT25" s="8"/>
-      <c r="AU25" s="8"/>
-      <c r="AV25" s="8"/>
-      <c r="AW25" s="8"/>
-      <c r="AX25" s="8"/>
-      <c r="AY25" s="8"/>
-      <c r="AZ25" s="8"/>
-      <c r="BA25" s="8"/>
-      <c r="BB25" s="8"/>
-      <c r="BC25" s="8"/>
-      <c r="BD25" s="8"/>
-      <c r="BE25" s="8"/>
-      <c r="BF25" s="8"/>
-      <c r="BG25" s="8"/>
-      <c r="BH25" s="8"/>
-      <c r="BI25" s="8"/>
-      <c r="BJ25" s="8"/>
-      <c r="BK25" s="8"/>
-      <c r="BL25" s="8"/>
-      <c r="BM25" s="8"/>
-      <c r="BN25" s="8"/>
-      <c r="BO25" s="8"/>
-      <c r="BP25" s="8"/>
-      <c r="BQ25" s="8"/>
-      <c r="BR25" s="8"/>
-      <c r="BS25" s="8"/>
-      <c r="BT25" s="8"/>
-      <c r="BU25" s="8"/>
-      <c r="BV25" s="8"/>
-      <c r="BW25" s="8"/>
-      <c r="BX25" s="8"/>
-      <c r="BY25" s="8"/>
-      <c r="BZ25" s="8"/>
-      <c r="CA25" s="8"/>
-      <c r="CB25" s="8"/>
-      <c r="CC25" s="8"/>
-      <c r="CD25" s="8"/>
-      <c r="CE25" s="8"/>
-      <c r="CF25" s="9"/>
-      <c r="CG25" s="9"/>
-      <c r="CH25" s="9"/>
-      <c r="CI25" s="10"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="13"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="12"/>
+      <c r="AC25" s="12"/>
+      <c r="AD25" s="12"/>
+      <c r="AE25" s="12"/>
+      <c r="AF25" s="12"/>
+      <c r="AG25" s="12"/>
+      <c r="AH25" s="12"/>
+      <c r="AI25" s="12"/>
+      <c r="AJ25" s="12"/>
+      <c r="AK25" s="12"/>
+      <c r="AL25" s="12"/>
+      <c r="AM25" s="12"/>
+      <c r="AN25" s="12"/>
+      <c r="AO25" s="12"/>
+      <c r="AP25" s="12"/>
+      <c r="AQ25" s="12"/>
+      <c r="AR25" s="12"/>
+      <c r="AS25" s="12"/>
+      <c r="AT25" s="12"/>
+      <c r="AU25" s="12"/>
+      <c r="AV25" s="12"/>
+      <c r="AW25" s="12"/>
+      <c r="AX25" s="12"/>
+      <c r="AY25" s="12"/>
+      <c r="AZ25" s="12"/>
+      <c r="BA25" s="12"/>
+      <c r="BB25" s="12"/>
+      <c r="BC25" s="12"/>
+      <c r="BD25" s="12"/>
+      <c r="BE25" s="12"/>
+      <c r="BF25" s="12"/>
+      <c r="BG25" s="12"/>
+      <c r="BH25" s="12"/>
+      <c r="BI25" s="12"/>
+      <c r="BJ25" s="12"/>
+      <c r="BK25" s="12"/>
+      <c r="BL25" s="12"/>
+      <c r="BM25" s="12"/>
+      <c r="BN25" s="12"/>
+      <c r="BO25" s="12"/>
+      <c r="BP25" s="12"/>
+      <c r="BQ25" s="12"/>
+      <c r="BR25" s="12"/>
+      <c r="BS25" s="12"/>
+      <c r="BT25" s="12"/>
+      <c r="BU25" s="12"/>
+      <c r="BV25" s="12"/>
+      <c r="BW25" s="12"/>
+      <c r="BX25" s="12"/>
+      <c r="BY25" s="12"/>
+      <c r="BZ25" s="12"/>
+      <c r="CA25" s="12"/>
+      <c r="CB25" s="12"/>
+      <c r="CC25" s="12"/>
+      <c r="CD25" s="12"/>
+      <c r="CE25" s="12"/>
+      <c r="CF25" s="13"/>
+      <c r="CG25" s="13"/>
+      <c r="CH25" s="13"/>
+      <c r="CI25" s="14"/>
     </row>
     <row r="26" spans="2:87" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B26" s="11"/>
@@ -20266,5155 +20397,243 @@
       <c r="CH28" s="13"/>
       <c r="CI28" s="14"/>
     </row>
-    <row r="29" spans="2:87">
+    <row r="29" spans="2:87" ht="18.600000000000001" thickBot="1">
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="13"/>
-      <c r="Z29" s="12"/>
-      <c r="AA29" s="12"/>
-      <c r="AB29" s="12"/>
-      <c r="AC29" s="12"/>
-      <c r="AD29" s="12"/>
-      <c r="AE29" s="12"/>
-      <c r="AF29" s="12"/>
-      <c r="AG29" s="12"/>
-      <c r="AH29" s="12"/>
-      <c r="AI29" s="12"/>
-      <c r="AJ29" s="12"/>
-      <c r="AK29" s="12"/>
-      <c r="AL29" s="12"/>
-      <c r="AM29" s="12"/>
-      <c r="AN29" s="12"/>
-      <c r="AO29" s="12"/>
-      <c r="AP29" s="12"/>
-      <c r="AQ29" s="12"/>
-      <c r="AR29" s="12"/>
-      <c r="AS29" s="12"/>
-      <c r="AT29" s="12"/>
-      <c r="AU29" s="12"/>
-      <c r="AV29" s="12"/>
-      <c r="AW29" s="12"/>
-      <c r="AX29" s="12"/>
-      <c r="AY29" s="12"/>
-      <c r="AZ29" s="12"/>
-      <c r="BA29" s="12"/>
-      <c r="BB29" s="12"/>
-      <c r="BC29" s="12"/>
-      <c r="BD29" s="12"/>
-      <c r="BE29" s="12"/>
-      <c r="BF29" s="12"/>
-      <c r="BG29" s="12"/>
-      <c r="BH29" s="12"/>
-      <c r="BI29" s="12"/>
-      <c r="BJ29" s="12"/>
-      <c r="BK29" s="12"/>
-      <c r="BL29" s="12"/>
-      <c r="BM29" s="12"/>
-      <c r="BN29" s="12"/>
-      <c r="BO29" s="12"/>
-      <c r="BP29" s="12"/>
-      <c r="BQ29" s="12"/>
-      <c r="BR29" s="12"/>
-      <c r="BS29" s="12"/>
-      <c r="BT29" s="12"/>
-      <c r="BU29" s="12"/>
-      <c r="BV29" s="12"/>
-      <c r="BW29" s="12"/>
-      <c r="BX29" s="12"/>
-      <c r="BY29" s="12"/>
-      <c r="BZ29" s="12"/>
-      <c r="CA29" s="12"/>
-      <c r="CB29" s="12"/>
-      <c r="CC29" s="12"/>
-      <c r="CD29" s="12"/>
-      <c r="CE29" s="12"/>
-      <c r="CF29" s="13"/>
-      <c r="CG29" s="13"/>
-      <c r="CH29" s="13"/>
-      <c r="CI29" s="14"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="16"/>
+      <c r="W29" s="16"/>
+      <c r="X29" s="16"/>
+      <c r="Y29" s="16"/>
+      <c r="Z29" s="16"/>
+      <c r="AA29" s="16"/>
+      <c r="AB29" s="16"/>
+      <c r="AC29" s="16"/>
+      <c r="AD29" s="16"/>
+      <c r="AE29" s="16"/>
+      <c r="AF29" s="16"/>
+      <c r="AG29" s="16"/>
+      <c r="AH29" s="16"/>
+      <c r="AI29" s="16"/>
+      <c r="AJ29" s="16"/>
+      <c r="AK29" s="16"/>
+      <c r="AL29" s="16"/>
+      <c r="AM29" s="16"/>
+      <c r="AN29" s="16"/>
+      <c r="AO29" s="16"/>
+      <c r="AP29" s="16"/>
+      <c r="AQ29" s="16"/>
+      <c r="AR29" s="16"/>
+      <c r="AS29" s="16"/>
+      <c r="AT29" s="16"/>
+      <c r="AU29" s="16"/>
+      <c r="AV29" s="16"/>
+      <c r="AW29" s="16"/>
+      <c r="AX29" s="16"/>
+      <c r="AY29" s="16"/>
+      <c r="AZ29" s="16"/>
+      <c r="BA29" s="16"/>
+      <c r="BB29" s="16"/>
+      <c r="BC29" s="16"/>
+      <c r="BD29" s="16"/>
+      <c r="BE29" s="16"/>
+      <c r="BF29" s="16"/>
+      <c r="BG29" s="16"/>
+      <c r="BH29" s="16"/>
+      <c r="BI29" s="16"/>
+      <c r="BJ29" s="16"/>
+      <c r="BK29" s="16"/>
+      <c r="BL29" s="16"/>
+      <c r="BM29" s="16"/>
+      <c r="BN29" s="16"/>
+      <c r="BO29" s="16"/>
+      <c r="BP29" s="16"/>
+      <c r="BQ29" s="16"/>
+      <c r="BR29" s="17"/>
+      <c r="BS29" s="17"/>
+      <c r="BT29" s="17"/>
+      <c r="BU29" s="17"/>
+      <c r="BV29" s="17"/>
+      <c r="BW29" s="17"/>
+      <c r="BX29" s="17"/>
+      <c r="BY29" s="17"/>
+      <c r="BZ29" s="17"/>
+      <c r="CA29" s="17"/>
+      <c r="CB29" s="17"/>
+      <c r="CC29" s="17"/>
+      <c r="CD29" s="17"/>
+      <c r="CE29" s="17"/>
+      <c r="CF29" s="17"/>
+      <c r="CG29" s="17"/>
+      <c r="CH29" s="17"/>
+      <c r="CI29" s="18"/>
     </row>
     <row r="30" spans="2:87" ht="18.600000000000001" thickBot="1">
       <c r="B30" s="15"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="16"/>
-      <c r="S30" s="16"/>
-      <c r="T30" s="16"/>
-      <c r="U30" s="16"/>
-      <c r="V30" s="16"/>
-      <c r="W30" s="16"/>
-      <c r="X30" s="16"/>
-      <c r="Y30" s="16"/>
-      <c r="Z30" s="16"/>
-      <c r="AA30" s="16"/>
-      <c r="AB30" s="16"/>
-      <c r="AC30" s="16"/>
-      <c r="AD30" s="16"/>
-      <c r="AE30" s="16"/>
-      <c r="AF30" s="16"/>
-      <c r="AG30" s="16"/>
-      <c r="AH30" s="16"/>
-      <c r="AI30" s="16"/>
-      <c r="AJ30" s="16"/>
-      <c r="AK30" s="16"/>
-      <c r="AL30" s="16"/>
-      <c r="AM30" s="16"/>
-      <c r="AN30" s="16"/>
-      <c r="AO30" s="16"/>
-      <c r="AP30" s="16"/>
-      <c r="AQ30" s="16"/>
-      <c r="AR30" s="16"/>
-      <c r="AS30" s="16"/>
-      <c r="AT30" s="16"/>
-      <c r="AU30" s="16"/>
-      <c r="AV30" s="16"/>
-      <c r="AW30" s="16"/>
-      <c r="AX30" s="16"/>
-      <c r="AY30" s="16"/>
-      <c r="AZ30" s="16"/>
-      <c r="BA30" s="16"/>
-      <c r="BB30" s="16"/>
-      <c r="BC30" s="16"/>
-      <c r="BD30" s="16"/>
-      <c r="BE30" s="16"/>
-      <c r="BF30" s="16"/>
-      <c r="BG30" s="16"/>
-      <c r="BH30" s="16"/>
-      <c r="BI30" s="16"/>
-      <c r="BJ30" s="16"/>
-      <c r="BK30" s="16"/>
-      <c r="BL30" s="16"/>
-      <c r="BM30" s="16"/>
-      <c r="BN30" s="16"/>
-      <c r="BO30" s="16"/>
-      <c r="BP30" s="16"/>
-      <c r="BQ30" s="16"/>
-      <c r="BR30" s="17"/>
-      <c r="BS30" s="17"/>
-      <c r="BT30" s="17"/>
-      <c r="BU30" s="17"/>
-      <c r="BV30" s="17"/>
-      <c r="BW30" s="17"/>
-      <c r="BX30" s="17"/>
-      <c r="BY30" s="17"/>
-      <c r="BZ30" s="17"/>
-      <c r="CA30" s="17"/>
-      <c r="CB30" s="17"/>
-      <c r="CC30" s="17"/>
-      <c r="CD30" s="17"/>
-      <c r="CE30" s="17"/>
-      <c r="CF30" s="17"/>
-      <c r="CG30" s="17"/>
-      <c r="CH30" s="17"/>
-      <c r="CI30" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
-    <mergeCell ref="CB1:CI1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:V2"/>
-    <mergeCell ref="W2:BK2"/>
-    <mergeCell ref="BL2:BO2"/>
-    <mergeCell ref="BP2:BW2"/>
-    <mergeCell ref="BX2:CA2"/>
-    <mergeCell ref="CB2:CI2"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:V1"/>
-    <mergeCell ref="W1:BK1"/>
-    <mergeCell ref="BL1:BO1"/>
-    <mergeCell ref="BP1:BW1"/>
-    <mergeCell ref="BX1:CA1"/>
-    <mergeCell ref="BF4:CI4"/>
-    <mergeCell ref="B5:D5"/>
+  <mergeCells count="156">
+    <mergeCell ref="BF23:CI23"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E23:X23"/>
+    <mergeCell ref="Y23:AR23"/>
+    <mergeCell ref="AS23:AU23"/>
+    <mergeCell ref="AV23:BB23"/>
+    <mergeCell ref="BC23:BE23"/>
+    <mergeCell ref="BF21:CI21"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E22:X22"/>
+    <mergeCell ref="Y22:AR22"/>
+    <mergeCell ref="AS22:AU22"/>
+    <mergeCell ref="AV22:BB22"/>
+    <mergeCell ref="BC22:BE22"/>
+    <mergeCell ref="BF22:CI22"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E21:X21"/>
+    <mergeCell ref="Y21:AR21"/>
+    <mergeCell ref="AS21:AU21"/>
+    <mergeCell ref="AV21:BB21"/>
+    <mergeCell ref="BC21:BE21"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E20:X20"/>
+    <mergeCell ref="Y20:AR20"/>
+    <mergeCell ref="AS20:AU20"/>
+    <mergeCell ref="AV20:BB20"/>
+    <mergeCell ref="BC20:BE20"/>
+    <mergeCell ref="BF20:CI20"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E19:X19"/>
+    <mergeCell ref="Y19:AR19"/>
+    <mergeCell ref="AS19:AU19"/>
+    <mergeCell ref="AV19:BB19"/>
+    <mergeCell ref="BC19:BE19"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E18:X18"/>
+    <mergeCell ref="Y18:AR18"/>
+    <mergeCell ref="AS18:AU18"/>
+    <mergeCell ref="AV18:BB18"/>
+    <mergeCell ref="BC18:BE18"/>
+    <mergeCell ref="BF18:CI18"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E17:X17"/>
+    <mergeCell ref="Y17:AR17"/>
+    <mergeCell ref="AS17:AU17"/>
+    <mergeCell ref="AV17:BB17"/>
+    <mergeCell ref="BC17:BE17"/>
+    <mergeCell ref="BF19:CI19"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E16:X16"/>
+    <mergeCell ref="Y16:AR16"/>
+    <mergeCell ref="AS16:AU16"/>
+    <mergeCell ref="AV16:BB16"/>
+    <mergeCell ref="BC16:BE16"/>
+    <mergeCell ref="BF16:CI16"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E15:X15"/>
+    <mergeCell ref="Y15:AR15"/>
+    <mergeCell ref="AS15:AU15"/>
+    <mergeCell ref="AV15:BB15"/>
+    <mergeCell ref="BC15:BE15"/>
+    <mergeCell ref="BF17:CI17"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E14:X14"/>
+    <mergeCell ref="Y14:AR14"/>
+    <mergeCell ref="AS14:AU14"/>
+    <mergeCell ref="AV14:BB14"/>
+    <mergeCell ref="BC14:BE14"/>
+    <mergeCell ref="BF14:CI14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E13:X13"/>
+    <mergeCell ref="Y13:AR13"/>
+    <mergeCell ref="AS13:AU13"/>
+    <mergeCell ref="AV13:BB13"/>
+    <mergeCell ref="BC13:BE13"/>
+    <mergeCell ref="BF15:CI15"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E12:X12"/>
+    <mergeCell ref="Y12:AR12"/>
+    <mergeCell ref="AS12:AU12"/>
+    <mergeCell ref="AV12:BB12"/>
+    <mergeCell ref="BC12:BE12"/>
+    <mergeCell ref="BF12:CI12"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E11:X11"/>
+    <mergeCell ref="Y11:AR11"/>
+    <mergeCell ref="AS11:AU11"/>
+    <mergeCell ref="AV11:BB11"/>
+    <mergeCell ref="BC11:BE11"/>
+    <mergeCell ref="BF13:CI13"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E10:X10"/>
+    <mergeCell ref="Y10:AR10"/>
+    <mergeCell ref="AS10:AU10"/>
+    <mergeCell ref="AV10:BB10"/>
+    <mergeCell ref="BC10:BE10"/>
+    <mergeCell ref="BF10:CI10"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E9:X9"/>
+    <mergeCell ref="Y9:AR9"/>
+    <mergeCell ref="AS9:AU9"/>
+    <mergeCell ref="AV9:BB9"/>
+    <mergeCell ref="BC9:BE9"/>
+    <mergeCell ref="BF11:CI11"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E8:X8"/>
+    <mergeCell ref="Y8:AR8"/>
+    <mergeCell ref="AS8:AU8"/>
+    <mergeCell ref="AV8:BB8"/>
+    <mergeCell ref="BC8:BE8"/>
+    <mergeCell ref="BF8:CI8"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E7:X7"/>
+    <mergeCell ref="Y7:AR7"/>
+    <mergeCell ref="AS7:AU7"/>
+    <mergeCell ref="AV7:BB7"/>
+    <mergeCell ref="BC7:BE7"/>
+    <mergeCell ref="BF9:CI9"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E6:X6"/>
+    <mergeCell ref="Y6:AR6"/>
+    <mergeCell ref="AS6:AU6"/>
+    <mergeCell ref="AV6:BB6"/>
+    <mergeCell ref="BC6:BE6"/>
+    <mergeCell ref="BF6:CI6"/>
+    <mergeCell ref="B6:D6"/>
     <mergeCell ref="E5:X5"/>
     <mergeCell ref="Y5:AR5"/>
     <mergeCell ref="AS5:AU5"/>
     <mergeCell ref="AV5:BB5"/>
     <mergeCell ref="BC5:BE5"/>
-    <mergeCell ref="BF5:CI5"/>
+    <mergeCell ref="BF7:CI7"/>
+    <mergeCell ref="BF4:CI4"/>
+    <mergeCell ref="B5:D5"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:X4"/>
     <mergeCell ref="Y4:AR4"/>
     <mergeCell ref="AS4:AU4"/>
     <mergeCell ref="AV4:BB4"/>
     <mergeCell ref="BC4:BE4"/>
-    <mergeCell ref="BF6:CI6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:X7"/>
-    <mergeCell ref="Y7:AR7"/>
-    <mergeCell ref="AS7:AU7"/>
-    <mergeCell ref="AV7:BB7"/>
-    <mergeCell ref="BC7:BE7"/>
-    <mergeCell ref="BF7:CI7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:X6"/>
-    <mergeCell ref="Y6:AR6"/>
-    <mergeCell ref="AS6:AU6"/>
-    <mergeCell ref="AV6:BB6"/>
-    <mergeCell ref="BC6:BE6"/>
-    <mergeCell ref="BF8:CI8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:X9"/>
-    <mergeCell ref="Y9:AR9"/>
-    <mergeCell ref="AS9:AU9"/>
-    <mergeCell ref="AV9:BB9"/>
-    <mergeCell ref="BC9:BE9"/>
-    <mergeCell ref="BF9:CI9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:X8"/>
-    <mergeCell ref="Y8:AR8"/>
-    <mergeCell ref="AS8:AU8"/>
-    <mergeCell ref="AV8:BB8"/>
-    <mergeCell ref="BC8:BE8"/>
-    <mergeCell ref="BF10:CI10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:X11"/>
-    <mergeCell ref="Y11:AR11"/>
-    <mergeCell ref="AS11:AU11"/>
-    <mergeCell ref="AV11:BB11"/>
-    <mergeCell ref="BC11:BE11"/>
-    <mergeCell ref="BF11:CI11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:X10"/>
-    <mergeCell ref="Y10:AR10"/>
-    <mergeCell ref="AS10:AU10"/>
-    <mergeCell ref="AV10:BB10"/>
-    <mergeCell ref="BC10:BE10"/>
-    <mergeCell ref="BF12:CI12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:X13"/>
-    <mergeCell ref="Y13:AR13"/>
-    <mergeCell ref="AS13:AU13"/>
-    <mergeCell ref="AV13:BB13"/>
-    <mergeCell ref="BC13:BE13"/>
-    <mergeCell ref="BF13:CI13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:X12"/>
-    <mergeCell ref="Y12:AR12"/>
-    <mergeCell ref="AS12:AU12"/>
-    <mergeCell ref="AV12:BB12"/>
-    <mergeCell ref="BC12:BE12"/>
-    <mergeCell ref="BF14:CI14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:X15"/>
-    <mergeCell ref="Y15:AR15"/>
-    <mergeCell ref="AS15:AU15"/>
-    <mergeCell ref="AV15:BB15"/>
-    <mergeCell ref="BC15:BE15"/>
-    <mergeCell ref="BF15:CI15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:X14"/>
-    <mergeCell ref="Y14:AR14"/>
-    <mergeCell ref="AS14:AU14"/>
-    <mergeCell ref="AV14:BB14"/>
-    <mergeCell ref="BC14:BE14"/>
-    <mergeCell ref="BF16:CI16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:X17"/>
-    <mergeCell ref="Y17:AR17"/>
-    <mergeCell ref="AS17:AU17"/>
-    <mergeCell ref="AV17:BB17"/>
-    <mergeCell ref="BC17:BE17"/>
-    <mergeCell ref="BF17:CI17"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:X16"/>
-    <mergeCell ref="Y16:AR16"/>
-    <mergeCell ref="AS16:AU16"/>
-    <mergeCell ref="AV16:BB16"/>
-    <mergeCell ref="BC16:BE16"/>
-    <mergeCell ref="BF18:CI18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:X19"/>
-    <mergeCell ref="Y19:AR19"/>
-    <mergeCell ref="AS19:AU19"/>
-    <mergeCell ref="AV19:BB19"/>
-    <mergeCell ref="BC19:BE19"/>
-    <mergeCell ref="BF19:CI19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:X18"/>
-    <mergeCell ref="Y18:AR18"/>
-    <mergeCell ref="AS18:AU18"/>
-    <mergeCell ref="AV18:BB18"/>
-    <mergeCell ref="BC18:BE18"/>
-    <mergeCell ref="BF20:CI20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:X21"/>
-    <mergeCell ref="Y21:AR21"/>
-    <mergeCell ref="AS21:AU21"/>
-    <mergeCell ref="AV21:BB21"/>
-    <mergeCell ref="BC21:BE21"/>
-    <mergeCell ref="BF21:CI21"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:X20"/>
-    <mergeCell ref="Y20:AR20"/>
-    <mergeCell ref="AS20:AU20"/>
-    <mergeCell ref="AV20:BB20"/>
-    <mergeCell ref="BC20:BE20"/>
-    <mergeCell ref="BF24:CI24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:X24"/>
-    <mergeCell ref="Y24:AR24"/>
-    <mergeCell ref="AS24:AU24"/>
-    <mergeCell ref="AV24:BB24"/>
-    <mergeCell ref="BC24:BE24"/>
-    <mergeCell ref="BF22:CI22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:X23"/>
-    <mergeCell ref="Y23:AR23"/>
-    <mergeCell ref="AS23:AU23"/>
-    <mergeCell ref="AV23:BB23"/>
-    <mergeCell ref="BC23:BE23"/>
-    <mergeCell ref="BF23:CI23"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:X22"/>
-    <mergeCell ref="Y22:AR22"/>
-    <mergeCell ref="AS22:AU22"/>
-    <mergeCell ref="AV22:BB22"/>
-    <mergeCell ref="BC22:BE22"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.23611111111111099" right="0.23611111111111099" top="0.74791666666666701" bottom="0.74861111111111101" header="0.51180555555555496" footer="0.31527777777777799"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="4294967294" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;LSolid Communication Inc.&amp;R&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB9062D-BF78-4118-8178-475E84C25B1F}">
-  <dimension ref="A1:AMK30"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BF13" sqref="BF13:CI13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="1" width="0.77734375" style="2" customWidth="1"/>
-    <col min="2" max="87" width="1.6640625" style="2" customWidth="1"/>
-    <col min="88" max="1025" width="9" style="2"/>
-    <col min="1026" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1024" ht="18" customHeight="1">
-      <c r="A1" s="1"/>
-      <c r="B1" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="60"/>
-      <c r="Z1" s="60"/>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="60"/>
-      <c r="AC1" s="60"/>
-      <c r="AD1" s="60"/>
-      <c r="AE1" s="60"/>
-      <c r="AF1" s="60"/>
-      <c r="AG1" s="60"/>
-      <c r="AH1" s="60"/>
-      <c r="AI1" s="60"/>
-      <c r="AJ1" s="60"/>
-      <c r="AK1" s="60"/>
-      <c r="AL1" s="60"/>
-      <c r="AM1" s="60"/>
-      <c r="AN1" s="60"/>
-      <c r="AO1" s="60"/>
-      <c r="AP1" s="60"/>
-      <c r="AQ1" s="60"/>
-      <c r="AR1" s="60"/>
-      <c r="AS1" s="60"/>
-      <c r="AT1" s="60"/>
-      <c r="AU1" s="60"/>
-      <c r="AV1" s="60"/>
-      <c r="AW1" s="60"/>
-      <c r="AX1" s="60"/>
-      <c r="AY1" s="60"/>
-      <c r="AZ1" s="60"/>
-      <c r="BA1" s="60"/>
-      <c r="BB1" s="60"/>
-      <c r="BC1" s="60"/>
-      <c r="BD1" s="60"/>
-      <c r="BE1" s="60"/>
-      <c r="BF1" s="60"/>
-      <c r="BG1" s="60"/>
-      <c r="BH1" s="60"/>
-      <c r="BI1" s="60"/>
-      <c r="BJ1" s="60"/>
-      <c r="BK1" s="60"/>
-      <c r="BL1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="BM1" s="40"/>
-      <c r="BN1" s="40"/>
-      <c r="BO1" s="40"/>
-      <c r="BP1" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="BQ1" s="41"/>
-      <c r="BR1" s="41"/>
-      <c r="BS1" s="41"/>
-      <c r="BT1" s="41"/>
-      <c r="BU1" s="41"/>
-      <c r="BV1" s="41"/>
-      <c r="BW1" s="41"/>
-      <c r="BX1" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="BY1" s="28"/>
-      <c r="BZ1" s="28"/>
-      <c r="CA1" s="28"/>
-      <c r="CB1" s="29"/>
-      <c r="CC1" s="29"/>
-      <c r="CD1" s="29"/>
-      <c r="CE1" s="29"/>
-      <c r="CF1" s="29"/>
-      <c r="CG1" s="29"/>
-      <c r="CH1" s="29"/>
-      <c r="CI1" s="29"/>
-      <c r="CJ1" s="1"/>
-      <c r="CK1" s="1"/>
-      <c r="CL1" s="1"/>
-      <c r="CM1" s="1"/>
-      <c r="CN1" s="1"/>
-      <c r="CO1" s="1"/>
-      <c r="CP1" s="1"/>
-      <c r="CQ1" s="1"/>
-      <c r="CR1" s="1"/>
-      <c r="CS1" s="1"/>
-      <c r="CT1" s="1"/>
-      <c r="CU1" s="1"/>
-      <c r="CV1" s="1"/>
-      <c r="CW1" s="1"/>
-      <c r="CX1" s="1"/>
-      <c r="CY1" s="1"/>
-      <c r="CZ1" s="1"/>
-      <c r="DA1" s="1"/>
-      <c r="DB1" s="1"/>
-      <c r="DC1" s="1"/>
-      <c r="DD1" s="1"/>
-      <c r="DE1" s="1"/>
-      <c r="DF1" s="1"/>
-      <c r="DG1" s="1"/>
-      <c r="DH1" s="1"/>
-      <c r="DI1" s="1"/>
-      <c r="DJ1" s="1"/>
-      <c r="DK1" s="1"/>
-      <c r="DL1" s="1"/>
-      <c r="DM1" s="1"/>
-      <c r="DN1" s="1"/>
-      <c r="DO1" s="1"/>
-      <c r="DP1" s="1"/>
-      <c r="DQ1" s="1"/>
-      <c r="DR1" s="1"/>
-      <c r="DS1" s="1"/>
-      <c r="DT1" s="1"/>
-      <c r="DU1" s="1"/>
-      <c r="DV1" s="1"/>
-      <c r="DW1" s="1"/>
-      <c r="DX1" s="1"/>
-      <c r="DY1" s="1"/>
-      <c r="DZ1" s="1"/>
-      <c r="EA1" s="1"/>
-      <c r="EB1" s="1"/>
-      <c r="EC1" s="1"/>
-      <c r="ED1" s="1"/>
-      <c r="EE1" s="1"/>
-      <c r="EF1" s="1"/>
-      <c r="EG1" s="1"/>
-      <c r="EH1" s="1"/>
-      <c r="EI1" s="1"/>
-      <c r="EJ1" s="1"/>
-      <c r="EK1" s="1"/>
-      <c r="EL1" s="1"/>
-      <c r="EM1" s="1"/>
-      <c r="EN1" s="1"/>
-      <c r="EO1" s="1"/>
-      <c r="EP1" s="1"/>
-      <c r="EQ1" s="1"/>
-      <c r="ER1" s="1"/>
-      <c r="ES1" s="1"/>
-      <c r="ET1" s="1"/>
-      <c r="EU1" s="1"/>
-      <c r="EV1" s="1"/>
-      <c r="EW1" s="1"/>
-      <c r="EX1" s="1"/>
-      <c r="EY1" s="1"/>
-      <c r="EZ1" s="1"/>
-      <c r="FA1" s="1"/>
-      <c r="FB1" s="1"/>
-      <c r="FC1" s="1"/>
-      <c r="FD1" s="1"/>
-      <c r="FE1" s="1"/>
-      <c r="FF1" s="1"/>
-      <c r="FG1" s="1"/>
-      <c r="FH1" s="1"/>
-      <c r="FI1" s="1"/>
-      <c r="FJ1" s="1"/>
-      <c r="FK1" s="1"/>
-      <c r="FL1" s="1"/>
-      <c r="FM1" s="1"/>
-      <c r="FN1" s="1"/>
-      <c r="FO1" s="1"/>
-      <c r="FP1" s="1"/>
-      <c r="FQ1" s="1"/>
-      <c r="FR1" s="1"/>
-      <c r="FS1" s="1"/>
-      <c r="FT1" s="1"/>
-      <c r="FU1" s="1"/>
-      <c r="FV1" s="1"/>
-      <c r="FW1" s="1"/>
-      <c r="FX1" s="1"/>
-      <c r="FY1" s="1"/>
-      <c r="FZ1" s="1"/>
-      <c r="GA1" s="1"/>
-      <c r="GB1" s="1"/>
-      <c r="GC1" s="1"/>
-      <c r="GD1" s="1"/>
-      <c r="GE1" s="1"/>
-      <c r="GF1" s="1"/>
-      <c r="GG1" s="1"/>
-      <c r="GH1" s="1"/>
-      <c r="GI1" s="1"/>
-      <c r="GJ1" s="1"/>
-      <c r="GK1" s="1"/>
-      <c r="GL1" s="1"/>
-      <c r="GM1" s="1"/>
-      <c r="GN1" s="1"/>
-      <c r="GO1" s="1"/>
-      <c r="GP1" s="1"/>
-      <c r="GQ1" s="1"/>
-      <c r="GR1" s="1"/>
-      <c r="GS1" s="1"/>
-      <c r="GT1" s="1"/>
-      <c r="GU1" s="1"/>
-      <c r="GV1" s="1"/>
-      <c r="GW1" s="1"/>
-      <c r="GX1" s="1"/>
-      <c r="GY1" s="1"/>
-      <c r="GZ1" s="1"/>
-      <c r="HA1" s="1"/>
-      <c r="HB1" s="1"/>
-      <c r="HC1" s="1"/>
-      <c r="HD1" s="1"/>
-      <c r="HE1" s="1"/>
-      <c r="HF1" s="1"/>
-      <c r="HG1" s="1"/>
-      <c r="HH1" s="1"/>
-      <c r="HI1" s="1"/>
-      <c r="HJ1" s="1"/>
-      <c r="HK1" s="1"/>
-      <c r="HL1" s="1"/>
-      <c r="HM1" s="1"/>
-      <c r="HN1" s="1"/>
-      <c r="HO1" s="1"/>
-      <c r="HP1" s="1"/>
-      <c r="HQ1" s="1"/>
-      <c r="HR1" s="1"/>
-      <c r="HS1" s="1"/>
-      <c r="HT1" s="1"/>
-      <c r="HU1" s="1"/>
-      <c r="HV1" s="1"/>
-      <c r="HW1" s="1"/>
-      <c r="HX1" s="1"/>
-      <c r="HY1" s="1"/>
-      <c r="HZ1" s="1"/>
-      <c r="IA1" s="1"/>
-      <c r="IB1" s="1"/>
-      <c r="IC1" s="1"/>
-      <c r="ID1" s="1"/>
-      <c r="IE1" s="1"/>
-      <c r="IF1" s="1"/>
-      <c r="IG1" s="1"/>
-      <c r="IH1" s="1"/>
-      <c r="II1" s="1"/>
-      <c r="IJ1" s="1"/>
-      <c r="IK1" s="1"/>
-      <c r="IL1" s="1"/>
-      <c r="IM1" s="1"/>
-      <c r="IN1" s="1"/>
-      <c r="IO1" s="1"/>
-      <c r="IP1" s="1"/>
-      <c r="IQ1" s="1"/>
-      <c r="IR1" s="1"/>
-      <c r="IS1" s="1"/>
-      <c r="IT1" s="1"/>
-      <c r="IU1" s="1"/>
-      <c r="IV1" s="1"/>
-      <c r="IW1" s="1"/>
-      <c r="IX1" s="1"/>
-      <c r="IY1" s="1"/>
-      <c r="IZ1" s="1"/>
-      <c r="JA1" s="1"/>
-      <c r="JB1" s="1"/>
-      <c r="JC1" s="1"/>
-      <c r="JD1" s="1"/>
-      <c r="JE1" s="1"/>
-      <c r="JF1" s="1"/>
-      <c r="JG1" s="1"/>
-      <c r="JH1" s="1"/>
-      <c r="JI1" s="1"/>
-      <c r="JJ1" s="1"/>
-      <c r="JK1" s="1"/>
-      <c r="JL1" s="1"/>
-      <c r="JM1" s="1"/>
-      <c r="JN1" s="1"/>
-      <c r="JO1" s="1"/>
-      <c r="JP1" s="1"/>
-      <c r="JQ1" s="1"/>
-      <c r="JR1" s="1"/>
-      <c r="JS1" s="1"/>
-      <c r="JT1" s="1"/>
-      <c r="JU1" s="1"/>
-      <c r="JV1" s="1"/>
-      <c r="JW1" s="1"/>
-      <c r="JX1" s="1"/>
-      <c r="JY1" s="1"/>
-      <c r="JZ1" s="1"/>
-      <c r="KA1" s="1"/>
-      <c r="KB1" s="1"/>
-      <c r="KC1" s="1"/>
-      <c r="KD1" s="1"/>
-      <c r="KE1" s="1"/>
-      <c r="KF1" s="1"/>
-      <c r="KG1" s="1"/>
-      <c r="KH1" s="1"/>
-      <c r="KI1" s="1"/>
-      <c r="KJ1" s="1"/>
-      <c r="KK1" s="1"/>
-      <c r="KL1" s="1"/>
-      <c r="KM1" s="1"/>
-      <c r="KN1" s="1"/>
-      <c r="KO1" s="1"/>
-      <c r="KP1" s="1"/>
-      <c r="KQ1" s="1"/>
-      <c r="KR1" s="1"/>
-      <c r="KS1" s="1"/>
-      <c r="KT1" s="1"/>
-      <c r="KU1" s="1"/>
-      <c r="KV1" s="1"/>
-      <c r="KW1" s="1"/>
-      <c r="KX1" s="1"/>
-      <c r="KY1" s="1"/>
-      <c r="KZ1" s="1"/>
-      <c r="LA1" s="1"/>
-      <c r="LB1" s="1"/>
-      <c r="LC1" s="1"/>
-      <c r="LD1" s="1"/>
-      <c r="LE1" s="1"/>
-      <c r="LF1" s="1"/>
-      <c r="LG1" s="1"/>
-      <c r="LH1" s="1"/>
-      <c r="LI1" s="1"/>
-      <c r="LJ1" s="1"/>
-      <c r="LK1" s="1"/>
-      <c r="LL1" s="1"/>
-      <c r="LM1" s="1"/>
-      <c r="LN1" s="1"/>
-      <c r="LO1" s="1"/>
-      <c r="LP1" s="1"/>
-      <c r="LQ1" s="1"/>
-      <c r="LR1" s="1"/>
-      <c r="LS1" s="1"/>
-      <c r="LT1" s="1"/>
-      <c r="LU1" s="1"/>
-      <c r="LV1" s="1"/>
-      <c r="LW1" s="1"/>
-      <c r="LX1" s="1"/>
-      <c r="LY1" s="1"/>
-      <c r="LZ1" s="1"/>
-      <c r="MA1" s="1"/>
-      <c r="MB1" s="1"/>
-      <c r="MC1" s="1"/>
-      <c r="MD1" s="1"/>
-      <c r="ME1" s="1"/>
-      <c r="MF1" s="1"/>
-      <c r="MG1" s="1"/>
-      <c r="MH1" s="1"/>
-      <c r="MI1" s="1"/>
-      <c r="MJ1" s="1"/>
-      <c r="MK1" s="1"/>
-      <c r="ML1" s="1"/>
-      <c r="MM1" s="1"/>
-      <c r="MN1" s="1"/>
-      <c r="MO1" s="1"/>
-      <c r="MP1" s="1"/>
-      <c r="MQ1" s="1"/>
-      <c r="MR1" s="1"/>
-      <c r="MS1" s="1"/>
-      <c r="MT1" s="1"/>
-      <c r="MU1" s="1"/>
-      <c r="MV1" s="1"/>
-      <c r="MW1" s="1"/>
-      <c r="MX1" s="1"/>
-      <c r="MY1" s="1"/>
-      <c r="MZ1" s="1"/>
-      <c r="NA1" s="1"/>
-      <c r="NB1" s="1"/>
-      <c r="NC1" s="1"/>
-      <c r="ND1" s="1"/>
-      <c r="NE1" s="1"/>
-      <c r="NF1" s="1"/>
-      <c r="NG1" s="1"/>
-      <c r="NH1" s="1"/>
-      <c r="NI1" s="1"/>
-      <c r="NJ1" s="1"/>
-      <c r="NK1" s="1"/>
-      <c r="NL1" s="1"/>
-      <c r="NM1" s="1"/>
-      <c r="NN1" s="1"/>
-      <c r="NO1" s="1"/>
-      <c r="NP1" s="1"/>
-      <c r="NQ1" s="1"/>
-      <c r="NR1" s="1"/>
-      <c r="NS1" s="1"/>
-      <c r="NT1" s="1"/>
-      <c r="NU1" s="1"/>
-      <c r="NV1" s="1"/>
-      <c r="NW1" s="1"/>
-      <c r="NX1" s="1"/>
-      <c r="NY1" s="1"/>
-      <c r="NZ1" s="1"/>
-      <c r="OA1" s="1"/>
-      <c r="OB1" s="1"/>
-      <c r="OC1" s="1"/>
-      <c r="OD1" s="1"/>
-      <c r="OE1" s="1"/>
-      <c r="OF1" s="1"/>
-      <c r="OG1" s="1"/>
-      <c r="OH1" s="1"/>
-      <c r="OI1" s="1"/>
-      <c r="OJ1" s="1"/>
-      <c r="OK1" s="1"/>
-      <c r="OL1" s="1"/>
-      <c r="OM1" s="1"/>
-      <c r="ON1" s="1"/>
-      <c r="OO1" s="1"/>
-      <c r="OP1" s="1"/>
-      <c r="OQ1" s="1"/>
-      <c r="OR1" s="1"/>
-      <c r="OS1" s="1"/>
-      <c r="OT1" s="1"/>
-      <c r="OU1" s="1"/>
-      <c r="OV1" s="1"/>
-      <c r="OW1" s="1"/>
-      <c r="OX1" s="1"/>
-      <c r="OY1" s="1"/>
-      <c r="OZ1" s="1"/>
-      <c r="PA1" s="1"/>
-      <c r="PB1" s="1"/>
-      <c r="PC1" s="1"/>
-      <c r="PD1" s="1"/>
-      <c r="PE1" s="1"/>
-      <c r="PF1" s="1"/>
-      <c r="PG1" s="1"/>
-      <c r="PH1" s="1"/>
-      <c r="PI1" s="1"/>
-      <c r="PJ1" s="1"/>
-      <c r="PK1" s="1"/>
-      <c r="PL1" s="1"/>
-      <c r="PM1" s="1"/>
-      <c r="PN1" s="1"/>
-      <c r="PO1" s="1"/>
-      <c r="PP1" s="1"/>
-      <c r="PQ1" s="1"/>
-      <c r="PR1" s="1"/>
-      <c r="PS1" s="1"/>
-      <c r="PT1" s="1"/>
-      <c r="PU1" s="1"/>
-      <c r="PV1" s="1"/>
-      <c r="PW1" s="1"/>
-      <c r="PX1" s="1"/>
-      <c r="PY1" s="1"/>
-      <c r="PZ1" s="1"/>
-      <c r="QA1" s="1"/>
-      <c r="QB1" s="1"/>
-      <c r="QC1" s="1"/>
-      <c r="QD1" s="1"/>
-      <c r="QE1" s="1"/>
-      <c r="QF1" s="1"/>
-      <c r="QG1" s="1"/>
-      <c r="QH1" s="1"/>
-      <c r="QI1" s="1"/>
-      <c r="QJ1" s="1"/>
-      <c r="QK1" s="1"/>
-      <c r="QL1" s="1"/>
-      <c r="QM1" s="1"/>
-      <c r="QN1" s="1"/>
-      <c r="QO1" s="1"/>
-      <c r="QP1" s="1"/>
-      <c r="QQ1" s="1"/>
-      <c r="QR1" s="1"/>
-      <c r="QS1" s="1"/>
-      <c r="QT1" s="1"/>
-      <c r="QU1" s="1"/>
-      <c r="QV1" s="1"/>
-      <c r="QW1" s="1"/>
-      <c r="QX1" s="1"/>
-      <c r="QY1" s="1"/>
-      <c r="QZ1" s="1"/>
-      <c r="RA1" s="1"/>
-      <c r="RB1" s="1"/>
-      <c r="RC1" s="1"/>
-      <c r="RD1" s="1"/>
-      <c r="RE1" s="1"/>
-      <c r="RF1" s="1"/>
-      <c r="RG1" s="1"/>
-      <c r="RH1" s="1"/>
-      <c r="RI1" s="1"/>
-      <c r="RJ1" s="1"/>
-      <c r="RK1" s="1"/>
-      <c r="RL1" s="1"/>
-      <c r="RM1" s="1"/>
-      <c r="RN1" s="1"/>
-      <c r="RO1" s="1"/>
-      <c r="RP1" s="1"/>
-      <c r="RQ1" s="1"/>
-      <c r="RR1" s="1"/>
-      <c r="RS1" s="1"/>
-      <c r="RT1" s="1"/>
-      <c r="RU1" s="1"/>
-      <c r="RV1" s="1"/>
-      <c r="RW1" s="1"/>
-      <c r="RX1" s="1"/>
-      <c r="RY1" s="1"/>
-      <c r="RZ1" s="1"/>
-      <c r="SA1" s="1"/>
-      <c r="SB1" s="1"/>
-      <c r="SC1" s="1"/>
-      <c r="SD1" s="1"/>
-      <c r="SE1" s="1"/>
-      <c r="SF1" s="1"/>
-      <c r="SG1" s="1"/>
-      <c r="SH1" s="1"/>
-      <c r="SI1" s="1"/>
-      <c r="SJ1" s="1"/>
-      <c r="SK1" s="1"/>
-      <c r="SL1" s="1"/>
-      <c r="SM1" s="1"/>
-      <c r="SN1" s="1"/>
-      <c r="SO1" s="1"/>
-      <c r="SP1" s="1"/>
-      <c r="SQ1" s="1"/>
-      <c r="SR1" s="1"/>
-      <c r="SS1" s="1"/>
-      <c r="ST1" s="1"/>
-      <c r="SU1" s="1"/>
-      <c r="SV1" s="1"/>
-      <c r="SW1" s="1"/>
-      <c r="SX1" s="1"/>
-      <c r="SY1" s="1"/>
-      <c r="SZ1" s="1"/>
-      <c r="TA1" s="1"/>
-      <c r="TB1" s="1"/>
-      <c r="TC1" s="1"/>
-      <c r="TD1" s="1"/>
-      <c r="TE1" s="1"/>
-      <c r="TF1" s="1"/>
-      <c r="TG1" s="1"/>
-      <c r="TH1" s="1"/>
-      <c r="TI1" s="1"/>
-      <c r="TJ1" s="1"/>
-      <c r="TK1" s="1"/>
-      <c r="TL1" s="1"/>
-      <c r="TM1" s="1"/>
-      <c r="TN1" s="1"/>
-      <c r="TO1" s="1"/>
-      <c r="TP1" s="1"/>
-      <c r="TQ1" s="1"/>
-      <c r="TR1" s="1"/>
-      <c r="TS1" s="1"/>
-      <c r="TT1" s="1"/>
-      <c r="TU1" s="1"/>
-      <c r="TV1" s="1"/>
-      <c r="TW1" s="1"/>
-      <c r="TX1" s="1"/>
-      <c r="TY1" s="1"/>
-      <c r="TZ1" s="1"/>
-      <c r="UA1" s="1"/>
-      <c r="UB1" s="1"/>
-      <c r="UC1" s="1"/>
-      <c r="UD1" s="1"/>
-      <c r="UE1" s="1"/>
-      <c r="UF1" s="1"/>
-      <c r="UG1" s="1"/>
-      <c r="UH1" s="1"/>
-      <c r="UI1" s="1"/>
-      <c r="UJ1" s="1"/>
-      <c r="UK1" s="1"/>
-      <c r="UL1" s="1"/>
-      <c r="UM1" s="1"/>
-      <c r="UN1" s="1"/>
-      <c r="UO1" s="1"/>
-      <c r="UP1" s="1"/>
-      <c r="UQ1" s="1"/>
-      <c r="UR1" s="1"/>
-      <c r="US1" s="1"/>
-      <c r="UT1" s="1"/>
-      <c r="UU1" s="1"/>
-      <c r="UV1" s="1"/>
-      <c r="UW1" s="1"/>
-      <c r="UX1" s="1"/>
-      <c r="UY1" s="1"/>
-      <c r="UZ1" s="1"/>
-      <c r="VA1" s="1"/>
-      <c r="VB1" s="1"/>
-      <c r="VC1" s="1"/>
-      <c r="VD1" s="1"/>
-      <c r="VE1" s="1"/>
-      <c r="VF1" s="1"/>
-      <c r="VG1" s="1"/>
-      <c r="VH1" s="1"/>
-      <c r="VI1" s="1"/>
-      <c r="VJ1" s="1"/>
-      <c r="VK1" s="1"/>
-      <c r="VL1" s="1"/>
-      <c r="VM1" s="1"/>
-      <c r="VN1" s="1"/>
-      <c r="VO1" s="1"/>
-      <c r="VP1" s="1"/>
-      <c r="VQ1" s="1"/>
-      <c r="VR1" s="1"/>
-      <c r="VS1" s="1"/>
-      <c r="VT1" s="1"/>
-      <c r="VU1" s="1"/>
-      <c r="VV1" s="1"/>
-      <c r="VW1" s="1"/>
-      <c r="VX1" s="1"/>
-      <c r="VY1" s="1"/>
-      <c r="VZ1" s="1"/>
-      <c r="WA1" s="1"/>
-      <c r="WB1" s="1"/>
-      <c r="WC1" s="1"/>
-      <c r="WD1" s="1"/>
-      <c r="WE1" s="1"/>
-      <c r="WF1" s="1"/>
-      <c r="WG1" s="1"/>
-      <c r="WH1" s="1"/>
-      <c r="WI1" s="1"/>
-      <c r="WJ1" s="1"/>
-      <c r="WK1" s="1"/>
-      <c r="WL1" s="1"/>
-      <c r="WM1" s="1"/>
-      <c r="WN1" s="1"/>
-      <c r="WO1" s="1"/>
-      <c r="WP1" s="1"/>
-      <c r="WQ1" s="1"/>
-      <c r="WR1" s="1"/>
-      <c r="WS1" s="1"/>
-      <c r="WT1" s="1"/>
-      <c r="WU1" s="1"/>
-      <c r="WV1" s="1"/>
-      <c r="WW1" s="1"/>
-      <c r="WX1" s="1"/>
-      <c r="WY1" s="1"/>
-      <c r="WZ1" s="1"/>
-      <c r="XA1" s="1"/>
-      <c r="XB1" s="1"/>
-      <c r="XC1" s="1"/>
-      <c r="XD1" s="1"/>
-      <c r="XE1" s="1"/>
-      <c r="XF1" s="1"/>
-      <c r="XG1" s="1"/>
-      <c r="XH1" s="1"/>
-      <c r="XI1" s="1"/>
-      <c r="XJ1" s="1"/>
-      <c r="XK1" s="1"/>
-      <c r="XL1" s="1"/>
-      <c r="XM1" s="1"/>
-      <c r="XN1" s="1"/>
-      <c r="XO1" s="1"/>
-      <c r="XP1" s="1"/>
-      <c r="XQ1" s="1"/>
-      <c r="XR1" s="1"/>
-      <c r="XS1" s="1"/>
-      <c r="XT1" s="1"/>
-      <c r="XU1" s="1"/>
-      <c r="XV1" s="1"/>
-      <c r="XW1" s="1"/>
-      <c r="XX1" s="1"/>
-      <c r="XY1" s="1"/>
-      <c r="XZ1" s="1"/>
-      <c r="YA1" s="1"/>
-      <c r="YB1" s="1"/>
-      <c r="YC1" s="1"/>
-      <c r="YD1" s="1"/>
-      <c r="YE1" s="1"/>
-      <c r="YF1" s="1"/>
-      <c r="YG1" s="1"/>
-      <c r="YH1" s="1"/>
-      <c r="YI1" s="1"/>
-      <c r="YJ1" s="1"/>
-      <c r="YK1" s="1"/>
-      <c r="YL1" s="1"/>
-      <c r="YM1" s="1"/>
-      <c r="YN1" s="1"/>
-      <c r="YO1" s="1"/>
-      <c r="YP1" s="1"/>
-      <c r="YQ1" s="1"/>
-      <c r="YR1" s="1"/>
-      <c r="YS1" s="1"/>
-      <c r="YT1" s="1"/>
-      <c r="YU1" s="1"/>
-      <c r="YV1" s="1"/>
-      <c r="YW1" s="1"/>
-      <c r="YX1" s="1"/>
-      <c r="YY1" s="1"/>
-      <c r="YZ1" s="1"/>
-      <c r="ZA1" s="1"/>
-      <c r="ZB1" s="1"/>
-      <c r="ZC1" s="1"/>
-      <c r="ZD1" s="1"/>
-      <c r="ZE1" s="1"/>
-      <c r="ZF1" s="1"/>
-      <c r="ZG1" s="1"/>
-      <c r="ZH1" s="1"/>
-      <c r="ZI1" s="1"/>
-      <c r="ZJ1" s="1"/>
-      <c r="ZK1" s="1"/>
-      <c r="ZL1" s="1"/>
-      <c r="ZM1" s="1"/>
-      <c r="ZN1" s="1"/>
-      <c r="ZO1" s="1"/>
-      <c r="ZP1" s="1"/>
-      <c r="ZQ1" s="1"/>
-      <c r="ZR1" s="1"/>
-      <c r="ZS1" s="1"/>
-      <c r="ZT1" s="1"/>
-      <c r="ZU1" s="1"/>
-      <c r="ZV1" s="1"/>
-      <c r="ZW1" s="1"/>
-      <c r="ZX1" s="1"/>
-      <c r="ZY1" s="1"/>
-      <c r="ZZ1" s="1"/>
-      <c r="AAA1" s="1"/>
-      <c r="AAB1" s="1"/>
-      <c r="AAC1" s="1"/>
-      <c r="AAD1" s="1"/>
-      <c r="AAE1" s="1"/>
-      <c r="AAF1" s="1"/>
-      <c r="AAG1" s="1"/>
-      <c r="AAH1" s="1"/>
-      <c r="AAI1" s="1"/>
-      <c r="AAJ1" s="1"/>
-      <c r="AAK1" s="1"/>
-      <c r="AAL1" s="1"/>
-      <c r="AAM1" s="1"/>
-      <c r="AAN1" s="1"/>
-      <c r="AAO1" s="1"/>
-      <c r="AAP1" s="1"/>
-      <c r="AAQ1" s="1"/>
-      <c r="AAR1" s="1"/>
-      <c r="AAS1" s="1"/>
-      <c r="AAT1" s="1"/>
-      <c r="AAU1" s="1"/>
-      <c r="AAV1" s="1"/>
-      <c r="AAW1" s="1"/>
-      <c r="AAX1" s="1"/>
-      <c r="AAY1" s="1"/>
-      <c r="AAZ1" s="1"/>
-      <c r="ABA1" s="1"/>
-      <c r="ABB1" s="1"/>
-      <c r="ABC1" s="1"/>
-      <c r="ABD1" s="1"/>
-      <c r="ABE1" s="1"/>
-      <c r="ABF1" s="1"/>
-      <c r="ABG1" s="1"/>
-      <c r="ABH1" s="1"/>
-      <c r="ABI1" s="1"/>
-      <c r="ABJ1" s="1"/>
-      <c r="ABK1" s="1"/>
-      <c r="ABL1" s="1"/>
-      <c r="ABM1" s="1"/>
-      <c r="ABN1" s="1"/>
-      <c r="ABO1" s="1"/>
-      <c r="ABP1" s="1"/>
-      <c r="ABQ1" s="1"/>
-      <c r="ABR1" s="1"/>
-      <c r="ABS1" s="1"/>
-      <c r="ABT1" s="1"/>
-      <c r="ABU1" s="1"/>
-      <c r="ABV1" s="1"/>
-      <c r="ABW1" s="1"/>
-      <c r="ABX1" s="1"/>
-      <c r="ABY1" s="1"/>
-      <c r="ABZ1" s="1"/>
-      <c r="ACA1" s="1"/>
-      <c r="ACB1" s="1"/>
-      <c r="ACC1" s="1"/>
-      <c r="ACD1" s="1"/>
-      <c r="ACE1" s="1"/>
-      <c r="ACF1" s="1"/>
-      <c r="ACG1" s="1"/>
-      <c r="ACH1" s="1"/>
-      <c r="ACI1" s="1"/>
-      <c r="ACJ1" s="1"/>
-      <c r="ACK1" s="1"/>
-      <c r="ACL1" s="1"/>
-      <c r="ACM1" s="1"/>
-      <c r="ACN1" s="1"/>
-      <c r="ACO1" s="1"/>
-      <c r="ACP1" s="1"/>
-      <c r="ACQ1" s="1"/>
-      <c r="ACR1" s="1"/>
-      <c r="ACS1" s="1"/>
-      <c r="ACT1" s="1"/>
-      <c r="ACU1" s="1"/>
-      <c r="ACV1" s="1"/>
-      <c r="ACW1" s="1"/>
-      <c r="ACX1" s="1"/>
-      <c r="ACY1" s="1"/>
-      <c r="ACZ1" s="1"/>
-      <c r="ADA1" s="1"/>
-      <c r="ADB1" s="1"/>
-      <c r="ADC1" s="1"/>
-      <c r="ADD1" s="1"/>
-      <c r="ADE1" s="1"/>
-      <c r="ADF1" s="1"/>
-      <c r="ADG1" s="1"/>
-      <c r="ADH1" s="1"/>
-      <c r="ADI1" s="1"/>
-      <c r="ADJ1" s="1"/>
-      <c r="ADK1" s="1"/>
-      <c r="ADL1" s="1"/>
-      <c r="ADM1" s="1"/>
-      <c r="ADN1" s="1"/>
-      <c r="ADO1" s="1"/>
-      <c r="ADP1" s="1"/>
-      <c r="ADQ1" s="1"/>
-      <c r="ADR1" s="1"/>
-      <c r="ADS1" s="1"/>
-      <c r="ADT1" s="1"/>
-      <c r="ADU1" s="1"/>
-      <c r="ADV1" s="1"/>
-      <c r="ADW1" s="1"/>
-      <c r="ADX1" s="1"/>
-      <c r="ADY1" s="1"/>
-      <c r="ADZ1" s="1"/>
-      <c r="AEA1" s="1"/>
-      <c r="AEB1" s="1"/>
-      <c r="AEC1" s="1"/>
-      <c r="AED1" s="1"/>
-      <c r="AEE1" s="1"/>
-      <c r="AEF1" s="1"/>
-      <c r="AEG1" s="1"/>
-      <c r="AEH1" s="1"/>
-      <c r="AEI1" s="1"/>
-      <c r="AEJ1" s="1"/>
-      <c r="AEK1" s="1"/>
-      <c r="AEL1" s="1"/>
-      <c r="AEM1" s="1"/>
-      <c r="AEN1" s="1"/>
-      <c r="AEO1" s="1"/>
-      <c r="AEP1" s="1"/>
-      <c r="AEQ1" s="1"/>
-      <c r="AER1" s="1"/>
-      <c r="AES1" s="1"/>
-      <c r="AET1" s="1"/>
-      <c r="AEU1" s="1"/>
-      <c r="AEV1" s="1"/>
-      <c r="AEW1" s="1"/>
-      <c r="AEX1" s="1"/>
-      <c r="AEY1" s="1"/>
-      <c r="AEZ1" s="1"/>
-      <c r="AFA1" s="1"/>
-      <c r="AFB1" s="1"/>
-      <c r="AFC1" s="1"/>
-      <c r="AFD1" s="1"/>
-      <c r="AFE1" s="1"/>
-      <c r="AFF1" s="1"/>
-      <c r="AFG1" s="1"/>
-      <c r="AFH1" s="1"/>
-      <c r="AFI1" s="1"/>
-      <c r="AFJ1" s="1"/>
-      <c r="AFK1" s="1"/>
-      <c r="AFL1" s="1"/>
-      <c r="AFM1" s="1"/>
-      <c r="AFN1" s="1"/>
-      <c r="AFO1" s="1"/>
-      <c r="AFP1" s="1"/>
-      <c r="AFQ1" s="1"/>
-      <c r="AFR1" s="1"/>
-      <c r="AFS1" s="1"/>
-      <c r="AFT1" s="1"/>
-      <c r="AFU1" s="1"/>
-      <c r="AFV1" s="1"/>
-      <c r="AFW1" s="1"/>
-      <c r="AFX1" s="1"/>
-      <c r="AFY1" s="1"/>
-      <c r="AFZ1" s="1"/>
-      <c r="AGA1" s="1"/>
-      <c r="AGB1" s="1"/>
-      <c r="AGC1" s="1"/>
-      <c r="AGD1" s="1"/>
-      <c r="AGE1" s="1"/>
-      <c r="AGF1" s="1"/>
-      <c r="AGG1" s="1"/>
-      <c r="AGH1" s="1"/>
-      <c r="AGI1" s="1"/>
-      <c r="AGJ1" s="1"/>
-      <c r="AGK1" s="1"/>
-      <c r="AGL1" s="1"/>
-      <c r="AGM1" s="1"/>
-      <c r="AGN1" s="1"/>
-      <c r="AGO1" s="1"/>
-      <c r="AGP1" s="1"/>
-      <c r="AGQ1" s="1"/>
-      <c r="AGR1" s="1"/>
-      <c r="AGS1" s="1"/>
-      <c r="AGT1" s="1"/>
-      <c r="AGU1" s="1"/>
-      <c r="AGV1" s="1"/>
-      <c r="AGW1" s="1"/>
-      <c r="AGX1" s="1"/>
-      <c r="AGY1" s="1"/>
-      <c r="AGZ1" s="1"/>
-      <c r="AHA1" s="1"/>
-      <c r="AHB1" s="1"/>
-      <c r="AHC1" s="1"/>
-      <c r="AHD1" s="1"/>
-      <c r="AHE1" s="1"/>
-      <c r="AHF1" s="1"/>
-      <c r="AHG1" s="1"/>
-      <c r="AHH1" s="1"/>
-      <c r="AHI1" s="1"/>
-      <c r="AHJ1" s="1"/>
-      <c r="AHK1" s="1"/>
-      <c r="AHL1" s="1"/>
-      <c r="AHM1" s="1"/>
-      <c r="AHN1" s="1"/>
-      <c r="AHO1" s="1"/>
-      <c r="AHP1" s="1"/>
-      <c r="AHQ1" s="1"/>
-      <c r="AHR1" s="1"/>
-      <c r="AHS1" s="1"/>
-      <c r="AHT1" s="1"/>
-      <c r="AHU1" s="1"/>
-      <c r="AHV1" s="1"/>
-      <c r="AHW1" s="1"/>
-      <c r="AHX1" s="1"/>
-      <c r="AHY1" s="1"/>
-      <c r="AHZ1" s="1"/>
-      <c r="AIA1" s="1"/>
-      <c r="AIB1" s="1"/>
-      <c r="AIC1" s="1"/>
-      <c r="AID1" s="1"/>
-      <c r="AIE1" s="1"/>
-      <c r="AIF1" s="1"/>
-      <c r="AIG1" s="1"/>
-      <c r="AIH1" s="1"/>
-      <c r="AII1" s="1"/>
-      <c r="AIJ1" s="1"/>
-      <c r="AIK1" s="1"/>
-      <c r="AIL1" s="1"/>
-      <c r="AIM1" s="1"/>
-      <c r="AIN1" s="1"/>
-      <c r="AIO1" s="1"/>
-      <c r="AIP1" s="1"/>
-      <c r="AIQ1" s="1"/>
-      <c r="AIR1" s="1"/>
-      <c r="AIS1" s="1"/>
-      <c r="AIT1" s="1"/>
-      <c r="AIU1" s="1"/>
-      <c r="AIV1" s="1"/>
-      <c r="AIW1" s="1"/>
-      <c r="AIX1" s="1"/>
-      <c r="AIY1" s="1"/>
-      <c r="AIZ1" s="1"/>
-      <c r="AJA1" s="1"/>
-      <c r="AJB1" s="1"/>
-      <c r="AJC1" s="1"/>
-      <c r="AJD1" s="1"/>
-      <c r="AJE1" s="1"/>
-      <c r="AJF1" s="1"/>
-      <c r="AJG1" s="1"/>
-      <c r="AJH1" s="1"/>
-      <c r="AJI1" s="1"/>
-      <c r="AJJ1" s="1"/>
-      <c r="AJK1" s="1"/>
-      <c r="AJL1" s="1"/>
-      <c r="AJM1" s="1"/>
-      <c r="AJN1" s="1"/>
-      <c r="AJO1" s="1"/>
-      <c r="AJP1" s="1"/>
-      <c r="AJQ1" s="1"/>
-      <c r="AJR1" s="1"/>
-      <c r="AJS1" s="1"/>
-      <c r="AJT1" s="1"/>
-      <c r="AJU1" s="1"/>
-      <c r="AJV1" s="1"/>
-      <c r="AJW1" s="1"/>
-      <c r="AJX1" s="1"/>
-      <c r="AJY1" s="1"/>
-      <c r="AJZ1" s="1"/>
-      <c r="AKA1" s="1"/>
-      <c r="AKB1" s="1"/>
-      <c r="AKC1" s="1"/>
-      <c r="AKD1" s="1"/>
-      <c r="AKE1" s="1"/>
-      <c r="AKF1" s="1"/>
-      <c r="AKG1" s="1"/>
-      <c r="AKH1" s="1"/>
-      <c r="AKI1" s="1"/>
-      <c r="AKJ1" s="1"/>
-      <c r="AKK1" s="1"/>
-      <c r="AKL1" s="1"/>
-      <c r="AKM1" s="1"/>
-      <c r="AKN1" s="1"/>
-      <c r="AKO1" s="1"/>
-      <c r="AKP1" s="1"/>
-      <c r="AKQ1" s="1"/>
-      <c r="AKR1" s="1"/>
-      <c r="AKS1" s="1"/>
-      <c r="AKT1" s="1"/>
-      <c r="AKU1" s="1"/>
-      <c r="AKV1" s="1"/>
-      <c r="AKW1" s="1"/>
-      <c r="AKX1" s="1"/>
-      <c r="AKY1" s="1"/>
-      <c r="AKZ1" s="1"/>
-      <c r="ALA1" s="1"/>
-      <c r="ALB1" s="1"/>
-      <c r="ALC1" s="1"/>
-      <c r="ALD1" s="1"/>
-      <c r="ALE1" s="1"/>
-      <c r="ALF1" s="1"/>
-      <c r="ALG1" s="1"/>
-      <c r="ALH1" s="1"/>
-      <c r="ALI1" s="1"/>
-      <c r="ALJ1" s="1"/>
-      <c r="ALK1" s="1"/>
-      <c r="ALL1" s="1"/>
-      <c r="ALM1" s="1"/>
-      <c r="ALN1" s="1"/>
-      <c r="ALO1" s="1"/>
-      <c r="ALP1" s="1"/>
-      <c r="ALQ1" s="1"/>
-      <c r="ALR1" s="1"/>
-      <c r="ALS1" s="1"/>
-      <c r="ALT1" s="1"/>
-      <c r="ALU1" s="1"/>
-      <c r="ALV1" s="1"/>
-      <c r="ALW1" s="1"/>
-      <c r="ALX1" s="1"/>
-      <c r="ALY1" s="1"/>
-      <c r="ALZ1" s="1"/>
-      <c r="AMA1" s="1"/>
-      <c r="AMB1" s="1"/>
-      <c r="AMC1" s="1"/>
-      <c r="AMD1" s="1"/>
-      <c r="AME1" s="1"/>
-      <c r="AMF1" s="1"/>
-      <c r="AMG1" s="1"/>
-      <c r="AMH1" s="1"/>
-      <c r="AMI1" s="1"/>
-      <c r="AMJ1" s="1"/>
-    </row>
-    <row r="2" spans="1:1024" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="1"/>
-      <c r="B2" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="32"/>
-      <c r="AO2" s="32"/>
-      <c r="AP2" s="32"/>
-      <c r="AQ2" s="32"/>
-      <c r="AR2" s="32"/>
-      <c r="AS2" s="32"/>
-      <c r="AT2" s="32"/>
-      <c r="AU2" s="32"/>
-      <c r="AV2" s="32"/>
-      <c r="AW2" s="32"/>
-      <c r="AX2" s="32"/>
-      <c r="AY2" s="32"/>
-      <c r="AZ2" s="32"/>
-      <c r="BA2" s="32"/>
-      <c r="BB2" s="32"/>
-      <c r="BC2" s="32"/>
-      <c r="BD2" s="32"/>
-      <c r="BE2" s="32"/>
-      <c r="BF2" s="32"/>
-      <c r="BG2" s="32"/>
-      <c r="BH2" s="32"/>
-      <c r="BI2" s="32"/>
-      <c r="BJ2" s="32"/>
-      <c r="BK2" s="32"/>
-      <c r="BL2" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="BM2" s="33"/>
-      <c r="BN2" s="33"/>
-      <c r="BO2" s="33"/>
-      <c r="BP2" s="34">
-        <v>44508</v>
-      </c>
-      <c r="BQ2" s="34"/>
-      <c r="BR2" s="34"/>
-      <c r="BS2" s="34"/>
-      <c r="BT2" s="34"/>
-      <c r="BU2" s="34"/>
-      <c r="BV2" s="34"/>
-      <c r="BW2" s="34"/>
-      <c r="BX2" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="BY2" s="35"/>
-      <c r="BZ2" s="35"/>
-      <c r="CA2" s="35"/>
-      <c r="CB2" s="36"/>
-      <c r="CC2" s="36"/>
-      <c r="CD2" s="36"/>
-      <c r="CE2" s="36"/>
-      <c r="CF2" s="36"/>
-      <c r="CG2" s="36"/>
-      <c r="CH2" s="36"/>
-      <c r="CI2" s="36"/>
-      <c r="CJ2" s="1"/>
-      <c r="CK2" s="1"/>
-      <c r="CL2" s="1"/>
-      <c r="CM2" s="1"/>
-      <c r="CN2" s="1"/>
-      <c r="CO2" s="1"/>
-      <c r="CP2" s="1"/>
-      <c r="CQ2" s="1"/>
-      <c r="CR2" s="1"/>
-      <c r="CS2" s="1"/>
-      <c r="CT2" s="1"/>
-      <c r="CU2" s="1"/>
-      <c r="CV2" s="1"/>
-      <c r="CW2" s="1"/>
-      <c r="CX2" s="1"/>
-      <c r="CY2" s="1"/>
-      <c r="CZ2" s="1"/>
-      <c r="DA2" s="1"/>
-      <c r="DB2" s="1"/>
-      <c r="DC2" s="1"/>
-      <c r="DD2" s="1"/>
-      <c r="DE2" s="1"/>
-      <c r="DF2" s="1"/>
-      <c r="DG2" s="1"/>
-      <c r="DH2" s="1"/>
-      <c r="DI2" s="1"/>
-      <c r="DJ2" s="1"/>
-      <c r="DK2" s="1"/>
-      <c r="DL2" s="1"/>
-      <c r="DM2" s="1"/>
-      <c r="DN2" s="1"/>
-      <c r="DO2" s="1"/>
-      <c r="DP2" s="1"/>
-      <c r="DQ2" s="1"/>
-      <c r="DR2" s="1"/>
-      <c r="DS2" s="1"/>
-      <c r="DT2" s="1"/>
-      <c r="DU2" s="1"/>
-      <c r="DV2" s="1"/>
-      <c r="DW2" s="1"/>
-      <c r="DX2" s="1"/>
-      <c r="DY2" s="1"/>
-      <c r="DZ2" s="1"/>
-      <c r="EA2" s="1"/>
-      <c r="EB2" s="1"/>
-      <c r="EC2" s="1"/>
-      <c r="ED2" s="1"/>
-      <c r="EE2" s="1"/>
-      <c r="EF2" s="1"/>
-      <c r="EG2" s="1"/>
-      <c r="EH2" s="1"/>
-      <c r="EI2" s="1"/>
-      <c r="EJ2" s="1"/>
-      <c r="EK2" s="1"/>
-      <c r="EL2" s="1"/>
-      <c r="EM2" s="1"/>
-      <c r="EN2" s="1"/>
-      <c r="EO2" s="1"/>
-      <c r="EP2" s="1"/>
-      <c r="EQ2" s="1"/>
-      <c r="ER2" s="1"/>
-      <c r="ES2" s="1"/>
-      <c r="ET2" s="1"/>
-      <c r="EU2" s="1"/>
-      <c r="EV2" s="1"/>
-      <c r="EW2" s="1"/>
-      <c r="EX2" s="1"/>
-      <c r="EY2" s="1"/>
-      <c r="EZ2" s="1"/>
-      <c r="FA2" s="1"/>
-      <c r="FB2" s="1"/>
-      <c r="FC2" s="1"/>
-      <c r="FD2" s="1"/>
-      <c r="FE2" s="1"/>
-      <c r="FF2" s="1"/>
-      <c r="FG2" s="1"/>
-      <c r="FH2" s="1"/>
-      <c r="FI2" s="1"/>
-      <c r="FJ2" s="1"/>
-      <c r="FK2" s="1"/>
-      <c r="FL2" s="1"/>
-      <c r="FM2" s="1"/>
-      <c r="FN2" s="1"/>
-      <c r="FO2" s="1"/>
-      <c r="FP2" s="1"/>
-      <c r="FQ2" s="1"/>
-      <c r="FR2" s="1"/>
-      <c r="FS2" s="1"/>
-      <c r="FT2" s="1"/>
-      <c r="FU2" s="1"/>
-      <c r="FV2" s="1"/>
-      <c r="FW2" s="1"/>
-      <c r="FX2" s="1"/>
-      <c r="FY2" s="1"/>
-      <c r="FZ2" s="1"/>
-      <c r="GA2" s="1"/>
-      <c r="GB2" s="1"/>
-      <c r="GC2" s="1"/>
-      <c r="GD2" s="1"/>
-      <c r="GE2" s="1"/>
-      <c r="GF2" s="1"/>
-      <c r="GG2" s="1"/>
-      <c r="GH2" s="1"/>
-      <c r="GI2" s="1"/>
-      <c r="GJ2" s="1"/>
-      <c r="GK2" s="1"/>
-      <c r="GL2" s="1"/>
-      <c r="GM2" s="1"/>
-      <c r="GN2" s="1"/>
-      <c r="GO2" s="1"/>
-      <c r="GP2" s="1"/>
-      <c r="GQ2" s="1"/>
-      <c r="GR2" s="1"/>
-      <c r="GS2" s="1"/>
-      <c r="GT2" s="1"/>
-      <c r="GU2" s="1"/>
-      <c r="GV2" s="1"/>
-      <c r="GW2" s="1"/>
-      <c r="GX2" s="1"/>
-      <c r="GY2" s="1"/>
-      <c r="GZ2" s="1"/>
-      <c r="HA2" s="1"/>
-      <c r="HB2" s="1"/>
-      <c r="HC2" s="1"/>
-      <c r="HD2" s="1"/>
-      <c r="HE2" s="1"/>
-      <c r="HF2" s="1"/>
-      <c r="HG2" s="1"/>
-      <c r="HH2" s="1"/>
-      <c r="HI2" s="1"/>
-      <c r="HJ2" s="1"/>
-      <c r="HK2" s="1"/>
-      <c r="HL2" s="1"/>
-      <c r="HM2" s="1"/>
-      <c r="HN2" s="1"/>
-      <c r="HO2" s="1"/>
-      <c r="HP2" s="1"/>
-      <c r="HQ2" s="1"/>
-      <c r="HR2" s="1"/>
-      <c r="HS2" s="1"/>
-      <c r="HT2" s="1"/>
-      <c r="HU2" s="1"/>
-      <c r="HV2" s="1"/>
-      <c r="HW2" s="1"/>
-      <c r="HX2" s="1"/>
-      <c r="HY2" s="1"/>
-      <c r="HZ2" s="1"/>
-      <c r="IA2" s="1"/>
-      <c r="IB2" s="1"/>
-      <c r="IC2" s="1"/>
-      <c r="ID2" s="1"/>
-      <c r="IE2" s="1"/>
-      <c r="IF2" s="1"/>
-      <c r="IG2" s="1"/>
-      <c r="IH2" s="1"/>
-      <c r="II2" s="1"/>
-      <c r="IJ2" s="1"/>
-      <c r="IK2" s="1"/>
-      <c r="IL2" s="1"/>
-      <c r="IM2" s="1"/>
-      <c r="IN2" s="1"/>
-      <c r="IO2" s="1"/>
-      <c r="IP2" s="1"/>
-      <c r="IQ2" s="1"/>
-      <c r="IR2" s="1"/>
-      <c r="IS2" s="1"/>
-      <c r="IT2" s="1"/>
-      <c r="IU2" s="1"/>
-      <c r="IV2" s="1"/>
-      <c r="IW2" s="1"/>
-      <c r="IX2" s="1"/>
-      <c r="IY2" s="1"/>
-      <c r="IZ2" s="1"/>
-      <c r="JA2" s="1"/>
-      <c r="JB2" s="1"/>
-      <c r="JC2" s="1"/>
-      <c r="JD2" s="1"/>
-      <c r="JE2" s="1"/>
-      <c r="JF2" s="1"/>
-      <c r="JG2" s="1"/>
-      <c r="JH2" s="1"/>
-      <c r="JI2" s="1"/>
-      <c r="JJ2" s="1"/>
-      <c r="JK2" s="1"/>
-      <c r="JL2" s="1"/>
-      <c r="JM2" s="1"/>
-      <c r="JN2" s="1"/>
-      <c r="JO2" s="1"/>
-      <c r="JP2" s="1"/>
-      <c r="JQ2" s="1"/>
-      <c r="JR2" s="1"/>
-      <c r="JS2" s="1"/>
-      <c r="JT2" s="1"/>
-      <c r="JU2" s="1"/>
-      <c r="JV2" s="1"/>
-      <c r="JW2" s="1"/>
-      <c r="JX2" s="1"/>
-      <c r="JY2" s="1"/>
-      <c r="JZ2" s="1"/>
-      <c r="KA2" s="1"/>
-      <c r="KB2" s="1"/>
-      <c r="KC2" s="1"/>
-      <c r="KD2" s="1"/>
-      <c r="KE2" s="1"/>
-      <c r="KF2" s="1"/>
-      <c r="KG2" s="1"/>
-      <c r="KH2" s="1"/>
-      <c r="KI2" s="1"/>
-      <c r="KJ2" s="1"/>
-      <c r="KK2" s="1"/>
-      <c r="KL2" s="1"/>
-      <c r="KM2" s="1"/>
-      <c r="KN2" s="1"/>
-      <c r="KO2" s="1"/>
-      <c r="KP2" s="1"/>
-      <c r="KQ2" s="1"/>
-      <c r="KR2" s="1"/>
-      <c r="KS2" s="1"/>
-      <c r="KT2" s="1"/>
-      <c r="KU2" s="1"/>
-      <c r="KV2" s="1"/>
-      <c r="KW2" s="1"/>
-      <c r="KX2" s="1"/>
-      <c r="KY2" s="1"/>
-      <c r="KZ2" s="1"/>
-      <c r="LA2" s="1"/>
-      <c r="LB2" s="1"/>
-      <c r="LC2" s="1"/>
-      <c r="LD2" s="1"/>
-      <c r="LE2" s="1"/>
-      <c r="LF2" s="1"/>
-      <c r="LG2" s="1"/>
-      <c r="LH2" s="1"/>
-      <c r="LI2" s="1"/>
-      <c r="LJ2" s="1"/>
-      <c r="LK2" s="1"/>
-      <c r="LL2" s="1"/>
-      <c r="LM2" s="1"/>
-      <c r="LN2" s="1"/>
-      <c r="LO2" s="1"/>
-      <c r="LP2" s="1"/>
-      <c r="LQ2" s="1"/>
-      <c r="LR2" s="1"/>
-      <c r="LS2" s="1"/>
-      <c r="LT2" s="1"/>
-      <c r="LU2" s="1"/>
-      <c r="LV2" s="1"/>
-      <c r="LW2" s="1"/>
-      <c r="LX2" s="1"/>
-      <c r="LY2" s="1"/>
-      <c r="LZ2" s="1"/>
-      <c r="MA2" s="1"/>
-      <c r="MB2" s="1"/>
-      <c r="MC2" s="1"/>
-      <c r="MD2" s="1"/>
-      <c r="ME2" s="1"/>
-      <c r="MF2" s="1"/>
-      <c r="MG2" s="1"/>
-      <c r="MH2" s="1"/>
-      <c r="MI2" s="1"/>
-      <c r="MJ2" s="1"/>
-      <c r="MK2" s="1"/>
-      <c r="ML2" s="1"/>
-      <c r="MM2" s="1"/>
-      <c r="MN2" s="1"/>
-      <c r="MO2" s="1"/>
-      <c r="MP2" s="1"/>
-      <c r="MQ2" s="1"/>
-      <c r="MR2" s="1"/>
-      <c r="MS2" s="1"/>
-      <c r="MT2" s="1"/>
-      <c r="MU2" s="1"/>
-      <c r="MV2" s="1"/>
-      <c r="MW2" s="1"/>
-      <c r="MX2" s="1"/>
-      <c r="MY2" s="1"/>
-      <c r="MZ2" s="1"/>
-      <c r="NA2" s="1"/>
-      <c r="NB2" s="1"/>
-      <c r="NC2" s="1"/>
-      <c r="ND2" s="1"/>
-      <c r="NE2" s="1"/>
-      <c r="NF2" s="1"/>
-      <c r="NG2" s="1"/>
-      <c r="NH2" s="1"/>
-      <c r="NI2" s="1"/>
-      <c r="NJ2" s="1"/>
-      <c r="NK2" s="1"/>
-      <c r="NL2" s="1"/>
-      <c r="NM2" s="1"/>
-      <c r="NN2" s="1"/>
-      <c r="NO2" s="1"/>
-      <c r="NP2" s="1"/>
-      <c r="NQ2" s="1"/>
-      <c r="NR2" s="1"/>
-      <c r="NS2" s="1"/>
-      <c r="NT2" s="1"/>
-      <c r="NU2" s="1"/>
-      <c r="NV2" s="1"/>
-      <c r="NW2" s="1"/>
-      <c r="NX2" s="1"/>
-      <c r="NY2" s="1"/>
-      <c r="NZ2" s="1"/>
-      <c r="OA2" s="1"/>
-      <c r="OB2" s="1"/>
-      <c r="OC2" s="1"/>
-      <c r="OD2" s="1"/>
-      <c r="OE2" s="1"/>
-      <c r="OF2" s="1"/>
-      <c r="OG2" s="1"/>
-      <c r="OH2" s="1"/>
-      <c r="OI2" s="1"/>
-      <c r="OJ2" s="1"/>
-      <c r="OK2" s="1"/>
-      <c r="OL2" s="1"/>
-      <c r="OM2" s="1"/>
-      <c r="ON2" s="1"/>
-      <c r="OO2" s="1"/>
-      <c r="OP2" s="1"/>
-      <c r="OQ2" s="1"/>
-      <c r="OR2" s="1"/>
-      <c r="OS2" s="1"/>
-      <c r="OT2" s="1"/>
-      <c r="OU2" s="1"/>
-      <c r="OV2" s="1"/>
-      <c r="OW2" s="1"/>
-      <c r="OX2" s="1"/>
-      <c r="OY2" s="1"/>
-      <c r="OZ2" s="1"/>
-      <c r="PA2" s="1"/>
-      <c r="PB2" s="1"/>
-      <c r="PC2" s="1"/>
-      <c r="PD2" s="1"/>
-      <c r="PE2" s="1"/>
-      <c r="PF2" s="1"/>
-      <c r="PG2" s="1"/>
-      <c r="PH2" s="1"/>
-      <c r="PI2" s="1"/>
-      <c r="PJ2" s="1"/>
-      <c r="PK2" s="1"/>
-      <c r="PL2" s="1"/>
-      <c r="PM2" s="1"/>
-      <c r="PN2" s="1"/>
-      <c r="PO2" s="1"/>
-      <c r="PP2" s="1"/>
-      <c r="PQ2" s="1"/>
-      <c r="PR2" s="1"/>
-      <c r="PS2" s="1"/>
-      <c r="PT2" s="1"/>
-      <c r="PU2" s="1"/>
-      <c r="PV2" s="1"/>
-      <c r="PW2" s="1"/>
-      <c r="PX2" s="1"/>
-      <c r="PY2" s="1"/>
-      <c r="PZ2" s="1"/>
-      <c r="QA2" s="1"/>
-      <c r="QB2" s="1"/>
-      <c r="QC2" s="1"/>
-      <c r="QD2" s="1"/>
-      <c r="QE2" s="1"/>
-      <c r="QF2" s="1"/>
-      <c r="QG2" s="1"/>
-      <c r="QH2" s="1"/>
-      <c r="QI2" s="1"/>
-      <c r="QJ2" s="1"/>
-      <c r="QK2" s="1"/>
-      <c r="QL2" s="1"/>
-      <c r="QM2" s="1"/>
-      <c r="QN2" s="1"/>
-      <c r="QO2" s="1"/>
-      <c r="QP2" s="1"/>
-      <c r="QQ2" s="1"/>
-      <c r="QR2" s="1"/>
-      <c r="QS2" s="1"/>
-      <c r="QT2" s="1"/>
-      <c r="QU2" s="1"/>
-      <c r="QV2" s="1"/>
-      <c r="QW2" s="1"/>
-      <c r="QX2" s="1"/>
-      <c r="QY2" s="1"/>
-      <c r="QZ2" s="1"/>
-      <c r="RA2" s="1"/>
-      <c r="RB2" s="1"/>
-      <c r="RC2" s="1"/>
-      <c r="RD2" s="1"/>
-      <c r="RE2" s="1"/>
-      <c r="RF2" s="1"/>
-      <c r="RG2" s="1"/>
-      <c r="RH2" s="1"/>
-      <c r="RI2" s="1"/>
-      <c r="RJ2" s="1"/>
-      <c r="RK2" s="1"/>
-      <c r="RL2" s="1"/>
-      <c r="RM2" s="1"/>
-      <c r="RN2" s="1"/>
-      <c r="RO2" s="1"/>
-      <c r="RP2" s="1"/>
-      <c r="RQ2" s="1"/>
-      <c r="RR2" s="1"/>
-      <c r="RS2" s="1"/>
-      <c r="RT2" s="1"/>
-      <c r="RU2" s="1"/>
-      <c r="RV2" s="1"/>
-      <c r="RW2" s="1"/>
-      <c r="RX2" s="1"/>
-      <c r="RY2" s="1"/>
-      <c r="RZ2" s="1"/>
-      <c r="SA2" s="1"/>
-      <c r="SB2" s="1"/>
-      <c r="SC2" s="1"/>
-      <c r="SD2" s="1"/>
-      <c r="SE2" s="1"/>
-      <c r="SF2" s="1"/>
-      <c r="SG2" s="1"/>
-      <c r="SH2" s="1"/>
-      <c r="SI2" s="1"/>
-      <c r="SJ2" s="1"/>
-      <c r="SK2" s="1"/>
-      <c r="SL2" s="1"/>
-      <c r="SM2" s="1"/>
-      <c r="SN2" s="1"/>
-      <c r="SO2" s="1"/>
-      <c r="SP2" s="1"/>
-      <c r="SQ2" s="1"/>
-      <c r="SR2" s="1"/>
-      <c r="SS2" s="1"/>
-      <c r="ST2" s="1"/>
-      <c r="SU2" s="1"/>
-      <c r="SV2" s="1"/>
-      <c r="SW2" s="1"/>
-      <c r="SX2" s="1"/>
-      <c r="SY2" s="1"/>
-      <c r="SZ2" s="1"/>
-      <c r="TA2" s="1"/>
-      <c r="TB2" s="1"/>
-      <c r="TC2" s="1"/>
-      <c r="TD2" s="1"/>
-      <c r="TE2" s="1"/>
-      <c r="TF2" s="1"/>
-      <c r="TG2" s="1"/>
-      <c r="TH2" s="1"/>
-      <c r="TI2" s="1"/>
-      <c r="TJ2" s="1"/>
-      <c r="TK2" s="1"/>
-      <c r="TL2" s="1"/>
-      <c r="TM2" s="1"/>
-      <c r="TN2" s="1"/>
-      <c r="TO2" s="1"/>
-      <c r="TP2" s="1"/>
-      <c r="TQ2" s="1"/>
-      <c r="TR2" s="1"/>
-      <c r="TS2" s="1"/>
-      <c r="TT2" s="1"/>
-      <c r="TU2" s="1"/>
-      <c r="TV2" s="1"/>
-      <c r="TW2" s="1"/>
-      <c r="TX2" s="1"/>
-      <c r="TY2" s="1"/>
-      <c r="TZ2" s="1"/>
-      <c r="UA2" s="1"/>
-      <c r="UB2" s="1"/>
-      <c r="UC2" s="1"/>
-      <c r="UD2" s="1"/>
-      <c r="UE2" s="1"/>
-      <c r="UF2" s="1"/>
-      <c r="UG2" s="1"/>
-      <c r="UH2" s="1"/>
-      <c r="UI2" s="1"/>
-      <c r="UJ2" s="1"/>
-      <c r="UK2" s="1"/>
-      <c r="UL2" s="1"/>
-      <c r="UM2" s="1"/>
-      <c r="UN2" s="1"/>
-      <c r="UO2" s="1"/>
-      <c r="UP2" s="1"/>
-      <c r="UQ2" s="1"/>
-      <c r="UR2" s="1"/>
-      <c r="US2" s="1"/>
-      <c r="UT2" s="1"/>
-      <c r="UU2" s="1"/>
-      <c r="UV2" s="1"/>
-      <c r="UW2" s="1"/>
-      <c r="UX2" s="1"/>
-      <c r="UY2" s="1"/>
-      <c r="UZ2" s="1"/>
-      <c r="VA2" s="1"/>
-      <c r="VB2" s="1"/>
-      <c r="VC2" s="1"/>
-      <c r="VD2" s="1"/>
-      <c r="VE2" s="1"/>
-      <c r="VF2" s="1"/>
-      <c r="VG2" s="1"/>
-      <c r="VH2" s="1"/>
-      <c r="VI2" s="1"/>
-      <c r="VJ2" s="1"/>
-      <c r="VK2" s="1"/>
-      <c r="VL2" s="1"/>
-      <c r="VM2" s="1"/>
-      <c r="VN2" s="1"/>
-      <c r="VO2" s="1"/>
-      <c r="VP2" s="1"/>
-      <c r="VQ2" s="1"/>
-      <c r="VR2" s="1"/>
-      <c r="VS2" s="1"/>
-      <c r="VT2" s="1"/>
-      <c r="VU2" s="1"/>
-      <c r="VV2" s="1"/>
-      <c r="VW2" s="1"/>
-      <c r="VX2" s="1"/>
-      <c r="VY2" s="1"/>
-      <c r="VZ2" s="1"/>
-      <c r="WA2" s="1"/>
-      <c r="WB2" s="1"/>
-      <c r="WC2" s="1"/>
-      <c r="WD2" s="1"/>
-      <c r="WE2" s="1"/>
-      <c r="WF2" s="1"/>
-      <c r="WG2" s="1"/>
-      <c r="WH2" s="1"/>
-      <c r="WI2" s="1"/>
-      <c r="WJ2" s="1"/>
-      <c r="WK2" s="1"/>
-      <c r="WL2" s="1"/>
-      <c r="WM2" s="1"/>
-      <c r="WN2" s="1"/>
-      <c r="WO2" s="1"/>
-      <c r="WP2" s="1"/>
-      <c r="WQ2" s="1"/>
-      <c r="WR2" s="1"/>
-      <c r="WS2" s="1"/>
-      <c r="WT2" s="1"/>
-      <c r="WU2" s="1"/>
-      <c r="WV2" s="1"/>
-      <c r="WW2" s="1"/>
-      <c r="WX2" s="1"/>
-      <c r="WY2" s="1"/>
-      <c r="WZ2" s="1"/>
-      <c r="XA2" s="1"/>
-      <c r="XB2" s="1"/>
-      <c r="XC2" s="1"/>
-      <c r="XD2" s="1"/>
-      <c r="XE2" s="1"/>
-      <c r="XF2" s="1"/>
-      <c r="XG2" s="1"/>
-      <c r="XH2" s="1"/>
-      <c r="XI2" s="1"/>
-      <c r="XJ2" s="1"/>
-      <c r="XK2" s="1"/>
-      <c r="XL2" s="1"/>
-      <c r="XM2" s="1"/>
-      <c r="XN2" s="1"/>
-      <c r="XO2" s="1"/>
-      <c r="XP2" s="1"/>
-      <c r="XQ2" s="1"/>
-      <c r="XR2" s="1"/>
-      <c r="XS2" s="1"/>
-      <c r="XT2" s="1"/>
-      <c r="XU2" s="1"/>
-      <c r="XV2" s="1"/>
-      <c r="XW2" s="1"/>
-      <c r="XX2" s="1"/>
-      <c r="XY2" s="1"/>
-      <c r="XZ2" s="1"/>
-      <c r="YA2" s="1"/>
-      <c r="YB2" s="1"/>
-      <c r="YC2" s="1"/>
-      <c r="YD2" s="1"/>
-      <c r="YE2" s="1"/>
-      <c r="YF2" s="1"/>
-      <c r="YG2" s="1"/>
-      <c r="YH2" s="1"/>
-      <c r="YI2" s="1"/>
-      <c r="YJ2" s="1"/>
-      <c r="YK2" s="1"/>
-      <c r="YL2" s="1"/>
-      <c r="YM2" s="1"/>
-      <c r="YN2" s="1"/>
-      <c r="YO2" s="1"/>
-      <c r="YP2" s="1"/>
-      <c r="YQ2" s="1"/>
-      <c r="YR2" s="1"/>
-      <c r="YS2" s="1"/>
-      <c r="YT2" s="1"/>
-      <c r="YU2" s="1"/>
-      <c r="YV2" s="1"/>
-      <c r="YW2" s="1"/>
-      <c r="YX2" s="1"/>
-      <c r="YY2" s="1"/>
-      <c r="YZ2" s="1"/>
-      <c r="ZA2" s="1"/>
-      <c r="ZB2" s="1"/>
-      <c r="ZC2" s="1"/>
-      <c r="ZD2" s="1"/>
-      <c r="ZE2" s="1"/>
-      <c r="ZF2" s="1"/>
-      <c r="ZG2" s="1"/>
-      <c r="ZH2" s="1"/>
-      <c r="ZI2" s="1"/>
-      <c r="ZJ2" s="1"/>
-      <c r="ZK2" s="1"/>
-      <c r="ZL2" s="1"/>
-      <c r="ZM2" s="1"/>
-      <c r="ZN2" s="1"/>
-      <c r="ZO2" s="1"/>
-      <c r="ZP2" s="1"/>
-      <c r="ZQ2" s="1"/>
-      <c r="ZR2" s="1"/>
-      <c r="ZS2" s="1"/>
-      <c r="ZT2" s="1"/>
-      <c r="ZU2" s="1"/>
-      <c r="ZV2" s="1"/>
-      <c r="ZW2" s="1"/>
-      <c r="ZX2" s="1"/>
-      <c r="ZY2" s="1"/>
-      <c r="ZZ2" s="1"/>
-      <c r="AAA2" s="1"/>
-      <c r="AAB2" s="1"/>
-      <c r="AAC2" s="1"/>
-      <c r="AAD2" s="1"/>
-      <c r="AAE2" s="1"/>
-      <c r="AAF2" s="1"/>
-      <c r="AAG2" s="1"/>
-      <c r="AAH2" s="1"/>
-      <c r="AAI2" s="1"/>
-      <c r="AAJ2" s="1"/>
-      <c r="AAK2" s="1"/>
-      <c r="AAL2" s="1"/>
-      <c r="AAM2" s="1"/>
-      <c r="AAN2" s="1"/>
-      <c r="AAO2" s="1"/>
-      <c r="AAP2" s="1"/>
-      <c r="AAQ2" s="1"/>
-      <c r="AAR2" s="1"/>
-      <c r="AAS2" s="1"/>
-      <c r="AAT2" s="1"/>
-      <c r="AAU2" s="1"/>
-      <c r="AAV2" s="1"/>
-      <c r="AAW2" s="1"/>
-      <c r="AAX2" s="1"/>
-      <c r="AAY2" s="1"/>
-      <c r="AAZ2" s="1"/>
-      <c r="ABA2" s="1"/>
-      <c r="ABB2" s="1"/>
-      <c r="ABC2" s="1"/>
-      <c r="ABD2" s="1"/>
-      <c r="ABE2" s="1"/>
-      <c r="ABF2" s="1"/>
-      <c r="ABG2" s="1"/>
-      <c r="ABH2" s="1"/>
-      <c r="ABI2" s="1"/>
-      <c r="ABJ2" s="1"/>
-      <c r="ABK2" s="1"/>
-      <c r="ABL2" s="1"/>
-      <c r="ABM2" s="1"/>
-      <c r="ABN2" s="1"/>
-      <c r="ABO2" s="1"/>
-      <c r="ABP2" s="1"/>
-      <c r="ABQ2" s="1"/>
-      <c r="ABR2" s="1"/>
-      <c r="ABS2" s="1"/>
-      <c r="ABT2" s="1"/>
-      <c r="ABU2" s="1"/>
-      <c r="ABV2" s="1"/>
-      <c r="ABW2" s="1"/>
-      <c r="ABX2" s="1"/>
-      <c r="ABY2" s="1"/>
-      <c r="ABZ2" s="1"/>
-      <c r="ACA2" s="1"/>
-      <c r="ACB2" s="1"/>
-      <c r="ACC2" s="1"/>
-      <c r="ACD2" s="1"/>
-      <c r="ACE2" s="1"/>
-      <c r="ACF2" s="1"/>
-      <c r="ACG2" s="1"/>
-      <c r="ACH2" s="1"/>
-      <c r="ACI2" s="1"/>
-      <c r="ACJ2" s="1"/>
-      <c r="ACK2" s="1"/>
-      <c r="ACL2" s="1"/>
-      <c r="ACM2" s="1"/>
-      <c r="ACN2" s="1"/>
-      <c r="ACO2" s="1"/>
-      <c r="ACP2" s="1"/>
-      <c r="ACQ2" s="1"/>
-      <c r="ACR2" s="1"/>
-      <c r="ACS2" s="1"/>
-      <c r="ACT2" s="1"/>
-      <c r="ACU2" s="1"/>
-      <c r="ACV2" s="1"/>
-      <c r="ACW2" s="1"/>
-      <c r="ACX2" s="1"/>
-      <c r="ACY2" s="1"/>
-      <c r="ACZ2" s="1"/>
-      <c r="ADA2" s="1"/>
-      <c r="ADB2" s="1"/>
-      <c r="ADC2" s="1"/>
-      <c r="ADD2" s="1"/>
-      <c r="ADE2" s="1"/>
-      <c r="ADF2" s="1"/>
-      <c r="ADG2" s="1"/>
-      <c r="ADH2" s="1"/>
-      <c r="ADI2" s="1"/>
-      <c r="ADJ2" s="1"/>
-      <c r="ADK2" s="1"/>
-      <c r="ADL2" s="1"/>
-      <c r="ADM2" s="1"/>
-      <c r="ADN2" s="1"/>
-      <c r="ADO2" s="1"/>
-      <c r="ADP2" s="1"/>
-      <c r="ADQ2" s="1"/>
-      <c r="ADR2" s="1"/>
-      <c r="ADS2" s="1"/>
-      <c r="ADT2" s="1"/>
-      <c r="ADU2" s="1"/>
-      <c r="ADV2" s="1"/>
-      <c r="ADW2" s="1"/>
-      <c r="ADX2" s="1"/>
-      <c r="ADY2" s="1"/>
-      <c r="ADZ2" s="1"/>
-      <c r="AEA2" s="1"/>
-      <c r="AEB2" s="1"/>
-      <c r="AEC2" s="1"/>
-      <c r="AED2" s="1"/>
-      <c r="AEE2" s="1"/>
-      <c r="AEF2" s="1"/>
-      <c r="AEG2" s="1"/>
-      <c r="AEH2" s="1"/>
-      <c r="AEI2" s="1"/>
-      <c r="AEJ2" s="1"/>
-      <c r="AEK2" s="1"/>
-      <c r="AEL2" s="1"/>
-      <c r="AEM2" s="1"/>
-      <c r="AEN2" s="1"/>
-      <c r="AEO2" s="1"/>
-      <c r="AEP2" s="1"/>
-      <c r="AEQ2" s="1"/>
-      <c r="AER2" s="1"/>
-      <c r="AES2" s="1"/>
-      <c r="AET2" s="1"/>
-      <c r="AEU2" s="1"/>
-      <c r="AEV2" s="1"/>
-      <c r="AEW2" s="1"/>
-      <c r="AEX2" s="1"/>
-      <c r="AEY2" s="1"/>
-      <c r="AEZ2" s="1"/>
-      <c r="AFA2" s="1"/>
-      <c r="AFB2" s="1"/>
-      <c r="AFC2" s="1"/>
-      <c r="AFD2" s="1"/>
-      <c r="AFE2" s="1"/>
-      <c r="AFF2" s="1"/>
-      <c r="AFG2" s="1"/>
-      <c r="AFH2" s="1"/>
-      <c r="AFI2" s="1"/>
-      <c r="AFJ2" s="1"/>
-      <c r="AFK2" s="1"/>
-      <c r="AFL2" s="1"/>
-      <c r="AFM2" s="1"/>
-      <c r="AFN2" s="1"/>
-      <c r="AFO2" s="1"/>
-      <c r="AFP2" s="1"/>
-      <c r="AFQ2" s="1"/>
-      <c r="AFR2" s="1"/>
-      <c r="AFS2" s="1"/>
-      <c r="AFT2" s="1"/>
-      <c r="AFU2" s="1"/>
-      <c r="AFV2" s="1"/>
-      <c r="AFW2" s="1"/>
-      <c r="AFX2" s="1"/>
-      <c r="AFY2" s="1"/>
-      <c r="AFZ2" s="1"/>
-      <c r="AGA2" s="1"/>
-      <c r="AGB2" s="1"/>
-      <c r="AGC2" s="1"/>
-      <c r="AGD2" s="1"/>
-      <c r="AGE2" s="1"/>
-      <c r="AGF2" s="1"/>
-      <c r="AGG2" s="1"/>
-      <c r="AGH2" s="1"/>
-      <c r="AGI2" s="1"/>
-      <c r="AGJ2" s="1"/>
-      <c r="AGK2" s="1"/>
-      <c r="AGL2" s="1"/>
-      <c r="AGM2" s="1"/>
-      <c r="AGN2" s="1"/>
-      <c r="AGO2" s="1"/>
-      <c r="AGP2" s="1"/>
-      <c r="AGQ2" s="1"/>
-      <c r="AGR2" s="1"/>
-      <c r="AGS2" s="1"/>
-      <c r="AGT2" s="1"/>
-      <c r="AGU2" s="1"/>
-      <c r="AGV2" s="1"/>
-      <c r="AGW2" s="1"/>
-      <c r="AGX2" s="1"/>
-      <c r="AGY2" s="1"/>
-      <c r="AGZ2" s="1"/>
-      <c r="AHA2" s="1"/>
-      <c r="AHB2" s="1"/>
-      <c r="AHC2" s="1"/>
-      <c r="AHD2" s="1"/>
-      <c r="AHE2" s="1"/>
-      <c r="AHF2" s="1"/>
-      <c r="AHG2" s="1"/>
-      <c r="AHH2" s="1"/>
-      <c r="AHI2" s="1"/>
-      <c r="AHJ2" s="1"/>
-      <c r="AHK2" s="1"/>
-      <c r="AHL2" s="1"/>
-      <c r="AHM2" s="1"/>
-      <c r="AHN2" s="1"/>
-      <c r="AHO2" s="1"/>
-      <c r="AHP2" s="1"/>
-      <c r="AHQ2" s="1"/>
-      <c r="AHR2" s="1"/>
-      <c r="AHS2" s="1"/>
-      <c r="AHT2" s="1"/>
-      <c r="AHU2" s="1"/>
-      <c r="AHV2" s="1"/>
-      <c r="AHW2" s="1"/>
-      <c r="AHX2" s="1"/>
-      <c r="AHY2" s="1"/>
-      <c r="AHZ2" s="1"/>
-      <c r="AIA2" s="1"/>
-      <c r="AIB2" s="1"/>
-      <c r="AIC2" s="1"/>
-      <c r="AID2" s="1"/>
-      <c r="AIE2" s="1"/>
-      <c r="AIF2" s="1"/>
-      <c r="AIG2" s="1"/>
-      <c r="AIH2" s="1"/>
-      <c r="AII2" s="1"/>
-      <c r="AIJ2" s="1"/>
-      <c r="AIK2" s="1"/>
-      <c r="AIL2" s="1"/>
-      <c r="AIM2" s="1"/>
-      <c r="AIN2" s="1"/>
-      <c r="AIO2" s="1"/>
-      <c r="AIP2" s="1"/>
-      <c r="AIQ2" s="1"/>
-      <c r="AIR2" s="1"/>
-      <c r="AIS2" s="1"/>
-      <c r="AIT2" s="1"/>
-      <c r="AIU2" s="1"/>
-      <c r="AIV2" s="1"/>
-      <c r="AIW2" s="1"/>
-      <c r="AIX2" s="1"/>
-      <c r="AIY2" s="1"/>
-      <c r="AIZ2" s="1"/>
-      <c r="AJA2" s="1"/>
-      <c r="AJB2" s="1"/>
-      <c r="AJC2" s="1"/>
-      <c r="AJD2" s="1"/>
-      <c r="AJE2" s="1"/>
-      <c r="AJF2" s="1"/>
-      <c r="AJG2" s="1"/>
-      <c r="AJH2" s="1"/>
-      <c r="AJI2" s="1"/>
-      <c r="AJJ2" s="1"/>
-      <c r="AJK2" s="1"/>
-      <c r="AJL2" s="1"/>
-      <c r="AJM2" s="1"/>
-      <c r="AJN2" s="1"/>
-      <c r="AJO2" s="1"/>
-      <c r="AJP2" s="1"/>
-      <c r="AJQ2" s="1"/>
-      <c r="AJR2" s="1"/>
-      <c r="AJS2" s="1"/>
-      <c r="AJT2" s="1"/>
-      <c r="AJU2" s="1"/>
-      <c r="AJV2" s="1"/>
-      <c r="AJW2" s="1"/>
-      <c r="AJX2" s="1"/>
-      <c r="AJY2" s="1"/>
-      <c r="AJZ2" s="1"/>
-      <c r="AKA2" s="1"/>
-      <c r="AKB2" s="1"/>
-      <c r="AKC2" s="1"/>
-      <c r="AKD2" s="1"/>
-      <c r="AKE2" s="1"/>
-      <c r="AKF2" s="1"/>
-      <c r="AKG2" s="1"/>
-      <c r="AKH2" s="1"/>
-      <c r="AKI2" s="1"/>
-      <c r="AKJ2" s="1"/>
-      <c r="AKK2" s="1"/>
-      <c r="AKL2" s="1"/>
-      <c r="AKM2" s="1"/>
-      <c r="AKN2" s="1"/>
-      <c r="AKO2" s="1"/>
-      <c r="AKP2" s="1"/>
-      <c r="AKQ2" s="1"/>
-      <c r="AKR2" s="1"/>
-      <c r="AKS2" s="1"/>
-      <c r="AKT2" s="1"/>
-      <c r="AKU2" s="1"/>
-      <c r="AKV2" s="1"/>
-      <c r="AKW2" s="1"/>
-      <c r="AKX2" s="1"/>
-      <c r="AKY2" s="1"/>
-      <c r="AKZ2" s="1"/>
-      <c r="ALA2" s="1"/>
-      <c r="ALB2" s="1"/>
-      <c r="ALC2" s="1"/>
-      <c r="ALD2" s="1"/>
-      <c r="ALE2" s="1"/>
-      <c r="ALF2" s="1"/>
-      <c r="ALG2" s="1"/>
-      <c r="ALH2" s="1"/>
-      <c r="ALI2" s="1"/>
-      <c r="ALJ2" s="1"/>
-      <c r="ALK2" s="1"/>
-      <c r="ALL2" s="1"/>
-      <c r="ALM2" s="1"/>
-      <c r="ALN2" s="1"/>
-      <c r="ALO2" s="1"/>
-      <c r="ALP2" s="1"/>
-      <c r="ALQ2" s="1"/>
-      <c r="ALR2" s="1"/>
-      <c r="ALS2" s="1"/>
-      <c r="ALT2" s="1"/>
-      <c r="ALU2" s="1"/>
-      <c r="ALV2" s="1"/>
-      <c r="ALW2" s="1"/>
-      <c r="ALX2" s="1"/>
-      <c r="ALY2" s="1"/>
-      <c r="ALZ2" s="1"/>
-      <c r="AMA2" s="1"/>
-      <c r="AMB2" s="1"/>
-      <c r="AMC2" s="1"/>
-      <c r="AMD2" s="1"/>
-      <c r="AME2" s="1"/>
-      <c r="AMF2" s="1"/>
-      <c r="AMG2" s="1"/>
-      <c r="AMH2" s="1"/>
-      <c r="AMI2" s="1"/>
-      <c r="AMJ2" s="1"/>
-    </row>
-    <row r="3" spans="1:1024" s="3" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="4"/>
-      <c r="AH3" s="4"/>
-      <c r="AI3" s="4"/>
-      <c r="AJ3" s="4"/>
-      <c r="AK3" s="4"/>
-      <c r="AL3" s="5"/>
-      <c r="AM3" s="5"/>
-      <c r="AN3" s="5"/>
-      <c r="AO3" s="4"/>
-      <c r="AP3" s="4"/>
-      <c r="AQ3" s="4"/>
-      <c r="AR3" s="4"/>
-      <c r="AS3" s="4"/>
-      <c r="AT3" s="4"/>
-      <c r="AU3" s="4"/>
-      <c r="AV3" s="4"/>
-      <c r="AW3" s="4"/>
-      <c r="AX3" s="4"/>
-      <c r="AY3" s="4"/>
-      <c r="AZ3" s="4"/>
-      <c r="BA3" s="4"/>
-      <c r="BB3" s="4"/>
-      <c r="BC3" s="4"/>
-      <c r="BD3" s="4"/>
-      <c r="BE3" s="4"/>
-      <c r="BF3" s="4"/>
-      <c r="BG3" s="4"/>
-      <c r="BH3" s="4"/>
-      <c r="BI3" s="4"/>
-      <c r="BJ3" s="4"/>
-      <c r="BK3" s="4"/>
-      <c r="BL3" s="4"/>
-      <c r="BM3" s="4"/>
-      <c r="BN3" s="4"/>
-      <c r="BO3" s="4"/>
-      <c r="BP3" s="4"/>
-      <c r="BQ3" s="4"/>
-      <c r="BR3" s="5"/>
-      <c r="BS3" s="5"/>
-      <c r="BT3" s="5"/>
-      <c r="BU3" s="5"/>
-      <c r="BV3" s="5"/>
-      <c r="BW3" s="5"/>
-      <c r="BX3" s="5"/>
-      <c r="BY3" s="5"/>
-      <c r="BZ3" s="5"/>
-      <c r="CA3" s="5"/>
-      <c r="CB3" s="5"/>
-      <c r="CC3" s="5"/>
-      <c r="CD3" s="5"/>
-      <c r="CE3" s="5"/>
-      <c r="CF3" s="5"/>
-      <c r="CG3" s="5"/>
-      <c r="CH3" s="5"/>
-      <c r="CI3" s="5"/>
-    </row>
-    <row r="4" spans="1:1024" ht="18" customHeight="1">
-      <c r="B4" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z4" s="26"/>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="26"/>
-      <c r="AC4" s="26"/>
-      <c r="AD4" s="26"/>
-      <c r="AE4" s="26"/>
-      <c r="AF4" s="26"/>
-      <c r="AG4" s="26"/>
-      <c r="AH4" s="26"/>
-      <c r="AI4" s="26"/>
-      <c r="AJ4" s="26"/>
-      <c r="AK4" s="26"/>
-      <c r="AL4" s="26"/>
-      <c r="AM4" s="26"/>
-      <c r="AN4" s="26"/>
-      <c r="AO4" s="26"/>
-      <c r="AP4" s="26"/>
-      <c r="AQ4" s="26"/>
-      <c r="AR4" s="26"/>
-      <c r="AS4" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="AT4" s="55"/>
-      <c r="AU4" s="55"/>
-      <c r="AV4" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="AW4" s="55"/>
-      <c r="AX4" s="55"/>
-      <c r="AY4" s="55"/>
-      <c r="AZ4" s="55"/>
-      <c r="BA4" s="55"/>
-      <c r="BB4" s="55"/>
-      <c r="BC4" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="BD4" s="56"/>
-      <c r="BE4" s="56"/>
-      <c r="BF4" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="BG4" s="55"/>
-      <c r="BH4" s="55"/>
-      <c r="BI4" s="55"/>
-      <c r="BJ4" s="55"/>
-      <c r="BK4" s="55"/>
-      <c r="BL4" s="55"/>
-      <c r="BM4" s="55"/>
-      <c r="BN4" s="55"/>
-      <c r="BO4" s="55"/>
-      <c r="BP4" s="55"/>
-      <c r="BQ4" s="55"/>
-      <c r="BR4" s="55"/>
-      <c r="BS4" s="55"/>
-      <c r="BT4" s="55"/>
-      <c r="BU4" s="55"/>
-      <c r="BV4" s="55"/>
-      <c r="BW4" s="55"/>
-      <c r="BX4" s="55"/>
-      <c r="BY4" s="55"/>
-      <c r="BZ4" s="55"/>
-      <c r="CA4" s="55"/>
-      <c r="CB4" s="55"/>
-      <c r="CC4" s="55"/>
-      <c r="CD4" s="55"/>
-      <c r="CE4" s="55"/>
-      <c r="CF4" s="55"/>
-      <c r="CG4" s="55"/>
-      <c r="CH4" s="55"/>
-      <c r="CI4" s="27"/>
-    </row>
-    <row r="5" spans="1:1024" ht="18" customHeight="1">
-      <c r="B5" s="57">
-        <v>1</v>
-      </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="47"/>
-      <c r="V5" s="47"/>
-      <c r="W5" s="47"/>
-      <c r="X5" s="47"/>
-      <c r="Y5" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z5" s="47"/>
-      <c r="AA5" s="47"/>
-      <c r="AB5" s="47"/>
-      <c r="AC5" s="47"/>
-      <c r="AD5" s="47"/>
-      <c r="AE5" s="47"/>
-      <c r="AF5" s="47"/>
-      <c r="AG5" s="47"/>
-      <c r="AH5" s="47"/>
-      <c r="AI5" s="47"/>
-      <c r="AJ5" s="47"/>
-      <c r="AK5" s="47"/>
-      <c r="AL5" s="47"/>
-      <c r="AM5" s="47"/>
-      <c r="AN5" s="47"/>
-      <c r="AO5" s="47"/>
-      <c r="AP5" s="47"/>
-      <c r="AQ5" s="47"/>
-      <c r="AR5" s="47"/>
-      <c r="AS5" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="AT5" s="52"/>
-      <c r="AU5" s="52"/>
-      <c r="AV5" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW5" s="47"/>
-      <c r="AX5" s="47"/>
-      <c r="AY5" s="47"/>
-      <c r="AZ5" s="47"/>
-      <c r="BA5" s="47"/>
-      <c r="BB5" s="47"/>
-      <c r="BC5" s="46">
-        <v>10</v>
-      </c>
-      <c r="BD5" s="46"/>
-      <c r="BE5" s="46"/>
-      <c r="BF5" s="47"/>
-      <c r="BG5" s="47"/>
-      <c r="BH5" s="47"/>
-      <c r="BI5" s="47"/>
-      <c r="BJ5" s="47"/>
-      <c r="BK5" s="47"/>
-      <c r="BL5" s="47"/>
-      <c r="BM5" s="47"/>
-      <c r="BN5" s="47"/>
-      <c r="BO5" s="47"/>
-      <c r="BP5" s="47"/>
-      <c r="BQ5" s="47"/>
-      <c r="BR5" s="47"/>
-      <c r="BS5" s="47"/>
-      <c r="BT5" s="47"/>
-      <c r="BU5" s="47"/>
-      <c r="BV5" s="47"/>
-      <c r="BW5" s="47"/>
-      <c r="BX5" s="47"/>
-      <c r="BY5" s="47"/>
-      <c r="BZ5" s="47"/>
-      <c r="CA5" s="47"/>
-      <c r="CB5" s="47"/>
-      <c r="CC5" s="47"/>
-      <c r="CD5" s="47"/>
-      <c r="CE5" s="47"/>
-      <c r="CF5" s="47"/>
-      <c r="CG5" s="47"/>
-      <c r="CH5" s="47"/>
-      <c r="CI5" s="48"/>
-    </row>
-    <row r="6" spans="1:1024" ht="18" customHeight="1">
-      <c r="B6" s="57">
-        <v>2</v>
-      </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="47"/>
-      <c r="X6" s="47"/>
-      <c r="Y6" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="47"/>
-      <c r="AC6" s="47"/>
-      <c r="AD6" s="47"/>
-      <c r="AE6" s="47"/>
-      <c r="AF6" s="47"/>
-      <c r="AG6" s="47"/>
-      <c r="AH6" s="47"/>
-      <c r="AI6" s="47"/>
-      <c r="AJ6" s="47"/>
-      <c r="AK6" s="47"/>
-      <c r="AL6" s="47"/>
-      <c r="AM6" s="47"/>
-      <c r="AN6" s="47"/>
-      <c r="AO6" s="47"/>
-      <c r="AP6" s="47"/>
-      <c r="AQ6" s="47"/>
-      <c r="AR6" s="47"/>
-      <c r="AS6" s="52"/>
-      <c r="AT6" s="52"/>
-      <c r="AU6" s="52"/>
-      <c r="AV6" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="AW6" s="47"/>
-      <c r="AX6" s="47"/>
-      <c r="AY6" s="47"/>
-      <c r="AZ6" s="47"/>
-      <c r="BA6" s="47"/>
-      <c r="BB6" s="47"/>
-      <c r="BC6" s="46">
-        <v>10</v>
-      </c>
-      <c r="BD6" s="46"/>
-      <c r="BE6" s="46"/>
-      <c r="BF6" s="47"/>
-      <c r="BG6" s="47"/>
-      <c r="BH6" s="47"/>
-      <c r="BI6" s="47"/>
-      <c r="BJ6" s="47"/>
-      <c r="BK6" s="47"/>
-      <c r="BL6" s="47"/>
-      <c r="BM6" s="47"/>
-      <c r="BN6" s="47"/>
-      <c r="BO6" s="47"/>
-      <c r="BP6" s="47"/>
-      <c r="BQ6" s="47"/>
-      <c r="BR6" s="47"/>
-      <c r="BS6" s="47"/>
-      <c r="BT6" s="47"/>
-      <c r="BU6" s="47"/>
-      <c r="BV6" s="47"/>
-      <c r="BW6" s="47"/>
-      <c r="BX6" s="47"/>
-      <c r="BY6" s="47"/>
-      <c r="BZ6" s="47"/>
-      <c r="CA6" s="47"/>
-      <c r="CB6" s="47"/>
-      <c r="CC6" s="47"/>
-      <c r="CD6" s="47"/>
-      <c r="CE6" s="47"/>
-      <c r="CF6" s="47"/>
-      <c r="CG6" s="47"/>
-      <c r="CH6" s="47"/>
-      <c r="CI6" s="48"/>
-    </row>
-    <row r="7" spans="1:1024" ht="18" customHeight="1">
-      <c r="B7" s="57">
-        <v>3</v>
-      </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="47"/>
-      <c r="T7" s="47"/>
-      <c r="U7" s="47"/>
-      <c r="V7" s="47"/>
-      <c r="W7" s="47"/>
-      <c r="X7" s="47"/>
-      <c r="Y7" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z7" s="53"/>
-      <c r="AA7" s="53"/>
-      <c r="AB7" s="53"/>
-      <c r="AC7" s="53"/>
-      <c r="AD7" s="53"/>
-      <c r="AE7" s="53"/>
-      <c r="AF7" s="53"/>
-      <c r="AG7" s="53"/>
-      <c r="AH7" s="53"/>
-      <c r="AI7" s="53"/>
-      <c r="AJ7" s="53"/>
-      <c r="AK7" s="53"/>
-      <c r="AL7" s="53"/>
-      <c r="AM7" s="53"/>
-      <c r="AN7" s="53"/>
-      <c r="AO7" s="53"/>
-      <c r="AP7" s="53"/>
-      <c r="AQ7" s="53"/>
-      <c r="AR7" s="53"/>
-      <c r="AS7" s="49"/>
-      <c r="AT7" s="49"/>
-      <c r="AU7" s="49"/>
-      <c r="AV7" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="AW7" s="47"/>
-      <c r="AX7" s="47"/>
-      <c r="AY7" s="47"/>
-      <c r="AZ7" s="47"/>
-      <c r="BA7" s="47"/>
-      <c r="BB7" s="47"/>
-      <c r="BC7" s="54">
-        <v>10</v>
-      </c>
-      <c r="BD7" s="54"/>
-      <c r="BE7" s="54"/>
-      <c r="BF7" s="47"/>
-      <c r="BG7" s="47"/>
-      <c r="BH7" s="47"/>
-      <c r="BI7" s="47"/>
-      <c r="BJ7" s="47"/>
-      <c r="BK7" s="47"/>
-      <c r="BL7" s="47"/>
-      <c r="BM7" s="47"/>
-      <c r="BN7" s="47"/>
-      <c r="BO7" s="47"/>
-      <c r="BP7" s="47"/>
-      <c r="BQ7" s="47"/>
-      <c r="BR7" s="47"/>
-      <c r="BS7" s="47"/>
-      <c r="BT7" s="47"/>
-      <c r="BU7" s="47"/>
-      <c r="BV7" s="47"/>
-      <c r="BW7" s="47"/>
-      <c r="BX7" s="47"/>
-      <c r="BY7" s="47"/>
-      <c r="BZ7" s="47"/>
-      <c r="CA7" s="47"/>
-      <c r="CB7" s="47"/>
-      <c r="CC7" s="47"/>
-      <c r="CD7" s="47"/>
-      <c r="CE7" s="47"/>
-      <c r="CF7" s="47"/>
-      <c r="CG7" s="47"/>
-      <c r="CH7" s="47"/>
-      <c r="CI7" s="48"/>
-    </row>
-    <row r="8" spans="1:1024" ht="18" customHeight="1">
-      <c r="B8" s="57">
-        <v>4</v>
-      </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="47"/>
-      <c r="V8" s="47"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z8" s="47"/>
-      <c r="AA8" s="47"/>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="47"/>
-      <c r="AD8" s="47"/>
-      <c r="AE8" s="47"/>
-      <c r="AF8" s="47"/>
-      <c r="AG8" s="47"/>
-      <c r="AH8" s="47"/>
-      <c r="AI8" s="47"/>
-      <c r="AJ8" s="47"/>
-      <c r="AK8" s="47"/>
-      <c r="AL8" s="47"/>
-      <c r="AM8" s="47"/>
-      <c r="AN8" s="47"/>
-      <c r="AO8" s="47"/>
-      <c r="AP8" s="47"/>
-      <c r="AQ8" s="47"/>
-      <c r="AR8" s="47"/>
-      <c r="AS8" s="49"/>
-      <c r="AT8" s="49"/>
-      <c r="AU8" s="49"/>
-      <c r="AV8" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="AW8" s="47"/>
-      <c r="AX8" s="47"/>
-      <c r="AY8" s="47"/>
-      <c r="AZ8" s="47"/>
-      <c r="BA8" s="47"/>
-      <c r="BB8" s="47"/>
-      <c r="BC8" s="46">
-        <v>10</v>
-      </c>
-      <c r="BD8" s="46"/>
-      <c r="BE8" s="46"/>
-      <c r="BF8" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="BG8" s="47"/>
-      <c r="BH8" s="47"/>
-      <c r="BI8" s="47"/>
-      <c r="BJ8" s="47"/>
-      <c r="BK8" s="47"/>
-      <c r="BL8" s="47"/>
-      <c r="BM8" s="47"/>
-      <c r="BN8" s="47"/>
-      <c r="BO8" s="47"/>
-      <c r="BP8" s="47"/>
-      <c r="BQ8" s="47"/>
-      <c r="BR8" s="47"/>
-      <c r="BS8" s="47"/>
-      <c r="BT8" s="47"/>
-      <c r="BU8" s="47"/>
-      <c r="BV8" s="47"/>
-      <c r="BW8" s="47"/>
-      <c r="BX8" s="47"/>
-      <c r="BY8" s="47"/>
-      <c r="BZ8" s="47"/>
-      <c r="CA8" s="47"/>
-      <c r="CB8" s="47"/>
-      <c r="CC8" s="47"/>
-      <c r="CD8" s="47"/>
-      <c r="CE8" s="47"/>
-      <c r="CF8" s="47"/>
-      <c r="CG8" s="47"/>
-      <c r="CH8" s="47"/>
-      <c r="CI8" s="48"/>
-    </row>
-    <row r="9" spans="1:1024" ht="18" customHeight="1">
-      <c r="B9" s="57">
-        <v>5</v>
-      </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="47"/>
-      <c r="T9" s="47"/>
-      <c r="U9" s="47"/>
-      <c r="V9" s="47"/>
-      <c r="W9" s="47"/>
-      <c r="X9" s="47"/>
-      <c r="Y9" s="47"/>
-      <c r="Z9" s="47"/>
-      <c r="AA9" s="47"/>
-      <c r="AB9" s="47"/>
-      <c r="AC9" s="47"/>
-      <c r="AD9" s="47"/>
-      <c r="AE9" s="47"/>
-      <c r="AF9" s="47"/>
-      <c r="AG9" s="47"/>
-      <c r="AH9" s="47"/>
-      <c r="AI9" s="47"/>
-      <c r="AJ9" s="47"/>
-      <c r="AK9" s="47"/>
-      <c r="AL9" s="47"/>
-      <c r="AM9" s="47"/>
-      <c r="AN9" s="47"/>
-      <c r="AO9" s="47"/>
-      <c r="AP9" s="47"/>
-      <c r="AQ9" s="47"/>
-      <c r="AR9" s="47"/>
-      <c r="AS9" s="49"/>
-      <c r="AT9" s="49"/>
-      <c r="AU9" s="49"/>
-      <c r="AV9" s="47"/>
-      <c r="AW9" s="47"/>
-      <c r="AX9" s="47"/>
-      <c r="AY9" s="47"/>
-      <c r="AZ9" s="47"/>
-      <c r="BA9" s="47"/>
-      <c r="BB9" s="47"/>
-      <c r="BC9" s="46"/>
-      <c r="BD9" s="46"/>
-      <c r="BE9" s="46"/>
-      <c r="BF9" s="47"/>
-      <c r="BG9" s="47"/>
-      <c r="BH9" s="47"/>
-      <c r="BI9" s="47"/>
-      <c r="BJ9" s="47"/>
-      <c r="BK9" s="47"/>
-      <c r="BL9" s="47"/>
-      <c r="BM9" s="47"/>
-      <c r="BN9" s="47"/>
-      <c r="BO9" s="47"/>
-      <c r="BP9" s="47"/>
-      <c r="BQ9" s="47"/>
-      <c r="BR9" s="47"/>
-      <c r="BS9" s="47"/>
-      <c r="BT9" s="47"/>
-      <c r="BU9" s="47"/>
-      <c r="BV9" s="47"/>
-      <c r="BW9" s="47"/>
-      <c r="BX9" s="47"/>
-      <c r="BY9" s="47"/>
-      <c r="BZ9" s="47"/>
-      <c r="CA9" s="47"/>
-      <c r="CB9" s="47"/>
-      <c r="CC9" s="47"/>
-      <c r="CD9" s="47"/>
-      <c r="CE9" s="47"/>
-      <c r="CF9" s="47"/>
-      <c r="CG9" s="47"/>
-      <c r="CH9" s="47"/>
-      <c r="CI9" s="48"/>
-    </row>
-    <row r="10" spans="1:1024" ht="18" customHeight="1">
-      <c r="B10" s="57">
-        <v>6</v>
-      </c>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="47"/>
-      <c r="T10" s="47"/>
-      <c r="U10" s="47"/>
-      <c r="V10" s="47"/>
-      <c r="W10" s="47"/>
-      <c r="X10" s="47"/>
-      <c r="Y10" s="47"/>
-      <c r="Z10" s="47"/>
-      <c r="AA10" s="47"/>
-      <c r="AB10" s="47"/>
-      <c r="AC10" s="47"/>
-      <c r="AD10" s="47"/>
-      <c r="AE10" s="47"/>
-      <c r="AF10" s="47"/>
-      <c r="AG10" s="47"/>
-      <c r="AH10" s="47"/>
-      <c r="AI10" s="47"/>
-      <c r="AJ10" s="47"/>
-      <c r="AK10" s="47"/>
-      <c r="AL10" s="47"/>
-      <c r="AM10" s="47"/>
-      <c r="AN10" s="47"/>
-      <c r="AO10" s="47"/>
-      <c r="AP10" s="47"/>
-      <c r="AQ10" s="47"/>
-      <c r="AR10" s="47"/>
-      <c r="AS10" s="49"/>
-      <c r="AT10" s="49"/>
-      <c r="AU10" s="49"/>
-      <c r="AV10" s="47"/>
-      <c r="AW10" s="47"/>
-      <c r="AX10" s="47"/>
-      <c r="AY10" s="47"/>
-      <c r="AZ10" s="47"/>
-      <c r="BA10" s="47"/>
-      <c r="BB10" s="47"/>
-      <c r="BC10" s="46"/>
-      <c r="BD10" s="46"/>
-      <c r="BE10" s="46"/>
-      <c r="BF10" s="47"/>
-      <c r="BG10" s="47"/>
-      <c r="BH10" s="47"/>
-      <c r="BI10" s="47"/>
-      <c r="BJ10" s="47"/>
-      <c r="BK10" s="47"/>
-      <c r="BL10" s="47"/>
-      <c r="BM10" s="47"/>
-      <c r="BN10" s="47"/>
-      <c r="BO10" s="47"/>
-      <c r="BP10" s="47"/>
-      <c r="BQ10" s="47"/>
-      <c r="BR10" s="47"/>
-      <c r="BS10" s="47"/>
-      <c r="BT10" s="47"/>
-      <c r="BU10" s="47"/>
-      <c r="BV10" s="47"/>
-      <c r="BW10" s="47"/>
-      <c r="BX10" s="47"/>
-      <c r="BY10" s="47"/>
-      <c r="BZ10" s="47"/>
-      <c r="CA10" s="47"/>
-      <c r="CB10" s="47"/>
-      <c r="CC10" s="47"/>
-      <c r="CD10" s="47"/>
-      <c r="CE10" s="47"/>
-      <c r="CF10" s="47"/>
-      <c r="CG10" s="47"/>
-      <c r="CH10" s="47"/>
-      <c r="CI10" s="48"/>
-    </row>
-    <row r="11" spans="1:1024" ht="18" customHeight="1">
-      <c r="B11" s="57">
-        <v>7</v>
-      </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="47"/>
-      <c r="S11" s="47"/>
-      <c r="T11" s="47"/>
-      <c r="U11" s="47"/>
-      <c r="V11" s="47"/>
-      <c r="W11" s="47"/>
-      <c r="X11" s="47"/>
-      <c r="Y11" s="47"/>
-      <c r="Z11" s="47"/>
-      <c r="AA11" s="47"/>
-      <c r="AB11" s="47"/>
-      <c r="AC11" s="47"/>
-      <c r="AD11" s="47"/>
-      <c r="AE11" s="47"/>
-      <c r="AF11" s="47"/>
-      <c r="AG11" s="47"/>
-      <c r="AH11" s="47"/>
-      <c r="AI11" s="47"/>
-      <c r="AJ11" s="47"/>
-      <c r="AK11" s="47"/>
-      <c r="AL11" s="47"/>
-      <c r="AM11" s="47"/>
-      <c r="AN11" s="47"/>
-      <c r="AO11" s="47"/>
-      <c r="AP11" s="47"/>
-      <c r="AQ11" s="47"/>
-      <c r="AR11" s="47"/>
-      <c r="AS11" s="49"/>
-      <c r="AT11" s="49"/>
-      <c r="AU11" s="49"/>
-      <c r="AV11" s="47"/>
-      <c r="AW11" s="47"/>
-      <c r="AX11" s="47"/>
-      <c r="AY11" s="47"/>
-      <c r="AZ11" s="47"/>
-      <c r="BA11" s="47"/>
-      <c r="BB11" s="47"/>
-      <c r="BC11" s="46"/>
-      <c r="BD11" s="46"/>
-      <c r="BE11" s="46"/>
-      <c r="BF11" s="47"/>
-      <c r="BG11" s="47"/>
-      <c r="BH11" s="47"/>
-      <c r="BI11" s="47"/>
-      <c r="BJ11" s="47"/>
-      <c r="BK11" s="47"/>
-      <c r="BL11" s="47"/>
-      <c r="BM11" s="47"/>
-      <c r="BN11" s="47"/>
-      <c r="BO11" s="47"/>
-      <c r="BP11" s="47"/>
-      <c r="BQ11" s="47"/>
-      <c r="BR11" s="47"/>
-      <c r="BS11" s="47"/>
-      <c r="BT11" s="47"/>
-      <c r="BU11" s="47"/>
-      <c r="BV11" s="47"/>
-      <c r="BW11" s="47"/>
-      <c r="BX11" s="47"/>
-      <c r="BY11" s="47"/>
-      <c r="BZ11" s="47"/>
-      <c r="CA11" s="47"/>
-      <c r="CB11" s="47"/>
-      <c r="CC11" s="47"/>
-      <c r="CD11" s="47"/>
-      <c r="CE11" s="47"/>
-      <c r="CF11" s="47"/>
-      <c r="CG11" s="47"/>
-      <c r="CH11" s="47"/>
-      <c r="CI11" s="48"/>
-    </row>
-    <row r="12" spans="1:1024" ht="18" customHeight="1">
-      <c r="B12" s="57">
-        <v>8</v>
-      </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="47"/>
-      <c r="S12" s="47"/>
-      <c r="T12" s="47"/>
-      <c r="U12" s="47"/>
-      <c r="V12" s="47"/>
-      <c r="W12" s="47"/>
-      <c r="X12" s="47"/>
-      <c r="Y12" s="47"/>
-      <c r="Z12" s="47"/>
-      <c r="AA12" s="47"/>
-      <c r="AB12" s="47"/>
-      <c r="AC12" s="47"/>
-      <c r="AD12" s="47"/>
-      <c r="AE12" s="47"/>
-      <c r="AF12" s="47"/>
-      <c r="AG12" s="47"/>
-      <c r="AH12" s="47"/>
-      <c r="AI12" s="47"/>
-      <c r="AJ12" s="47"/>
-      <c r="AK12" s="47"/>
-      <c r="AL12" s="47"/>
-      <c r="AM12" s="47"/>
-      <c r="AN12" s="47"/>
-      <c r="AO12" s="47"/>
-      <c r="AP12" s="47"/>
-      <c r="AQ12" s="47"/>
-      <c r="AR12" s="47"/>
-      <c r="AS12" s="49"/>
-      <c r="AT12" s="49"/>
-      <c r="AU12" s="49"/>
-      <c r="AV12" s="47"/>
-      <c r="AW12" s="47"/>
-      <c r="AX12" s="47"/>
-      <c r="AY12" s="47"/>
-      <c r="AZ12" s="47"/>
-      <c r="BA12" s="47"/>
-      <c r="BB12" s="47"/>
-      <c r="BC12" s="46"/>
-      <c r="BD12" s="46"/>
-      <c r="BE12" s="46"/>
-      <c r="BF12" s="47"/>
-      <c r="BG12" s="47"/>
-      <c r="BH12" s="47"/>
-      <c r="BI12" s="47"/>
-      <c r="BJ12" s="47"/>
-      <c r="BK12" s="47"/>
-      <c r="BL12" s="47"/>
-      <c r="BM12" s="47"/>
-      <c r="BN12" s="47"/>
-      <c r="BO12" s="47"/>
-      <c r="BP12" s="47"/>
-      <c r="BQ12" s="47"/>
-      <c r="BR12" s="47"/>
-      <c r="BS12" s="47"/>
-      <c r="BT12" s="47"/>
-      <c r="BU12" s="47"/>
-      <c r="BV12" s="47"/>
-      <c r="BW12" s="47"/>
-      <c r="BX12" s="47"/>
-      <c r="BY12" s="47"/>
-      <c r="BZ12" s="47"/>
-      <c r="CA12" s="47"/>
-      <c r="CB12" s="47"/>
-      <c r="CC12" s="47"/>
-      <c r="CD12" s="47"/>
-      <c r="CE12" s="47"/>
-      <c r="CF12" s="47"/>
-      <c r="CG12" s="47"/>
-      <c r="CH12" s="47"/>
-      <c r="CI12" s="48"/>
-    </row>
-    <row r="13" spans="1:1024" ht="18" customHeight="1">
-      <c r="B13" s="57">
-        <v>9</v>
-      </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="47"/>
-      <c r="V13" s="47"/>
-      <c r="W13" s="47"/>
-      <c r="X13" s="47"/>
-      <c r="Y13" s="47"/>
-      <c r="Z13" s="47"/>
-      <c r="AA13" s="47"/>
-      <c r="AB13" s="47"/>
-      <c r="AC13" s="47"/>
-      <c r="AD13" s="47"/>
-      <c r="AE13" s="47"/>
-      <c r="AF13" s="47"/>
-      <c r="AG13" s="47"/>
-      <c r="AH13" s="47"/>
-      <c r="AI13" s="47"/>
-      <c r="AJ13" s="47"/>
-      <c r="AK13" s="47"/>
-      <c r="AL13" s="47"/>
-      <c r="AM13" s="47"/>
-      <c r="AN13" s="47"/>
-      <c r="AO13" s="47"/>
-      <c r="AP13" s="47"/>
-      <c r="AQ13" s="47"/>
-      <c r="AR13" s="47"/>
-      <c r="AS13" s="49"/>
-      <c r="AT13" s="49"/>
-      <c r="AU13" s="49"/>
-      <c r="AV13" s="47"/>
-      <c r="AW13" s="47"/>
-      <c r="AX13" s="47"/>
-      <c r="AY13" s="47"/>
-      <c r="AZ13" s="47"/>
-      <c r="BA13" s="47"/>
-      <c r="BB13" s="47"/>
-      <c r="BC13" s="46"/>
-      <c r="BD13" s="46"/>
-      <c r="BE13" s="46"/>
-      <c r="BF13" s="47"/>
-      <c r="BG13" s="47"/>
-      <c r="BH13" s="47"/>
-      <c r="BI13" s="47"/>
-      <c r="BJ13" s="47"/>
-      <c r="BK13" s="47"/>
-      <c r="BL13" s="47"/>
-      <c r="BM13" s="47"/>
-      <c r="BN13" s="47"/>
-      <c r="BO13" s="47"/>
-      <c r="BP13" s="47"/>
-      <c r="BQ13" s="47"/>
-      <c r="BR13" s="47"/>
-      <c r="BS13" s="47"/>
-      <c r="BT13" s="47"/>
-      <c r="BU13" s="47"/>
-      <c r="BV13" s="47"/>
-      <c r="BW13" s="47"/>
-      <c r="BX13" s="47"/>
-      <c r="BY13" s="47"/>
-      <c r="BZ13" s="47"/>
-      <c r="CA13" s="47"/>
-      <c r="CB13" s="47"/>
-      <c r="CC13" s="47"/>
-      <c r="CD13" s="47"/>
-      <c r="CE13" s="47"/>
-      <c r="CF13" s="47"/>
-      <c r="CG13" s="47"/>
-      <c r="CH13" s="47"/>
-      <c r="CI13" s="48"/>
-    </row>
-    <row r="14" spans="1:1024" ht="18" customHeight="1">
-      <c r="B14" s="57">
-        <v>10</v>
-      </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="47"/>
-      <c r="T14" s="47"/>
-      <c r="U14" s="47"/>
-      <c r="V14" s="47"/>
-      <c r="W14" s="47"/>
-      <c r="X14" s="47"/>
-      <c r="Y14" s="47"/>
-      <c r="Z14" s="47"/>
-      <c r="AA14" s="47"/>
-      <c r="AB14" s="47"/>
-      <c r="AC14" s="47"/>
-      <c r="AD14" s="47"/>
-      <c r="AE14" s="47"/>
-      <c r="AF14" s="47"/>
-      <c r="AG14" s="47"/>
-      <c r="AH14" s="47"/>
-      <c r="AI14" s="47"/>
-      <c r="AJ14" s="47"/>
-      <c r="AK14" s="47"/>
-      <c r="AL14" s="47"/>
-      <c r="AM14" s="47"/>
-      <c r="AN14" s="47"/>
-      <c r="AO14" s="47"/>
-      <c r="AP14" s="47"/>
-      <c r="AQ14" s="47"/>
-      <c r="AR14" s="47"/>
-      <c r="AS14" s="49"/>
-      <c r="AT14" s="49"/>
-      <c r="AU14" s="49"/>
-      <c r="AV14" s="47"/>
-      <c r="AW14" s="47"/>
-      <c r="AX14" s="47"/>
-      <c r="AY14" s="47"/>
-      <c r="AZ14" s="47"/>
-      <c r="BA14" s="47"/>
-      <c r="BB14" s="47"/>
-      <c r="BC14" s="46"/>
-      <c r="BD14" s="46"/>
-      <c r="BE14" s="46"/>
-      <c r="BF14" s="47"/>
-      <c r="BG14" s="47"/>
-      <c r="BH14" s="47"/>
-      <c r="BI14" s="47"/>
-      <c r="BJ14" s="47"/>
-      <c r="BK14" s="47"/>
-      <c r="BL14" s="47"/>
-      <c r="BM14" s="47"/>
-      <c r="BN14" s="47"/>
-      <c r="BO14" s="47"/>
-      <c r="BP14" s="47"/>
-      <c r="BQ14" s="47"/>
-      <c r="BR14" s="47"/>
-      <c r="BS14" s="47"/>
-      <c r="BT14" s="47"/>
-      <c r="BU14" s="47"/>
-      <c r="BV14" s="47"/>
-      <c r="BW14" s="47"/>
-      <c r="BX14" s="47"/>
-      <c r="BY14" s="47"/>
-      <c r="BZ14" s="47"/>
-      <c r="CA14" s="47"/>
-      <c r="CB14" s="47"/>
-      <c r="CC14" s="47"/>
-      <c r="CD14" s="47"/>
-      <c r="CE14" s="47"/>
-      <c r="CF14" s="47"/>
-      <c r="CG14" s="47"/>
-      <c r="CH14" s="47"/>
-      <c r="CI14" s="48"/>
-    </row>
-    <row r="15" spans="1:1024" ht="18" customHeight="1">
-      <c r="B15" s="57">
-        <v>11</v>
-      </c>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="47"/>
-      <c r="S15" s="47"/>
-      <c r="T15" s="47"/>
-      <c r="U15" s="47"/>
-      <c r="V15" s="47"/>
-      <c r="W15" s="47"/>
-      <c r="X15" s="47"/>
-      <c r="Y15" s="47"/>
-      <c r="Z15" s="47"/>
-      <c r="AA15" s="47"/>
-      <c r="AB15" s="47"/>
-      <c r="AC15" s="47"/>
-      <c r="AD15" s="47"/>
-      <c r="AE15" s="47"/>
-      <c r="AF15" s="47"/>
-      <c r="AG15" s="47"/>
-      <c r="AH15" s="47"/>
-      <c r="AI15" s="47"/>
-      <c r="AJ15" s="47"/>
-      <c r="AK15" s="47"/>
-      <c r="AL15" s="47"/>
-      <c r="AM15" s="47"/>
-      <c r="AN15" s="47"/>
-      <c r="AO15" s="47"/>
-      <c r="AP15" s="47"/>
-      <c r="AQ15" s="47"/>
-      <c r="AR15" s="47"/>
-      <c r="AS15" s="49"/>
-      <c r="AT15" s="49"/>
-      <c r="AU15" s="49"/>
-      <c r="AV15" s="47"/>
-      <c r="AW15" s="47"/>
-      <c r="AX15" s="47"/>
-      <c r="AY15" s="47"/>
-      <c r="AZ15" s="47"/>
-      <c r="BA15" s="47"/>
-      <c r="BB15" s="47"/>
-      <c r="BC15" s="46"/>
-      <c r="BD15" s="46"/>
-      <c r="BE15" s="46"/>
-      <c r="BF15" s="47"/>
-      <c r="BG15" s="47"/>
-      <c r="BH15" s="47"/>
-      <c r="BI15" s="47"/>
-      <c r="BJ15" s="47"/>
-      <c r="BK15" s="47"/>
-      <c r="BL15" s="47"/>
-      <c r="BM15" s="47"/>
-      <c r="BN15" s="47"/>
-      <c r="BO15" s="47"/>
-      <c r="BP15" s="47"/>
-      <c r="BQ15" s="47"/>
-      <c r="BR15" s="47"/>
-      <c r="BS15" s="47"/>
-      <c r="BT15" s="47"/>
-      <c r="BU15" s="47"/>
-      <c r="BV15" s="47"/>
-      <c r="BW15" s="47"/>
-      <c r="BX15" s="47"/>
-      <c r="BY15" s="47"/>
-      <c r="BZ15" s="47"/>
-      <c r="CA15" s="47"/>
-      <c r="CB15" s="47"/>
-      <c r="CC15" s="47"/>
-      <c r="CD15" s="47"/>
-      <c r="CE15" s="47"/>
-      <c r="CF15" s="47"/>
-      <c r="CG15" s="47"/>
-      <c r="CH15" s="47"/>
-      <c r="CI15" s="48"/>
-    </row>
-    <row r="16" spans="1:1024" ht="18" customHeight="1">
-      <c r="B16" s="57">
-        <v>12</v>
-      </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="47"/>
-      <c r="T16" s="47"/>
-      <c r="U16" s="47"/>
-      <c r="V16" s="47"/>
-      <c r="W16" s="47"/>
-      <c r="X16" s="47"/>
-      <c r="Y16" s="47"/>
-      <c r="Z16" s="47"/>
-      <c r="AA16" s="47"/>
-      <c r="AB16" s="47"/>
-      <c r="AC16" s="47"/>
-      <c r="AD16" s="47"/>
-      <c r="AE16" s="47"/>
-      <c r="AF16" s="47"/>
-      <c r="AG16" s="47"/>
-      <c r="AH16" s="47"/>
-      <c r="AI16" s="47"/>
-      <c r="AJ16" s="47"/>
-      <c r="AK16" s="47"/>
-      <c r="AL16" s="47"/>
-      <c r="AM16" s="47"/>
-      <c r="AN16" s="47"/>
-      <c r="AO16" s="47"/>
-      <c r="AP16" s="47"/>
-      <c r="AQ16" s="47"/>
-      <c r="AR16" s="47"/>
-      <c r="AS16" s="49"/>
-      <c r="AT16" s="49"/>
-      <c r="AU16" s="49"/>
-      <c r="AV16" s="47"/>
-      <c r="AW16" s="47"/>
-      <c r="AX16" s="47"/>
-      <c r="AY16" s="47"/>
-      <c r="AZ16" s="47"/>
-      <c r="BA16" s="47"/>
-      <c r="BB16" s="47"/>
-      <c r="BC16" s="46"/>
-      <c r="BD16" s="46"/>
-      <c r="BE16" s="46"/>
-      <c r="BF16" s="47"/>
-      <c r="BG16" s="47"/>
-      <c r="BH16" s="47"/>
-      <c r="BI16" s="47"/>
-      <c r="BJ16" s="47"/>
-      <c r="BK16" s="47"/>
-      <c r="BL16" s="47"/>
-      <c r="BM16" s="47"/>
-      <c r="BN16" s="47"/>
-      <c r="BO16" s="47"/>
-      <c r="BP16" s="47"/>
-      <c r="BQ16" s="47"/>
-      <c r="BR16" s="47"/>
-      <c r="BS16" s="47"/>
-      <c r="BT16" s="47"/>
-      <c r="BU16" s="47"/>
-      <c r="BV16" s="47"/>
-      <c r="BW16" s="47"/>
-      <c r="BX16" s="47"/>
-      <c r="BY16" s="47"/>
-      <c r="BZ16" s="47"/>
-      <c r="CA16" s="47"/>
-      <c r="CB16" s="47"/>
-      <c r="CC16" s="47"/>
-      <c r="CD16" s="47"/>
-      <c r="CE16" s="47"/>
-      <c r="CF16" s="47"/>
-      <c r="CG16" s="47"/>
-      <c r="CH16" s="47"/>
-      <c r="CI16" s="48"/>
-    </row>
-    <row r="17" spans="2:87" ht="18" customHeight="1">
-      <c r="B17" s="57">
-        <v>13</v>
-      </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="47"/>
-      <c r="S17" s="47"/>
-      <c r="T17" s="47"/>
-      <c r="U17" s="47"/>
-      <c r="V17" s="47"/>
-      <c r="W17" s="47"/>
-      <c r="X17" s="47"/>
-      <c r="Y17" s="47"/>
-      <c r="Z17" s="47"/>
-      <c r="AA17" s="47"/>
-      <c r="AB17" s="47"/>
-      <c r="AC17" s="47"/>
-      <c r="AD17" s="47"/>
-      <c r="AE17" s="47"/>
-      <c r="AF17" s="47"/>
-      <c r="AG17" s="47"/>
-      <c r="AH17" s="47"/>
-      <c r="AI17" s="47"/>
-      <c r="AJ17" s="47"/>
-      <c r="AK17" s="47"/>
-      <c r="AL17" s="47"/>
-      <c r="AM17" s="47"/>
-      <c r="AN17" s="47"/>
-      <c r="AO17" s="47"/>
-      <c r="AP17" s="47"/>
-      <c r="AQ17" s="47"/>
-      <c r="AR17" s="47"/>
-      <c r="AS17" s="49"/>
-      <c r="AT17" s="49"/>
-      <c r="AU17" s="49"/>
-      <c r="AV17" s="47"/>
-      <c r="AW17" s="47"/>
-      <c r="AX17" s="47"/>
-      <c r="AY17" s="47"/>
-      <c r="AZ17" s="47"/>
-      <c r="BA17" s="47"/>
-      <c r="BB17" s="47"/>
-      <c r="BC17" s="46"/>
-      <c r="BD17" s="46"/>
-      <c r="BE17" s="46"/>
-      <c r="BF17" s="47"/>
-      <c r="BG17" s="47"/>
-      <c r="BH17" s="47"/>
-      <c r="BI17" s="47"/>
-      <c r="BJ17" s="47"/>
-      <c r="BK17" s="47"/>
-      <c r="BL17" s="47"/>
-      <c r="BM17" s="47"/>
-      <c r="BN17" s="47"/>
-      <c r="BO17" s="47"/>
-      <c r="BP17" s="47"/>
-      <c r="BQ17" s="47"/>
-      <c r="BR17" s="47"/>
-      <c r="BS17" s="47"/>
-      <c r="BT17" s="47"/>
-      <c r="BU17" s="47"/>
-      <c r="BV17" s="47"/>
-      <c r="BW17" s="47"/>
-      <c r="BX17" s="47"/>
-      <c r="BY17" s="47"/>
-      <c r="BZ17" s="47"/>
-      <c r="CA17" s="47"/>
-      <c r="CB17" s="47"/>
-      <c r="CC17" s="47"/>
-      <c r="CD17" s="47"/>
-      <c r="CE17" s="47"/>
-      <c r="CF17" s="47"/>
-      <c r="CG17" s="47"/>
-      <c r="CH17" s="47"/>
-      <c r="CI17" s="48"/>
-    </row>
-    <row r="18" spans="2:87" ht="18" customHeight="1">
-      <c r="B18" s="57">
-        <v>14</v>
-      </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="47"/>
-      <c r="T18" s="47"/>
-      <c r="U18" s="47"/>
-      <c r="V18" s="47"/>
-      <c r="W18" s="47"/>
-      <c r="X18" s="47"/>
-      <c r="Y18" s="47"/>
-      <c r="Z18" s="47"/>
-      <c r="AA18" s="47"/>
-      <c r="AB18" s="47"/>
-      <c r="AC18" s="47"/>
-      <c r="AD18" s="47"/>
-      <c r="AE18" s="47"/>
-      <c r="AF18" s="47"/>
-      <c r="AG18" s="47"/>
-      <c r="AH18" s="47"/>
-      <c r="AI18" s="47"/>
-      <c r="AJ18" s="47"/>
-      <c r="AK18" s="47"/>
-      <c r="AL18" s="47"/>
-      <c r="AM18" s="47"/>
-      <c r="AN18" s="47"/>
-      <c r="AO18" s="47"/>
-      <c r="AP18" s="47"/>
-      <c r="AQ18" s="47"/>
-      <c r="AR18" s="47"/>
-      <c r="AS18" s="49"/>
-      <c r="AT18" s="49"/>
-      <c r="AU18" s="49"/>
-      <c r="AV18" s="47"/>
-      <c r="AW18" s="47"/>
-      <c r="AX18" s="47"/>
-      <c r="AY18" s="47"/>
-      <c r="AZ18" s="47"/>
-      <c r="BA18" s="47"/>
-      <c r="BB18" s="47"/>
-      <c r="BC18" s="46"/>
-      <c r="BD18" s="46"/>
-      <c r="BE18" s="46"/>
-      <c r="BF18" s="47"/>
-      <c r="BG18" s="47"/>
-      <c r="BH18" s="47"/>
-      <c r="BI18" s="47"/>
-      <c r="BJ18" s="47"/>
-      <c r="BK18" s="47"/>
-      <c r="BL18" s="47"/>
-      <c r="BM18" s="47"/>
-      <c r="BN18" s="47"/>
-      <c r="BO18" s="47"/>
-      <c r="BP18" s="47"/>
-      <c r="BQ18" s="47"/>
-      <c r="BR18" s="47"/>
-      <c r="BS18" s="47"/>
-      <c r="BT18" s="47"/>
-      <c r="BU18" s="47"/>
-      <c r="BV18" s="47"/>
-      <c r="BW18" s="47"/>
-      <c r="BX18" s="47"/>
-      <c r="BY18" s="47"/>
-      <c r="BZ18" s="47"/>
-      <c r="CA18" s="47"/>
-      <c r="CB18" s="47"/>
-      <c r="CC18" s="47"/>
-      <c r="CD18" s="47"/>
-      <c r="CE18" s="47"/>
-      <c r="CF18" s="47"/>
-      <c r="CG18" s="47"/>
-      <c r="CH18" s="47"/>
-      <c r="CI18" s="48"/>
-    </row>
-    <row r="19" spans="2:87" ht="18" customHeight="1">
-      <c r="B19" s="57">
-        <v>15</v>
-      </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="47"/>
-      <c r="T19" s="47"/>
-      <c r="U19" s="47"/>
-      <c r="V19" s="47"/>
-      <c r="W19" s="47"/>
-      <c r="X19" s="47"/>
-      <c r="Y19" s="47"/>
-      <c r="Z19" s="47"/>
-      <c r="AA19" s="47"/>
-      <c r="AB19" s="47"/>
-      <c r="AC19" s="47"/>
-      <c r="AD19" s="47"/>
-      <c r="AE19" s="47"/>
-      <c r="AF19" s="47"/>
-      <c r="AG19" s="47"/>
-      <c r="AH19" s="47"/>
-      <c r="AI19" s="47"/>
-      <c r="AJ19" s="47"/>
-      <c r="AK19" s="47"/>
-      <c r="AL19" s="47"/>
-      <c r="AM19" s="47"/>
-      <c r="AN19" s="47"/>
-      <c r="AO19" s="47"/>
-      <c r="AP19" s="47"/>
-      <c r="AQ19" s="47"/>
-      <c r="AR19" s="47"/>
-      <c r="AS19" s="49"/>
-      <c r="AT19" s="49"/>
-      <c r="AU19" s="49"/>
-      <c r="AV19" s="47"/>
-      <c r="AW19" s="47"/>
-      <c r="AX19" s="47"/>
-      <c r="AY19" s="47"/>
-      <c r="AZ19" s="47"/>
-      <c r="BA19" s="47"/>
-      <c r="BB19" s="47"/>
-      <c r="BC19" s="46"/>
-      <c r="BD19" s="46"/>
-      <c r="BE19" s="46"/>
-      <c r="BF19" s="47"/>
-      <c r="BG19" s="47"/>
-      <c r="BH19" s="47"/>
-      <c r="BI19" s="47"/>
-      <c r="BJ19" s="47"/>
-      <c r="BK19" s="47"/>
-      <c r="BL19" s="47"/>
-      <c r="BM19" s="47"/>
-      <c r="BN19" s="47"/>
-      <c r="BO19" s="47"/>
-      <c r="BP19" s="47"/>
-      <c r="BQ19" s="47"/>
-      <c r="BR19" s="47"/>
-      <c r="BS19" s="47"/>
-      <c r="BT19" s="47"/>
-      <c r="BU19" s="47"/>
-      <c r="BV19" s="47"/>
-      <c r="BW19" s="47"/>
-      <c r="BX19" s="47"/>
-      <c r="BY19" s="47"/>
-      <c r="BZ19" s="47"/>
-      <c r="CA19" s="47"/>
-      <c r="CB19" s="47"/>
-      <c r="CC19" s="47"/>
-      <c r="CD19" s="47"/>
-      <c r="CE19" s="47"/>
-      <c r="CF19" s="47"/>
-      <c r="CG19" s="47"/>
-      <c r="CH19" s="47"/>
-      <c r="CI19" s="48"/>
-    </row>
-    <row r="20" spans="2:87" ht="18" customHeight="1">
-      <c r="B20" s="57">
-        <v>16</v>
-      </c>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="47"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="47"/>
-      <c r="W20" s="47"/>
-      <c r="X20" s="47"/>
-      <c r="Y20" s="47"/>
-      <c r="Z20" s="47"/>
-      <c r="AA20" s="47"/>
-      <c r="AB20" s="47"/>
-      <c r="AC20" s="47"/>
-      <c r="AD20" s="47"/>
-      <c r="AE20" s="47"/>
-      <c r="AF20" s="47"/>
-      <c r="AG20" s="47"/>
-      <c r="AH20" s="47"/>
-      <c r="AI20" s="47"/>
-      <c r="AJ20" s="47"/>
-      <c r="AK20" s="47"/>
-      <c r="AL20" s="47"/>
-      <c r="AM20" s="47"/>
-      <c r="AN20" s="47"/>
-      <c r="AO20" s="47"/>
-      <c r="AP20" s="47"/>
-      <c r="AQ20" s="47"/>
-      <c r="AR20" s="47"/>
-      <c r="AS20" s="49"/>
-      <c r="AT20" s="49"/>
-      <c r="AU20" s="49"/>
-      <c r="AV20" s="47"/>
-      <c r="AW20" s="47"/>
-      <c r="AX20" s="47"/>
-      <c r="AY20" s="47"/>
-      <c r="AZ20" s="47"/>
-      <c r="BA20" s="47"/>
-      <c r="BB20" s="47"/>
-      <c r="BC20" s="46"/>
-      <c r="BD20" s="46"/>
-      <c r="BE20" s="46"/>
-      <c r="BF20" s="47"/>
-      <c r="BG20" s="47"/>
-      <c r="BH20" s="47"/>
-      <c r="BI20" s="47"/>
-      <c r="BJ20" s="47"/>
-      <c r="BK20" s="47"/>
-      <c r="BL20" s="47"/>
-      <c r="BM20" s="47"/>
-      <c r="BN20" s="47"/>
-      <c r="BO20" s="47"/>
-      <c r="BP20" s="47"/>
-      <c r="BQ20" s="47"/>
-      <c r="BR20" s="47"/>
-      <c r="BS20" s="47"/>
-      <c r="BT20" s="47"/>
-      <c r="BU20" s="47"/>
-      <c r="BV20" s="47"/>
-      <c r="BW20" s="47"/>
-      <c r="BX20" s="47"/>
-      <c r="BY20" s="47"/>
-      <c r="BZ20" s="47"/>
-      <c r="CA20" s="47"/>
-      <c r="CB20" s="47"/>
-      <c r="CC20" s="47"/>
-      <c r="CD20" s="47"/>
-      <c r="CE20" s="47"/>
-      <c r="CF20" s="47"/>
-      <c r="CG20" s="47"/>
-      <c r="CH20" s="47"/>
-      <c r="CI20" s="48"/>
-    </row>
-    <row r="21" spans="2:87" ht="18" customHeight="1">
-      <c r="B21" s="57">
-        <v>17</v>
-      </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="47"/>
-      <c r="S21" s="47"/>
-      <c r="T21" s="47"/>
-      <c r="U21" s="47"/>
-      <c r="V21" s="47"/>
-      <c r="W21" s="47"/>
-      <c r="X21" s="47"/>
-      <c r="Y21" s="47"/>
-      <c r="Z21" s="47"/>
-      <c r="AA21" s="47"/>
-      <c r="AB21" s="47"/>
-      <c r="AC21" s="47"/>
-      <c r="AD21" s="47"/>
-      <c r="AE21" s="47"/>
-      <c r="AF21" s="47"/>
-      <c r="AG21" s="47"/>
-      <c r="AH21" s="47"/>
-      <c r="AI21" s="47"/>
-      <c r="AJ21" s="47"/>
-      <c r="AK21" s="47"/>
-      <c r="AL21" s="47"/>
-      <c r="AM21" s="47"/>
-      <c r="AN21" s="47"/>
-      <c r="AO21" s="47"/>
-      <c r="AP21" s="47"/>
-      <c r="AQ21" s="47"/>
-      <c r="AR21" s="47"/>
-      <c r="AS21" s="49"/>
-      <c r="AT21" s="49"/>
-      <c r="AU21" s="49"/>
-      <c r="AV21" s="47"/>
-      <c r="AW21" s="47"/>
-      <c r="AX21" s="47"/>
-      <c r="AY21" s="47"/>
-      <c r="AZ21" s="47"/>
-      <c r="BA21" s="47"/>
-      <c r="BB21" s="47"/>
-      <c r="BC21" s="46"/>
-      <c r="BD21" s="46"/>
-      <c r="BE21" s="46"/>
-      <c r="BF21" s="47"/>
-      <c r="BG21" s="47"/>
-      <c r="BH21" s="47"/>
-      <c r="BI21" s="47"/>
-      <c r="BJ21" s="47"/>
-      <c r="BK21" s="47"/>
-      <c r="BL21" s="47"/>
-      <c r="BM21" s="47"/>
-      <c r="BN21" s="47"/>
-      <c r="BO21" s="47"/>
-      <c r="BP21" s="47"/>
-      <c r="BQ21" s="47"/>
-      <c r="BR21" s="47"/>
-      <c r="BS21" s="47"/>
-      <c r="BT21" s="47"/>
-      <c r="BU21" s="47"/>
-      <c r="BV21" s="47"/>
-      <c r="BW21" s="47"/>
-      <c r="BX21" s="47"/>
-      <c r="BY21" s="47"/>
-      <c r="BZ21" s="47"/>
-      <c r="CA21" s="47"/>
-      <c r="CB21" s="47"/>
-      <c r="CC21" s="47"/>
-      <c r="CD21" s="47"/>
-      <c r="CE21" s="47"/>
-      <c r="CF21" s="47"/>
-      <c r="CG21" s="47"/>
-      <c r="CH21" s="47"/>
-      <c r="CI21" s="48"/>
-    </row>
-    <row r="22" spans="2:87" ht="18" customHeight="1">
-      <c r="B22" s="57">
-        <v>18</v>
-      </c>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="47"/>
-      <c r="S22" s="47"/>
-      <c r="T22" s="47"/>
-      <c r="U22" s="47"/>
-      <c r="V22" s="47"/>
-      <c r="W22" s="47"/>
-      <c r="X22" s="47"/>
-      <c r="Y22" s="47"/>
-      <c r="Z22" s="47"/>
-      <c r="AA22" s="47"/>
-      <c r="AB22" s="47"/>
-      <c r="AC22" s="47"/>
-      <c r="AD22" s="47"/>
-      <c r="AE22" s="47"/>
-      <c r="AF22" s="47"/>
-      <c r="AG22" s="47"/>
-      <c r="AH22" s="47"/>
-      <c r="AI22" s="47"/>
-      <c r="AJ22" s="47"/>
-      <c r="AK22" s="47"/>
-      <c r="AL22" s="47"/>
-      <c r="AM22" s="47"/>
-      <c r="AN22" s="47"/>
-      <c r="AO22" s="47"/>
-      <c r="AP22" s="47"/>
-      <c r="AQ22" s="47"/>
-      <c r="AR22" s="47"/>
-      <c r="AS22" s="49"/>
-      <c r="AT22" s="49"/>
-      <c r="AU22" s="49"/>
-      <c r="AV22" s="47"/>
-      <c r="AW22" s="47"/>
-      <c r="AX22" s="47"/>
-      <c r="AY22" s="47"/>
-      <c r="AZ22" s="47"/>
-      <c r="BA22" s="47"/>
-      <c r="BB22" s="47"/>
-      <c r="BC22" s="46"/>
-      <c r="BD22" s="46"/>
-      <c r="BE22" s="46"/>
-      <c r="BF22" s="47"/>
-      <c r="BG22" s="47"/>
-      <c r="BH22" s="47"/>
-      <c r="BI22" s="47"/>
-      <c r="BJ22" s="47"/>
-      <c r="BK22" s="47"/>
-      <c r="BL22" s="47"/>
-      <c r="BM22" s="47"/>
-      <c r="BN22" s="47"/>
-      <c r="BO22" s="47"/>
-      <c r="BP22" s="47"/>
-      <c r="BQ22" s="47"/>
-      <c r="BR22" s="47"/>
-      <c r="BS22" s="47"/>
-      <c r="BT22" s="47"/>
-      <c r="BU22" s="47"/>
-      <c r="BV22" s="47"/>
-      <c r="BW22" s="47"/>
-      <c r="BX22" s="47"/>
-      <c r="BY22" s="47"/>
-      <c r="BZ22" s="47"/>
-      <c r="CA22" s="47"/>
-      <c r="CB22" s="47"/>
-      <c r="CC22" s="47"/>
-      <c r="CD22" s="47"/>
-      <c r="CE22" s="47"/>
-      <c r="CF22" s="47"/>
-      <c r="CG22" s="47"/>
-      <c r="CH22" s="47"/>
-      <c r="CI22" s="48"/>
-    </row>
-    <row r="23" spans="2:87" ht="18" customHeight="1">
-      <c r="B23" s="57">
-        <v>19</v>
-      </c>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="47"/>
-      <c r="Q23" s="47"/>
-      <c r="R23" s="47"/>
-      <c r="S23" s="47"/>
-      <c r="T23" s="47"/>
-      <c r="U23" s="47"/>
-      <c r="V23" s="47"/>
-      <c r="W23" s="47"/>
-      <c r="X23" s="47"/>
-      <c r="Y23" s="47"/>
-      <c r="Z23" s="47"/>
-      <c r="AA23" s="47"/>
-      <c r="AB23" s="47"/>
-      <c r="AC23" s="47"/>
-      <c r="AD23" s="47"/>
-      <c r="AE23" s="47"/>
-      <c r="AF23" s="47"/>
-      <c r="AG23" s="47"/>
-      <c r="AH23" s="47"/>
-      <c r="AI23" s="47"/>
-      <c r="AJ23" s="47"/>
-      <c r="AK23" s="47"/>
-      <c r="AL23" s="47"/>
-      <c r="AM23" s="47"/>
-      <c r="AN23" s="47"/>
-      <c r="AO23" s="47"/>
-      <c r="AP23" s="47"/>
-      <c r="AQ23" s="47"/>
-      <c r="AR23" s="47"/>
-      <c r="AS23" s="49"/>
-      <c r="AT23" s="49"/>
-      <c r="AU23" s="49"/>
-      <c r="AV23" s="47"/>
-      <c r="AW23" s="47"/>
-      <c r="AX23" s="47"/>
-      <c r="AY23" s="47"/>
-      <c r="AZ23" s="47"/>
-      <c r="BA23" s="47"/>
-      <c r="BB23" s="47"/>
-      <c r="BC23" s="46"/>
-      <c r="BD23" s="46"/>
-      <c r="BE23" s="46"/>
-      <c r="BF23" s="47"/>
-      <c r="BG23" s="47"/>
-      <c r="BH23" s="47"/>
-      <c r="BI23" s="47"/>
-      <c r="BJ23" s="47"/>
-      <c r="BK23" s="47"/>
-      <c r="BL23" s="47"/>
-      <c r="BM23" s="47"/>
-      <c r="BN23" s="47"/>
-      <c r="BO23" s="47"/>
-      <c r="BP23" s="47"/>
-      <c r="BQ23" s="47"/>
-      <c r="BR23" s="47"/>
-      <c r="BS23" s="47"/>
-      <c r="BT23" s="47"/>
-      <c r="BU23" s="47"/>
-      <c r="BV23" s="47"/>
-      <c r="BW23" s="47"/>
-      <c r="BX23" s="47"/>
-      <c r="BY23" s="47"/>
-      <c r="BZ23" s="47"/>
-      <c r="CA23" s="47"/>
-      <c r="CB23" s="47"/>
-      <c r="CC23" s="47"/>
-      <c r="CD23" s="47"/>
-      <c r="CE23" s="47"/>
-      <c r="CF23" s="47"/>
-      <c r="CG23" s="47"/>
-      <c r="CH23" s="47"/>
-      <c r="CI23" s="48"/>
-    </row>
-    <row r="24" spans="2:87" ht="18" customHeight="1" thickBot="1">
-      <c r="B24" s="50">
-        <v>20</v>
-      </c>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="43"/>
-      <c r="R24" s="43"/>
-      <c r="S24" s="43"/>
-      <c r="T24" s="43"/>
-      <c r="U24" s="43"/>
-      <c r="V24" s="43"/>
-      <c r="W24" s="43"/>
-      <c r="X24" s="43"/>
-      <c r="Y24" s="43"/>
-      <c r="Z24" s="43"/>
-      <c r="AA24" s="43"/>
-      <c r="AB24" s="43"/>
-      <c r="AC24" s="43"/>
-      <c r="AD24" s="43"/>
-      <c r="AE24" s="43"/>
-      <c r="AF24" s="43"/>
-      <c r="AG24" s="43"/>
-      <c r="AH24" s="43"/>
-      <c r="AI24" s="43"/>
-      <c r="AJ24" s="43"/>
-      <c r="AK24" s="43"/>
-      <c r="AL24" s="43"/>
-      <c r="AM24" s="43"/>
-      <c r="AN24" s="43"/>
-      <c r="AO24" s="43"/>
-      <c r="AP24" s="43"/>
-      <c r="AQ24" s="43"/>
-      <c r="AR24" s="43"/>
-      <c r="AS24" s="42"/>
-      <c r="AT24" s="42"/>
-      <c r="AU24" s="42"/>
-      <c r="AV24" s="43"/>
-      <c r="AW24" s="43"/>
-      <c r="AX24" s="43"/>
-      <c r="AY24" s="43"/>
-      <c r="AZ24" s="43"/>
-      <c r="BA24" s="43"/>
-      <c r="BB24" s="43"/>
-      <c r="BC24" s="44"/>
-      <c r="BD24" s="44"/>
-      <c r="BE24" s="44"/>
-      <c r="BF24" s="43"/>
-      <c r="BG24" s="43"/>
-      <c r="BH24" s="43"/>
-      <c r="BI24" s="43"/>
-      <c r="BJ24" s="43"/>
-      <c r="BK24" s="43"/>
-      <c r="BL24" s="43"/>
-      <c r="BM24" s="43"/>
-      <c r="BN24" s="43"/>
-      <c r="BO24" s="43"/>
-      <c r="BP24" s="43"/>
-      <c r="BQ24" s="43"/>
-      <c r="BR24" s="43"/>
-      <c r="BS24" s="43"/>
-      <c r="BT24" s="43"/>
-      <c r="BU24" s="43"/>
-      <c r="BV24" s="43"/>
-      <c r="BW24" s="43"/>
-      <c r="BX24" s="43"/>
-      <c r="BY24" s="43"/>
-      <c r="BZ24" s="43"/>
-      <c r="CA24" s="43"/>
-      <c r="CB24" s="43"/>
-      <c r="CC24" s="43"/>
-      <c r="CD24" s="43"/>
-      <c r="CE24" s="43"/>
-      <c r="CF24" s="43"/>
-      <c r="CG24" s="43"/>
-      <c r="CH24" s="43"/>
-      <c r="CI24" s="45"/>
-    </row>
-    <row r="25" spans="2:87" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="B25" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="9"/>
-      <c r="Z25" s="8"/>
-      <c r="AA25" s="8"/>
-      <c r="AB25" s="8"/>
-      <c r="AC25" s="8"/>
-      <c r="AD25" s="8"/>
-      <c r="AE25" s="8"/>
-      <c r="AF25" s="8"/>
-      <c r="AG25" s="8"/>
-      <c r="AH25" s="8"/>
-      <c r="AI25" s="8"/>
-      <c r="AJ25" s="8"/>
-      <c r="AK25" s="8"/>
-      <c r="AL25" s="8"/>
-      <c r="AM25" s="8"/>
-      <c r="AN25" s="8"/>
-      <c r="AO25" s="8"/>
-      <c r="AP25" s="8"/>
-      <c r="AQ25" s="8"/>
-      <c r="AR25" s="8"/>
-      <c r="AS25" s="8"/>
-      <c r="AT25" s="8"/>
-      <c r="AU25" s="8"/>
-      <c r="AV25" s="8"/>
-      <c r="AW25" s="8"/>
-      <c r="AX25" s="8"/>
-      <c r="AY25" s="8"/>
-      <c r="AZ25" s="8"/>
-      <c r="BA25" s="8"/>
-      <c r="BB25" s="8"/>
-      <c r="BC25" s="8"/>
-      <c r="BD25" s="8"/>
-      <c r="BE25" s="8"/>
-      <c r="BF25" s="8"/>
-      <c r="BG25" s="8"/>
-      <c r="BH25" s="8"/>
-      <c r="BI25" s="8"/>
-      <c r="BJ25" s="8"/>
-      <c r="BK25" s="8"/>
-      <c r="BL25" s="8"/>
-      <c r="BM25" s="8"/>
-      <c r="BN25" s="8"/>
-      <c r="BO25" s="8"/>
-      <c r="BP25" s="8"/>
-      <c r="BQ25" s="8"/>
-      <c r="BR25" s="8"/>
-      <c r="BS25" s="8"/>
-      <c r="BT25" s="8"/>
-      <c r="BU25" s="8"/>
-      <c r="BV25" s="8"/>
-      <c r="BW25" s="8"/>
-      <c r="BX25" s="8"/>
-      <c r="BY25" s="8"/>
-      <c r="BZ25" s="8"/>
-      <c r="CA25" s="8"/>
-      <c r="CB25" s="8"/>
-      <c r="CC25" s="8"/>
-      <c r="CD25" s="8"/>
-      <c r="CE25" s="8"/>
-      <c r="CF25" s="9"/>
-      <c r="CG25" s="9"/>
-      <c r="CH25" s="9"/>
-      <c r="CI25" s="10"/>
-    </row>
-    <row r="26" spans="2:87" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="B26" s="11"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="13"/>
-      <c r="W26" s="13"/>
-      <c r="X26" s="13"/>
-      <c r="Y26" s="13"/>
-      <c r="Z26" s="12"/>
-      <c r="AA26" s="12"/>
-      <c r="AB26" s="12"/>
-      <c r="AC26" s="12"/>
-      <c r="AD26" s="12"/>
-      <c r="AE26" s="12"/>
-      <c r="AF26" s="12"/>
-      <c r="AG26" s="12"/>
-      <c r="AH26" s="12"/>
-      <c r="AI26" s="12"/>
-      <c r="AJ26" s="12"/>
-      <c r="AK26" s="12"/>
-      <c r="AL26" s="12"/>
-      <c r="AM26" s="12"/>
-      <c r="AN26" s="12"/>
-      <c r="AO26" s="12"/>
-      <c r="AP26" s="12"/>
-      <c r="AQ26" s="12"/>
-      <c r="AR26" s="12"/>
-      <c r="AS26" s="12"/>
-      <c r="AT26" s="12"/>
-      <c r="AU26" s="12"/>
-      <c r="AV26" s="12"/>
-      <c r="AW26" s="12"/>
-      <c r="AX26" s="12"/>
-      <c r="AY26" s="12"/>
-      <c r="AZ26" s="12"/>
-      <c r="BA26" s="12"/>
-      <c r="BB26" s="12"/>
-      <c r="BC26" s="12"/>
-      <c r="BD26" s="12"/>
-      <c r="BE26" s="12"/>
-      <c r="BF26" s="12"/>
-      <c r="BG26" s="12"/>
-      <c r="BH26" s="12"/>
-      <c r="BI26" s="12"/>
-      <c r="BJ26" s="12"/>
-      <c r="BK26" s="12"/>
-      <c r="BL26" s="12"/>
-      <c r="BM26" s="12"/>
-      <c r="BN26" s="12"/>
-      <c r="BO26" s="12"/>
-      <c r="BP26" s="12"/>
-      <c r="BQ26" s="12"/>
-      <c r="BR26" s="12"/>
-      <c r="BS26" s="12"/>
-      <c r="BT26" s="12"/>
-      <c r="BU26" s="12"/>
-      <c r="BV26" s="12"/>
-      <c r="BW26" s="12"/>
-      <c r="BX26" s="12"/>
-      <c r="BY26" s="12"/>
-      <c r="BZ26" s="12"/>
-      <c r="CA26" s="12"/>
-      <c r="CB26" s="12"/>
-      <c r="CC26" s="12"/>
-      <c r="CD26" s="12"/>
-      <c r="CE26" s="12"/>
-      <c r="CF26" s="13"/>
-      <c r="CG26" s="13"/>
-      <c r="CH26" s="13"/>
-      <c r="CI26" s="14"/>
-    </row>
-    <row r="27" spans="2:87" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="B27" s="11"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="13"/>
-      <c r="W27" s="13"/>
-      <c r="X27" s="13"/>
-      <c r="Y27" s="13"/>
-      <c r="Z27" s="12"/>
-      <c r="AA27" s="12"/>
-      <c r="AB27" s="12"/>
-      <c r="AC27" s="12"/>
-      <c r="AD27" s="12"/>
-      <c r="AE27" s="12"/>
-      <c r="AF27" s="12"/>
-      <c r="AG27" s="12"/>
-      <c r="AH27" s="12"/>
-      <c r="AI27" s="12"/>
-      <c r="AJ27" s="12"/>
-      <c r="AK27" s="12"/>
-      <c r="AL27" s="12"/>
-      <c r="AM27" s="12"/>
-      <c r="AN27" s="12"/>
-      <c r="AO27" s="12"/>
-      <c r="AP27" s="12"/>
-      <c r="AQ27" s="12"/>
-      <c r="AR27" s="12"/>
-      <c r="AS27" s="12"/>
-      <c r="AT27" s="12"/>
-      <c r="AU27" s="12"/>
-      <c r="AV27" s="12"/>
-      <c r="AW27" s="12"/>
-      <c r="AX27" s="12"/>
-      <c r="AY27" s="12"/>
-      <c r="AZ27" s="12"/>
-      <c r="BA27" s="12"/>
-      <c r="BB27" s="12"/>
-      <c r="BC27" s="12"/>
-      <c r="BD27" s="12"/>
-      <c r="BE27" s="12"/>
-      <c r="BF27" s="12"/>
-      <c r="BG27" s="12"/>
-      <c r="BH27" s="12"/>
-      <c r="BI27" s="12"/>
-      <c r="BJ27" s="12"/>
-      <c r="BK27" s="12"/>
-      <c r="BL27" s="12"/>
-      <c r="BM27" s="12"/>
-      <c r="BN27" s="12"/>
-      <c r="BO27" s="12"/>
-      <c r="BP27" s="12"/>
-      <c r="BQ27" s="12"/>
-      <c r="BR27" s="12"/>
-      <c r="BS27" s="12"/>
-      <c r="BT27" s="12"/>
-      <c r="BU27" s="12"/>
-      <c r="BV27" s="12"/>
-      <c r="BW27" s="12"/>
-      <c r="BX27" s="12"/>
-      <c r="BY27" s="12"/>
-      <c r="BZ27" s="12"/>
-      <c r="CA27" s="12"/>
-      <c r="CB27" s="12"/>
-      <c r="CC27" s="12"/>
-      <c r="CD27" s="12"/>
-      <c r="CE27" s="12"/>
-      <c r="CF27" s="13"/>
-      <c r="CG27" s="13"/>
-      <c r="CH27" s="13"/>
-      <c r="CI27" s="14"/>
-    </row>
-    <row r="28" spans="2:87">
-      <c r="B28" s="11"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="13"/>
-      <c r="X28" s="13"/>
-      <c r="Y28" s="13"/>
-      <c r="Z28" s="12"/>
-      <c r="AA28" s="12"/>
-      <c r="AB28" s="12"/>
-      <c r="AC28" s="12"/>
-      <c r="AD28" s="12"/>
-      <c r="AE28" s="12"/>
-      <c r="AF28" s="12"/>
-      <c r="AG28" s="12"/>
-      <c r="AH28" s="12"/>
-      <c r="AI28" s="12"/>
-      <c r="AJ28" s="12"/>
-      <c r="AK28" s="12"/>
-      <c r="AL28" s="12"/>
-      <c r="AM28" s="12"/>
-      <c r="AN28" s="12"/>
-      <c r="AO28" s="12"/>
-      <c r="AP28" s="12"/>
-      <c r="AQ28" s="12"/>
-      <c r="AR28" s="12"/>
-      <c r="AS28" s="12"/>
-      <c r="AT28" s="12"/>
-      <c r="AU28" s="12"/>
-      <c r="AV28" s="12"/>
-      <c r="AW28" s="12"/>
-      <c r="AX28" s="12"/>
-      <c r="AY28" s="12"/>
-      <c r="AZ28" s="12"/>
-      <c r="BA28" s="12"/>
-      <c r="BB28" s="12"/>
-      <c r="BC28" s="12"/>
-      <c r="BD28" s="12"/>
-      <c r="BE28" s="12"/>
-      <c r="BF28" s="12"/>
-      <c r="BG28" s="12"/>
-      <c r="BH28" s="12"/>
-      <c r="BI28" s="12"/>
-      <c r="BJ28" s="12"/>
-      <c r="BK28" s="12"/>
-      <c r="BL28" s="12"/>
-      <c r="BM28" s="12"/>
-      <c r="BN28" s="12"/>
-      <c r="BO28" s="12"/>
-      <c r="BP28" s="12"/>
-      <c r="BQ28" s="12"/>
-      <c r="BR28" s="12"/>
-      <c r="BS28" s="12"/>
-      <c r="BT28" s="12"/>
-      <c r="BU28" s="12"/>
-      <c r="BV28" s="12"/>
-      <c r="BW28" s="12"/>
-      <c r="BX28" s="12"/>
-      <c r="BY28" s="12"/>
-      <c r="BZ28" s="12"/>
-      <c r="CA28" s="12"/>
-      <c r="CB28" s="12"/>
-      <c r="CC28" s="12"/>
-      <c r="CD28" s="12"/>
-      <c r="CE28" s="12"/>
-      <c r="CF28" s="13"/>
-      <c r="CG28" s="13"/>
-      <c r="CH28" s="13"/>
-      <c r="CI28" s="14"/>
-    </row>
-    <row r="29" spans="2:87">
-      <c r="B29" s="11"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="13"/>
-      <c r="Z29" s="12"/>
-      <c r="AA29" s="12"/>
-      <c r="AB29" s="12"/>
-      <c r="AC29" s="12"/>
-      <c r="AD29" s="12"/>
-      <c r="AE29" s="12"/>
-      <c r="AF29" s="12"/>
-      <c r="AG29" s="12"/>
-      <c r="AH29" s="12"/>
-      <c r="AI29" s="12"/>
-      <c r="AJ29" s="12"/>
-      <c r="AK29" s="12"/>
-      <c r="AL29" s="12"/>
-      <c r="AM29" s="12"/>
-      <c r="AN29" s="12"/>
-      <c r="AO29" s="12"/>
-      <c r="AP29" s="12"/>
-      <c r="AQ29" s="12"/>
-      <c r="AR29" s="12"/>
-      <c r="AS29" s="12"/>
-      <c r="AT29" s="12"/>
-      <c r="AU29" s="12"/>
-      <c r="AV29" s="12"/>
-      <c r="AW29" s="12"/>
-      <c r="AX29" s="12"/>
-      <c r="AY29" s="12"/>
-      <c r="AZ29" s="12"/>
-      <c r="BA29" s="12"/>
-      <c r="BB29" s="12"/>
-      <c r="BC29" s="12"/>
-      <c r="BD29" s="12"/>
-      <c r="BE29" s="12"/>
-      <c r="BF29" s="12"/>
-      <c r="BG29" s="12"/>
-      <c r="BH29" s="12"/>
-      <c r="BI29" s="12"/>
-      <c r="BJ29" s="12"/>
-      <c r="BK29" s="12"/>
-      <c r="BL29" s="12"/>
-      <c r="BM29" s="12"/>
-      <c r="BN29" s="12"/>
-      <c r="BO29" s="12"/>
-      <c r="BP29" s="12"/>
-      <c r="BQ29" s="12"/>
-      <c r="BR29" s="12"/>
-      <c r="BS29" s="12"/>
-      <c r="BT29" s="12"/>
-      <c r="BU29" s="12"/>
-      <c r="BV29" s="12"/>
-      <c r="BW29" s="12"/>
-      <c r="BX29" s="12"/>
-      <c r="BY29" s="12"/>
-      <c r="BZ29" s="12"/>
-      <c r="CA29" s="12"/>
-      <c r="CB29" s="12"/>
-      <c r="CC29" s="12"/>
-      <c r="CD29" s="12"/>
-      <c r="CE29" s="12"/>
-      <c r="CF29" s="13"/>
-      <c r="CG29" s="13"/>
-      <c r="CH29" s="13"/>
-      <c r="CI29" s="14"/>
-    </row>
-    <row r="30" spans="2:87" ht="18.600000000000001" thickBot="1">
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="16"/>
-      <c r="S30" s="16"/>
-      <c r="T30" s="16"/>
-      <c r="U30" s="16"/>
-      <c r="V30" s="16"/>
-      <c r="W30" s="16"/>
-      <c r="X30" s="16"/>
-      <c r="Y30" s="16"/>
-      <c r="Z30" s="16"/>
-      <c r="AA30" s="16"/>
-      <c r="AB30" s="16"/>
-      <c r="AC30" s="16"/>
-      <c r="AD30" s="16"/>
-      <c r="AE30" s="16"/>
-      <c r="AF30" s="16"/>
-      <c r="AG30" s="16"/>
-      <c r="AH30" s="16"/>
-      <c r="AI30" s="16"/>
-      <c r="AJ30" s="16"/>
-      <c r="AK30" s="16"/>
-      <c r="AL30" s="16"/>
-      <c r="AM30" s="16"/>
-      <c r="AN30" s="16"/>
-      <c r="AO30" s="16"/>
-      <c r="AP30" s="16"/>
-      <c r="AQ30" s="16"/>
-      <c r="AR30" s="16"/>
-      <c r="AS30" s="16"/>
-      <c r="AT30" s="16"/>
-      <c r="AU30" s="16"/>
-      <c r="AV30" s="16"/>
-      <c r="AW30" s="16"/>
-      <c r="AX30" s="16"/>
-      <c r="AY30" s="16"/>
-      <c r="AZ30" s="16"/>
-      <c r="BA30" s="16"/>
-      <c r="BB30" s="16"/>
-      <c r="BC30" s="16"/>
-      <c r="BD30" s="16"/>
-      <c r="BE30" s="16"/>
-      <c r="BF30" s="16"/>
-      <c r="BG30" s="16"/>
-      <c r="BH30" s="16"/>
-      <c r="BI30" s="16"/>
-      <c r="BJ30" s="16"/>
-      <c r="BK30" s="16"/>
-      <c r="BL30" s="16"/>
-      <c r="BM30" s="16"/>
-      <c r="BN30" s="16"/>
-      <c r="BO30" s="16"/>
-      <c r="BP30" s="16"/>
-      <c r="BQ30" s="16"/>
-      <c r="BR30" s="17"/>
-      <c r="BS30" s="17"/>
-      <c r="BT30" s="17"/>
-      <c r="BU30" s="17"/>
-      <c r="BV30" s="17"/>
-      <c r="BW30" s="17"/>
-      <c r="BX30" s="17"/>
-      <c r="BY30" s="17"/>
-      <c r="BZ30" s="17"/>
-      <c r="CA30" s="17"/>
-      <c r="CB30" s="17"/>
-      <c r="CC30" s="17"/>
-      <c r="CD30" s="17"/>
-      <c r="CE30" s="17"/>
-      <c r="CF30" s="17"/>
-      <c r="CG30" s="17"/>
-      <c r="CH30" s="17"/>
-      <c r="CI30" s="18"/>
-    </row>
-  </sheetData>
-  <mergeCells count="162">
-    <mergeCell ref="BF24:CI24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:X24"/>
-    <mergeCell ref="Y24:AR24"/>
-    <mergeCell ref="AS24:AU24"/>
-    <mergeCell ref="AV24:BB24"/>
-    <mergeCell ref="BC24:BE24"/>
-    <mergeCell ref="BF22:CI22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:X23"/>
-    <mergeCell ref="Y23:AR23"/>
-    <mergeCell ref="AS23:AU23"/>
-    <mergeCell ref="AV23:BB23"/>
-    <mergeCell ref="BC23:BE23"/>
-    <mergeCell ref="BF23:CI23"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:X22"/>
-    <mergeCell ref="Y22:AR22"/>
-    <mergeCell ref="AS22:AU22"/>
-    <mergeCell ref="AV22:BB22"/>
-    <mergeCell ref="BC22:BE22"/>
-    <mergeCell ref="BF20:CI20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:X21"/>
-    <mergeCell ref="Y21:AR21"/>
-    <mergeCell ref="AS21:AU21"/>
-    <mergeCell ref="AV21:BB21"/>
-    <mergeCell ref="BC21:BE21"/>
-    <mergeCell ref="BF21:CI21"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:X20"/>
-    <mergeCell ref="Y20:AR20"/>
-    <mergeCell ref="AS20:AU20"/>
-    <mergeCell ref="AV20:BB20"/>
-    <mergeCell ref="BC20:BE20"/>
-    <mergeCell ref="BF18:CI18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:X19"/>
-    <mergeCell ref="Y19:AR19"/>
-    <mergeCell ref="AS19:AU19"/>
-    <mergeCell ref="AV19:BB19"/>
-    <mergeCell ref="BC19:BE19"/>
-    <mergeCell ref="BF19:CI19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:X18"/>
-    <mergeCell ref="Y18:AR18"/>
-    <mergeCell ref="AS18:AU18"/>
-    <mergeCell ref="AV18:BB18"/>
-    <mergeCell ref="BC18:BE18"/>
-    <mergeCell ref="BF16:CI16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:X17"/>
-    <mergeCell ref="Y17:AR17"/>
-    <mergeCell ref="AS17:AU17"/>
-    <mergeCell ref="AV17:BB17"/>
-    <mergeCell ref="BC17:BE17"/>
-    <mergeCell ref="BF17:CI17"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:X16"/>
-    <mergeCell ref="Y16:AR16"/>
-    <mergeCell ref="AS16:AU16"/>
-    <mergeCell ref="AV16:BB16"/>
-    <mergeCell ref="BC16:BE16"/>
-    <mergeCell ref="BF14:CI14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:X15"/>
-    <mergeCell ref="Y15:AR15"/>
-    <mergeCell ref="AS15:AU15"/>
-    <mergeCell ref="AV15:BB15"/>
-    <mergeCell ref="BC15:BE15"/>
-    <mergeCell ref="BF15:CI15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:X14"/>
-    <mergeCell ref="Y14:AR14"/>
-    <mergeCell ref="AS14:AU14"/>
-    <mergeCell ref="AV14:BB14"/>
-    <mergeCell ref="BC14:BE14"/>
-    <mergeCell ref="BF12:CI12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:X13"/>
-    <mergeCell ref="Y13:AR13"/>
-    <mergeCell ref="AS13:AU13"/>
-    <mergeCell ref="AV13:BB13"/>
-    <mergeCell ref="BC13:BE13"/>
-    <mergeCell ref="BF13:CI13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:X12"/>
-    <mergeCell ref="Y12:AR12"/>
-    <mergeCell ref="AS12:AU12"/>
-    <mergeCell ref="AV12:BB12"/>
-    <mergeCell ref="BC12:BE12"/>
-    <mergeCell ref="BF10:CI10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:X11"/>
-    <mergeCell ref="Y11:AR11"/>
-    <mergeCell ref="AS11:AU11"/>
-    <mergeCell ref="AV11:BB11"/>
-    <mergeCell ref="BC11:BE11"/>
-    <mergeCell ref="BF11:CI11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:X10"/>
-    <mergeCell ref="Y10:AR10"/>
-    <mergeCell ref="AS10:AU10"/>
-    <mergeCell ref="AV10:BB10"/>
-    <mergeCell ref="BC10:BE10"/>
-    <mergeCell ref="BF8:CI8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:X9"/>
-    <mergeCell ref="Y9:AR9"/>
-    <mergeCell ref="AS9:AU9"/>
-    <mergeCell ref="AV9:BB9"/>
-    <mergeCell ref="BC9:BE9"/>
-    <mergeCell ref="BF9:CI9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:X8"/>
-    <mergeCell ref="Y8:AR8"/>
-    <mergeCell ref="AS8:AU8"/>
-    <mergeCell ref="AV8:BB8"/>
-    <mergeCell ref="BC8:BE8"/>
-    <mergeCell ref="BF6:CI6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:X7"/>
-    <mergeCell ref="Y7:AR7"/>
-    <mergeCell ref="AS7:AU7"/>
-    <mergeCell ref="AV7:BB7"/>
-    <mergeCell ref="BC7:BE7"/>
-    <mergeCell ref="BF7:CI7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:X6"/>
-    <mergeCell ref="Y6:AR6"/>
-    <mergeCell ref="AS6:AU6"/>
-    <mergeCell ref="AV6:BB6"/>
-    <mergeCell ref="BC6:BE6"/>
-    <mergeCell ref="BF4:CI4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:X5"/>
-    <mergeCell ref="Y5:AR5"/>
-    <mergeCell ref="AS5:AU5"/>
-    <mergeCell ref="AV5:BB5"/>
-    <mergeCell ref="BC5:BE5"/>
     <mergeCell ref="BF5:CI5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:X4"/>
-    <mergeCell ref="Y4:AR4"/>
-    <mergeCell ref="AS4:AU4"/>
-    <mergeCell ref="AV4:BB4"/>
-    <mergeCell ref="BC4:BE4"/>
     <mergeCell ref="CB1:CI1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="H2:V2"/>
